--- a/settings.xlsx
+++ b/settings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://charitede-my.sharepoint.com/personal/lev_petrov_charite_de/Documents/DOCTORATE/Cytomata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="11_F25DC773A252ABDACC104856411A5CB85ADE58E9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C995146E-EA22-4560-9613-6C450B57977E}"/>
+  <xr:revisionPtr revIDLastSave="91" documentId="11_F25DC773A252ABDACC104856411A5CB85ADE58E9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{91DD4601-2EF2-488E-BC87-8FBEF99DDD6D}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5985" yWindow="840" windowWidth="28800" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="46">
   <si>
     <t>setting</t>
   </si>
@@ -129,16 +129,57 @@
     <t>Pre-gated subsets of events that you want to be analyzed. These should be the exact names of folders in fcs/4_subsets/.</t>
   </si>
   <si>
-    <t>Whether to down- or upsample events PER SAMPLE using a given factor. You might want to downsample if studying e.g. granulocytes (on whole blood) to reduce computational burden and oversample if interested in finding rare populations. Downsampling could also be used to reduce the dominance of the oversized samples, while oversampling could be used to enhance the representation of the undersized ones. The cutoff for downsampling is 50% of the most abundant sample (samples are not reduced in size beyond that threshold). The cutoff for oversampling is 50% of the most abundant sample (samples are not increased in size beyond that threshold). Accepts multiple values separated by comma if different needed for each data_subset. Order is given by data_subset order.</t>
+    <t>normalization settings</t>
+  </si>
+  <si>
+    <t>0 (off) or 1 (on).</t>
+  </si>
+  <si>
+    <t>do_normalization</t>
+  </si>
+  <si>
+    <t>database injection settings</t>
+  </si>
+  <si>
+    <t>do_database_injection</t>
+  </si>
+  <si>
+    <t>analysis settings</t>
+  </si>
+  <si>
+    <t>clustering settings</t>
+  </si>
+  <si>
+    <t>UMAP settings</t>
+  </si>
+  <si>
+    <t>do_analysis</t>
+  </si>
+  <si>
+    <t>Whether to down- or upsample events PER SAMPLE using a given factor. You might want to downsample if studying e.g. granulocytes (on whole blood) to reduce computational burden and oversample if interested in finding rare populations. Downsampling could also be used to reduce the dominance of the oversized samples, while oversampling could be used to enhance the representation of the undersized ones. The cutoff for downsampling is the average sample size across all samples (samples are not reduced in size beyond that threshold). The cutoff for oversampling is the average sample size across all samples (samples are not increased in size beyond that threshold). Accepts multiple values separated by comma if different needed for each data_subset. Order is given by data_subset order.</t>
+  </si>
+  <si>
+    <t>event_cutoff</t>
+  </si>
+  <si>
+    <t>minimal sample size to be included. Samples that are too small can  lead to outliers in cluster abundances. 0 can be selected to ommit filtering by event size.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -153,7 +194,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -161,17 +202,176 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -453,174 +653,260 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="28.44140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="23.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="28.42578125" style="1" customWidth="1"/>
     <col min="3" max="3" width="59" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="9" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="1">
         <v>1</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="12" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:3" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="6">
+        <v>0</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B8" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C8" s="12" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+    <row r="9" spans="1:3" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+    </row>
+    <row r="10" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="14">
+        <v>0</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="6">
+        <v>1</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C13" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+    <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C14" s="9" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+    <row r="15" spans="1:3" ht="210" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B15" s="1">
         <v>1</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+      <c r="C15" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="1">
+        <v>100</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B17" s="11">
         <v>0</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C17" s="12" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+    <row r="18" spans="1:3" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+    </row>
+    <row r="19" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B19" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C19" s="7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="72" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
+    <row r="20" spans="1:3" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B20" s="11">
         <v>30</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C20" s="12" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="72" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
+    <row r="21" spans="1:3" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+    </row>
+    <row r="22" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B22" s="6">
         <v>15</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C22" s="7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
+    <row r="23" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B23" s="11">
         <v>0.1</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C23" s="12" t="s">
         <v>29</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A6:C6"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/settings.xlsx
+++ b/settings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://charitede-my.sharepoint.com/personal/lev_petrov_charite_de/Documents/DOCTORATE/Cytomata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="91" documentId="11_F25DC773A252ABDACC104856411A5CB85ADE58E9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{91DD4601-2EF2-488E-BC87-8FBEF99DDD6D}"/>
+  <xr:revisionPtr revIDLastSave="92" documentId="11_F25DC773A252ABDACC104856411A5CB85ADE58E9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4CE2C7D2-6FC7-4DEB-90B6-FF216ACDF055}"/>
   <bookViews>
-    <workbookView xWindow="5985" yWindow="840" windowWidth="28800" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="15" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="47">
   <si>
     <t>setting</t>
   </si>
@@ -163,6 +163,9 @@
   </si>
   <si>
     <t>minimal sample size to be included. Samples that are too small can  lead to outliers in cluster abundances. 0 can be selected to ommit filtering by event size.</t>
+  </si>
+  <si>
+    <t>1, 15</t>
   </si>
 </sst>
 </file>
@@ -656,7 +659,7 @@
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="A18" sqref="A18:C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -834,8 +837,8 @@
       <c r="A17" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="11">
-        <v>0</v>
+      <c r="B17" s="11" t="s">
+        <v>46</v>
       </c>
       <c r="C17" s="12" t="s">
         <v>30</v>

--- a/settings.xlsx
+++ b/settings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://charitede-my.sharepoint.com/personal/lev_petrov_charite_de/Documents/DOCTORATE/Cytomata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="92" documentId="11_F25DC773A252ABDACC104856411A5CB85ADE58E9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4CE2C7D2-6FC7-4DEB-90B6-FF216ACDF055}"/>
+  <xr:revisionPtr revIDLastSave="118" documentId="11_F25DC773A252ABDACC104856411A5CB85ADE58E9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1D430BB5-C2D3-45EF-B9FC-37C937929CCA}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="15" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="54">
   <si>
     <t>setting</t>
   </si>
@@ -166,6 +166,27 @@
   </si>
   <si>
     <t>1, 15</t>
+  </si>
+  <si>
+    <t>plotting settings</t>
+  </si>
+  <si>
+    <t>figure_object_scaling</t>
+  </si>
+  <si>
+    <t>figure_text_scaling</t>
+  </si>
+  <si>
+    <t>increase factor for bigger objects (points, lines) in figures, or decrease for smaller, try to avoid drastic changes, because it is a multiplicative factor</t>
+  </si>
+  <si>
+    <t>automatic_palette</t>
+  </si>
+  <si>
+    <t>if you want to set a custom palette for your group stratification, set this to 0 and change values in "analysis_plot_settings.R"</t>
+  </si>
+  <si>
+    <t>increase factor for bigger text, labels and legends in figures, or decrease for smaller, try to avoid drastic changes, because it is a multiplicative factor</t>
   </si>
 </sst>
 </file>
@@ -326,7 +347,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -373,7 +394,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -656,20 +686,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:C18"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="28.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="23.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="28.44140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="59" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -680,7 +710,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
@@ -691,7 +721,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>4</v>
       </c>
@@ -702,7 +732,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
@@ -713,7 +743,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="10" t="s">
         <v>6</v>
       </c>
@@ -724,14 +754,14 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="16" t="s">
+    <row r="6" spans="1:3" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>36</v>
       </c>
@@ -742,7 +772,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="10" t="s">
         <v>7</v>
       </c>
@@ -753,14 +783,14 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="16" t="s">
+    <row r="9" spans="1:3" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-    </row>
-    <row r="10" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+    </row>
+    <row r="10" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="13" t="s">
         <v>38</v>
       </c>
@@ -771,14 +801,14 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="16" t="s">
+    <row r="11" spans="1:3" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>42</v>
       </c>
@@ -789,7 +819,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
         <v>8</v>
       </c>
@@ -800,7 +830,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
         <v>9</v>
       </c>
@@ -811,7 +841,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="210" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
         <v>10</v>
       </c>
@@ -822,7 +852,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
         <v>44</v>
       </c>
@@ -833,7 +863,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="10" t="s">
         <v>11</v>
       </c>
@@ -844,71 +874,112 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="16" t="s">
+    <row r="18" spans="1:3" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+    </row>
+    <row r="19" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" s="6">
+        <v>1</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A20" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20" s="16">
+        <v>1</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" s="11">
+        <v>1</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
-    </row>
-    <row r="19" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
+    </row>
+    <row r="23" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A23" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B23" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C23" s="7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="10" t="s">
+    <row r="24" spans="1:3" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="11">
+      <c r="B24" s="11">
         <v>30</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C24" s="12" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="16" t="s">
+    <row r="25" spans="1:3" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
-    </row>
-    <row r="22" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
+    </row>
+    <row r="26" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="A26" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B26" s="6">
         <v>15</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C26" s="7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="10" t="s">
+    <row r="27" spans="1:3" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="11">
+      <c r="B27" s="11">
         <v>0.1</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="C27" s="12" t="s">
         <v>29</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A21:C21"/>
+  <mergeCells count="6">
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A25:C25"/>
     <mergeCell ref="A11:C11"/>
     <mergeCell ref="A9:C9"/>
     <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A18:C18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/settings.xlsx
+++ b/settings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://charitede-my.sharepoint.com/personal/lev_petrov_charite_de/Documents/DOCTORATE/Cytomata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="118" documentId="11_F25DC773A252ABDACC104856411A5CB85ADE58E9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1D430BB5-C2D3-45EF-B9FC-37C937929CCA}"/>
+  <xr:revisionPtr revIDLastSave="154" documentId="11_F25DC773A252ABDACC104856411A5CB85ADE58E9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B292E3B9-F949-4A8B-A874-1E52A096428E}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="-27030" yWindow="660" windowWidth="27135" windowHeight="14310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="58">
   <si>
     <t>setting</t>
   </si>
@@ -108,9 +108,6 @@
     <t>fs = FlowSOM with automatic cluster merging (default), fs_manual = FlowSOM with set k, manual merging possible, pg = PhenoGraph (attention, slow!)</t>
   </si>
   <si>
-    <t>If fs, final number of clusters before automatic merging. If fs_manual, final number of clusters before manual merging. If pg, number of nearest neighbors parameter. Accepts multiple values, separated by comma, if different values are needed for each data_subset. Order is given by data_subset vector.</t>
-  </si>
-  <si>
     <t>UMAPs n_neighbors. Low value leads to better resolution of local structure, high - to better capture of global structure. Default value is 15. Accepts multiple values, separated by comma of different values are needed for each data_subset. Order is given by data_subset vector.</t>
   </si>
   <si>
@@ -187,13 +184,28 @@
   </si>
   <si>
     <t>increase factor for bigger text, labels and legends in figures, or decrease for smaller, try to avoid drastic changes, because it is a multiplicative factor</t>
+  </si>
+  <si>
+    <t>If fs, number of clusters after hierarchical and before automatic merging. If fs_manual, final number of clusters after hierarchical merging. If pg, number of nearest neighbors parameter. Accepts multiple values, separated by comma, if different values are needed for each data_subset. Order is given by data_subset vector.</t>
+  </si>
+  <si>
+    <t>fs_n_dims</t>
+  </si>
+  <si>
+    <t>controls the size of SOM. e.g. 10 gives a total of 100 nodes in SOM (xdim of 10 and ydim of 10), 20 results in 400 etc. default value is 10.</t>
+  </si>
+  <si>
+    <t>ccp_delta_cutoff</t>
+  </si>
+  <si>
+    <t>used for automatic detection of optimal number of clusters in "fs" clustering engine. minimal increase in CDF area under the curve after adding one more cluster. When increase reaches a plateu, maximum clustering consensus has probably been reached.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -209,6 +221,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9CDCFE"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -347,7 +365,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -394,8 +412,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -686,20 +710,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="28.44140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="23.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="28.42578125" style="1" customWidth="1"/>
     <col min="3" max="3" width="59" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -710,7 +734,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
@@ -718,10 +742,10 @@
         <v>16</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>4</v>
       </c>
@@ -729,97 +753,97 @@
         <v>17</v>
       </c>
       <c r="C3" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="12" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
+    <row r="5" spans="1:3" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="6">
+        <v>0</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+    </row>
+    <row r="9" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="14">
+        <v>0</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="6">
+        <v>1</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B12" s="1">
         <v>1</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C12" s="9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" s="6">
-        <v>0</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-    </row>
-    <row r="10" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B10" s="14">
-        <v>0</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B12" s="6">
-        <v>1</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>8</v>
       </c>
@@ -830,7 +854,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>9</v>
       </c>
@@ -838,10 +862,10 @@
         <v>21</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="172.8" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="210" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>10</v>
       </c>
@@ -849,79 +873,79 @@
         <v>1</v>
       </c>
       <c r="C15" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
         <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A16" s="8" t="s">
-        <v>44</v>
       </c>
       <c r="B16" s="1">
         <v>100</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
         <v>11</v>
       </c>
       <c r="B17" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="19" t="s">
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
+    </row>
+    <row r="19" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
         <v>47</v>
-      </c>
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
-    </row>
-    <row r="19" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
-        <v>48</v>
       </c>
       <c r="B19" s="6">
         <v>1</v>
       </c>
       <c r="C19" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" s="1">
+        <v>1</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="10" t="s">
         <v>50</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A20" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B20" s="16">
-        <v>1</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="10" t="s">
-        <v>51</v>
       </c>
       <c r="B21" s="11">
         <v>1</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
-    </row>
-    <row r="23" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+    </row>
+    <row r="23" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>12</v>
       </c>
@@ -932,53 +956,76 @@
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="10" t="s">
+    <row r="24" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B24" s="11">
+      <c r="B24" s="1">
         <v>30</v>
       </c>
-      <c r="C24" s="12" t="s">
+      <c r="C24" s="16" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B25" s="1">
+        <v>10</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" s="11">
+        <v>0.01</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="G26" s="18"/>
+    </row>
+    <row r="27" spans="1:7" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" s="20"/>
+      <c r="C27" s="20"/>
+    </row>
+    <row r="28" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B28" s="6">
+        <v>15</v>
+      </c>
+      <c r="C28" s="7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
-    </row>
-    <row r="26" spans="1:3" ht="72" x14ac:dyDescent="0.3">
-      <c r="A26" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B26" s="6">
+    <row r="29" spans="1:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="B29" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="C29" s="12" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B27" s="11">
-        <v>0.1</v>
-      </c>
-      <c r="C27" s="12" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A5:C5"/>
     <mergeCell ref="A18:C18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/settings.xlsx
+++ b/settings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://charitede-my.sharepoint.com/personal/lev_petrov_charite_de/Documents/DOCTORATE/Cytomata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="154" documentId="11_F25DC773A252ABDACC104856411A5CB85ADE58E9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B292E3B9-F949-4A8B-A874-1E52A096428E}"/>
+  <xr:revisionPtr revIDLastSave="180" documentId="11_F25DC773A252ABDACC104856411A5CB85ADE58E9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{44857EA5-BBE2-4D98-909F-3A29C74F0761}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="-27030" yWindow="660" windowWidth="27135" windowHeight="14310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-27930" yWindow="1185" windowWidth="22185" windowHeight="15690" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="61">
   <si>
     <t>setting</t>
   </si>
@@ -123,9 +123,6 @@
     <t>Used to find meta-table in meta_folder.</t>
   </si>
   <si>
-    <t>Pre-gated subsets of events that you want to be analyzed. These should be the exact names of folders in fcs/4_subsets/.</t>
-  </si>
-  <si>
     <t>normalization settings</t>
   </si>
   <si>
@@ -199,6 +196,18 @@
   </si>
   <si>
     <t>used for automatic detection of optimal number of clusters in "fs" clustering engine. minimal increase in CDF area under the curve after adding one more cluster. When increase reaches a plateu, maximum clustering consensus has probably been reached.</t>
+  </si>
+  <si>
+    <t>excluded_channels</t>
+  </si>
+  <si>
+    <t>B2M, DNA, Bead, LD, Live, Dead, ID, Cell-ID, Cell_ID</t>
+  </si>
+  <si>
+    <t>Pre-gated subsets of events that you want to analyze. These should be the exact names of folders in fcs/4_subsets/. Separated by comma.</t>
+  </si>
+  <si>
+    <t>Patterns present in the names of pre-processing channels that will be used to remove them. Input separated by comma. This can be adjusted in the panel.csv file afterwards.</t>
   </si>
 </sst>
 </file>
@@ -365,7 +374,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -420,6 +429,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -710,10 +722,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -756,277 +768,288 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="10" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="9" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="20" t="s">
+    <row r="5" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="6">
+        <v>0</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+    </row>
+    <row r="8" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+    </row>
+    <row r="10" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="14">
         <v>0</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-    </row>
-    <row r="9" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="13" t="s">
+      <c r="C10" s="15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="14">
-        <v>0</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B11" s="6">
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="6">
         <v>1</v>
       </c>
-      <c r="C11" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
+      <c r="C12" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B13" s="1">
         <v>1</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C13" s="9" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="210" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
+      <c r="C15" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="210" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B16" s="1">
         <v>1</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C16" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
+      <c r="B17" s="1">
+        <v>100</v>
+      </c>
+      <c r="C17" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B16" s="1">
-        <v>100</v>
-      </c>
-      <c r="C16" s="9" t="s">
+    </row>
+    <row r="18" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="11" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17" s="11" t="s">
+      <c r="C18" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="21" t="s">
+      <c r="B19" s="22"/>
+      <c r="C19" s="22"/>
+    </row>
+    <row r="20" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B18" s="21"/>
-      <c r="C18" s="21"/>
-    </row>
-    <row r="19" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
+      <c r="B20" s="6">
+        <v>1</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B21" s="1">
         <v>1</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C21" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="10" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B20" s="1">
+      <c r="B22" s="11">
         <v>1</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C22" s="12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
+    </row>
+    <row r="24" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" s="1">
+        <v>30</v>
+      </c>
+      <c r="C25" s="16" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="B21" s="11">
-        <v>1</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="19" t="s">
+    <row r="26" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B26" s="1">
+        <v>10</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27" s="11">
+        <v>0.01</v>
+      </c>
+      <c r="C27" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="G27" s="18"/>
+    </row>
+    <row r="28" spans="1:7" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="B22" s="19"/>
-      <c r="C22" s="19"/>
-    </row>
-    <row r="23" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B24" s="1">
-        <v>30</v>
-      </c>
-      <c r="C24" s="16" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A25" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="B25" s="1">
-        <v>10</v>
-      </c>
-      <c r="C25" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="B26" s="11">
-        <v>0.01</v>
-      </c>
-      <c r="C26" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="G26" s="18"/>
-    </row>
-    <row r="27" spans="1:7" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="B27" s="20"/>
-      <c r="C27" s="20"/>
-    </row>
-    <row r="28" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
+      <c r="B28" s="21"/>
+      <c r="C28" s="21"/>
+    </row>
+    <row r="29" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B28" s="6">
+      <c r="B29" s="6">
         <v>15</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C29" s="7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="10" t="s">
+    <row r="30" spans="1:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B29" s="11">
+      <c r="B30" s="11">
         <v>0.1</v>
       </c>
-      <c r="C29" s="12" t="s">
+      <c r="C30" s="12" t="s">
         <v>28</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A19:C19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/settings.xlsx
+++ b/settings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://charitede-my.sharepoint.com/personal/lev_petrov_charite_de/Documents/DOCTORATE/Cytomata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="180" documentId="11_F25DC773A252ABDACC104856411A5CB85ADE58E9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{44857EA5-BBE2-4D98-909F-3A29C74F0761}"/>
+  <xr:revisionPtr revIDLastSave="181" documentId="11_F25DC773A252ABDACC104856411A5CB85ADE58E9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4E239B27-7D85-4774-845D-0A3F44936CB5}"/>
   <bookViews>
     <workbookView xWindow="-27930" yWindow="1185" windowWidth="22185" windowHeight="15690" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -159,9 +159,6 @@
     <t>minimal sample size to be included. Samples that are too small can  lead to outliers in cluster abundances. 0 can be selected to ommit filtering by event size.</t>
   </si>
   <si>
-    <t>1, 15</t>
-  </si>
-  <si>
     <t>plotting settings</t>
   </si>
   <si>
@@ -208,6 +205,9 @@
   </si>
   <si>
     <t>Patterns present in the names of pre-processing channels that will be used to remove them. Input separated by comma. This can be adjusted in the panel.csv file afterwards.</t>
+  </si>
+  <si>
+    <t>1, 20</t>
   </si>
 </sst>
 </file>
@@ -725,7 +725,7 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -781,13 +781,13 @@
     </row>
     <row r="5" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="B5" s="19" t="s">
-        <v>58</v>
-      </c>
       <c r="C5" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -885,7 +885,7 @@
         <v>21</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="210" x14ac:dyDescent="0.25">
@@ -915,7 +915,7 @@
         <v>11</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="C18" s="12" t="s">
         <v>29</v>
@@ -923,42 +923,42 @@
     </row>
     <row r="19" spans="1:7" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B19" s="22"/>
       <c r="C19" s="22"/>
     </row>
     <row r="20" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B20" s="6">
         <v>1</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B21" s="1">
         <v>1</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B22" s="11">
         <v>1</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -987,29 +987,29 @@
         <v>30</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B26" s="1">
         <v>10</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B27" s="11">
         <v>0.01</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G27" s="18"/>
     </row>

--- a/settings.xlsx
+++ b/settings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://charitede-my.sharepoint.com/personal/lev_petrov_charite_de/Documents/DOCTORATE/Cytomata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="181" documentId="11_F25DC773A252ABDACC104856411A5CB85ADE58E9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4E239B27-7D85-4774-845D-0A3F44936CB5}"/>
+  <xr:revisionPtr revIDLastSave="185" documentId="11_F25DC773A252ABDACC104856411A5CB85ADE58E9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EB69B38B-8B2F-4DA4-B04D-21784D009C37}"/>
   <bookViews>
-    <workbookView xWindow="-27930" yWindow="1185" windowWidth="22185" windowHeight="15690" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-27240" yWindow="1185" windowWidth="27030" windowHeight="15690" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -78,15 +78,9 @@
     <t>~/DOCTORATE/Cytomata_data/</t>
   </si>
   <si>
-    <t>dev_project_panel_1</t>
-  </si>
-  <si>
     <t>meta</t>
   </si>
   <si>
-    <t>HC-4, HC-100</t>
-  </si>
-  <si>
     <t>sev_age_timepoint, inf_age_timepoint</t>
   </si>
   <si>
@@ -208,6 +202,12 @@
   </si>
   <si>
     <t>1, 20</t>
+  </si>
+  <si>
+    <t>small_dev_project_panel_1</t>
+  </si>
+  <si>
+    <t>HC-100</t>
   </si>
 </sst>
 </file>
@@ -725,7 +725,7 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -754,7 +754,7 @@
         <v>16</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -762,10 +762,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -773,39 +773,39 @@
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B5" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="12" t="s">
         <v>57</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="21" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B6" s="21"/>
       <c r="C6" s="21"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B7" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -813,46 +813,46 @@
         <v>7</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="21" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B9" s="21"/>
       <c r="C9" s="21"/>
     </row>
     <row r="10" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B10" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="21" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B11" s="21"/>
       <c r="C11" s="21"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B12" s="6">
         <v>1</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -863,7 +863,7 @@
         <v>1</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -871,10 +871,10 @@
         <v>8</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -882,10 +882,10 @@
         <v>9</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="210" x14ac:dyDescent="0.25">
@@ -896,18 +896,18 @@
         <v>1</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B17" s="1">
         <v>100</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -915,55 +915,55 @@
         <v>11</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="22" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B19" s="22"/>
       <c r="C19" s="22"/>
     </row>
     <row r="20" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B20" s="6">
         <v>1</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B21" s="1">
         <v>1</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B22" s="11">
         <v>1</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="20" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B23" s="20"/>
       <c r="C23" s="20"/>
@@ -973,10 +973,10 @@
         <v>12</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="90" x14ac:dyDescent="0.25">
@@ -987,35 +987,35 @@
         <v>30</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B26" s="1">
         <v>10</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B27" s="11">
         <v>0.01</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G27" s="18"/>
     </row>
     <row r="28" spans="1:7" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B28" s="21"/>
       <c r="C28" s="21"/>
@@ -1028,7 +1028,7 @@
         <v>15</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1039,7 +1039,7 @@
         <v>0.1</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/settings.xlsx
+++ b/settings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://charitede-my.sharepoint.com/personal/lev_petrov_charite_de/Documents/DOCTORATE/Cytomata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="185" documentId="11_F25DC773A252ABDACC104856411A5CB85ADE58E9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EB69B38B-8B2F-4DA4-B04D-21784D009C37}"/>
+  <xr:revisionPtr revIDLastSave="188" documentId="11_F25DC773A252ABDACC104856411A5CB85ADE58E9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7BF836D1-576C-41D0-91D6-725C8E14BA47}"/>
   <bookViews>
-    <workbookView xWindow="-27240" yWindow="1185" windowWidth="27030" windowHeight="15690" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="1155" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="63">
   <si>
     <t>setting</t>
   </si>
@@ -208,6 +208,12 @@
   </si>
   <si>
     <t>HC-100</t>
+  </si>
+  <si>
+    <t>grouping_orders</t>
+  </si>
+  <si>
+    <t>Control order of groups. Input group names separated by comma. For multiple grouping columns - separate by semicolon.</t>
   </si>
 </sst>
 </file>
@@ -722,10 +728,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -879,177 +885,185 @@
     </row>
     <row r="15" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C16" s="9" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="210" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
+    <row r="17" spans="1:7" ht="210" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B17" s="1">
         <v>1</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C17" s="9" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
+    <row r="18" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B18" s="1">
         <v>100</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C18" s="9" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="10" t="s">
+    <row r="19" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B19" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C19" s="12" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="22" t="s">
+    <row r="20" spans="1:7" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="B19" s="22"/>
-      <c r="C19" s="22"/>
-    </row>
-    <row r="20" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
+    </row>
+    <row r="21" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B21" s="6">
         <v>1</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C21" s="7" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
+    <row r="22" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B22" s="1">
         <v>1</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C22" s="9" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="10" t="s">
+    <row r="23" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="B22" s="11">
+      <c r="B23" s="11">
         <v>1</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="C23" s="12" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="20" t="s">
+    <row r="24" spans="1:7" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="B23" s="20"/>
-      <c r="C23" s="20"/>
-    </row>
-    <row r="24" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
+      <c r="B24" s="20"/>
+      <c r="C24" s="20"/>
+    </row>
+    <row r="25" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B25" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C25" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A25" s="8" t="s">
+    <row r="26" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B26" s="1">
         <v>30</v>
       </c>
-      <c r="C25" s="16" t="s">
+      <c r="C26" s="16" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A26" s="8" t="s">
+    <row r="27" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A27" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B27" s="1">
         <v>10</v>
       </c>
-      <c r="C26" s="16" t="s">
+      <c r="C27" s="16" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="10" t="s">
+    <row r="28" spans="1:7" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B27" s="11">
+      <c r="B28" s="11">
         <v>0.01</v>
       </c>
-      <c r="C27" s="17" t="s">
+      <c r="C28" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="G27" s="18"/>
-    </row>
-    <row r="28" spans="1:7" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="21" t="s">
+      <c r="G28" s="18"/>
+    </row>
+    <row r="29" spans="1:7" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="B28" s="21"/>
-      <c r="C28" s="21"/>
-    </row>
-    <row r="29" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
+      <c r="B29" s="21"/>
+      <c r="C29" s="21"/>
+    </row>
+    <row r="30" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B29" s="6">
+      <c r="B30" s="6">
         <v>15</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C30" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="10" t="s">
+    <row r="31" spans="1:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B30" s="11">
+      <c r="B31" s="11">
         <v>0.1</v>
       </c>
-      <c r="C30" s="12" t="s">
+      <c r="C31" s="12" t="s">
         <v>26</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A29:C29"/>
     <mergeCell ref="A11:C11"/>
     <mergeCell ref="A9:C9"/>
     <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/settings.xlsx
+++ b/settings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://charitede-my.sharepoint.com/personal/lev_petrov_charite_de/Documents/DOCTORATE/Cytomata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="188" documentId="11_F25DC773A252ABDACC104856411A5CB85ADE58E9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7BF836D1-576C-41D0-91D6-725C8E14BA47}"/>
+  <xr:revisionPtr revIDLastSave="189" documentId="11_F25DC773A252ABDACC104856411A5CB85ADE58E9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DA840CA6-4FFA-46F3-B7E4-CAB32C6C4A93}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="1155" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -81,9 +81,6 @@
     <t>meta</t>
   </si>
   <si>
-    <t>sev_age_timepoint, inf_age_timepoint</t>
-  </si>
-  <si>
     <t>CD4_T</t>
   </si>
   <si>
@@ -214,6 +211,9 @@
   </si>
   <si>
     <t>Control order of groups. Input group names separated by comma. For multiple grouping columns - separate by semicolon.</t>
+  </si>
+  <si>
+    <t>sev_age_timepoint, inf_age_timepoint, inf_age</t>
   </si>
 </sst>
 </file>
@@ -730,8 +730,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -760,7 +760,7 @@
         <v>16</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -768,10 +768,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -782,36 +782,36 @@
         <v>17</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="B5" s="19" t="s">
-        <v>55</v>
-      </c>
       <c r="C5" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B6" s="21"/>
       <c r="C6" s="21"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B7" s="6">
         <v>1</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -819,46 +819,46 @@
         <v>7</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B9" s="21"/>
       <c r="C9" s="21"/>
     </row>
     <row r="10" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B10" s="14">
         <v>1</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B11" s="21"/>
       <c r="C11" s="21"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B12" s="6">
         <v>1</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -869,7 +869,7 @@
         <v>1</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -877,18 +877,18 @@
         <v>8</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="9" t="s">
         <v>61</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -896,10 +896,10 @@
         <v>9</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="210" x14ac:dyDescent="0.25">
@@ -910,18 +910,18 @@
         <v>1</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B18" s="1">
         <v>100</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -929,55 +929,55 @@
         <v>11</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B20" s="22"/>
       <c r="C20" s="22"/>
     </row>
     <row r="21" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B21" s="6">
         <v>1</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B22" s="1">
         <v>1</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B23" s="11">
         <v>1</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B24" s="20"/>
       <c r="C24" s="20"/>
@@ -987,10 +987,10 @@
         <v>12</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="90" x14ac:dyDescent="0.25">
@@ -1001,35 +1001,35 @@
         <v>30</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B27" s="1">
         <v>10</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B28" s="11">
         <v>0.01</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G28" s="18"/>
     </row>
     <row r="29" spans="1:7" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B29" s="21"/>
       <c r="C29" s="21"/>
@@ -1042,7 +1042,7 @@
         <v>15</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1053,7 +1053,7 @@
         <v>0.1</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/settings.xlsx
+++ b/settings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://charitede-my.sharepoint.com/personal/lev_petrov_charite_de/Documents/DOCTORATE/Cytomata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="189" documentId="11_F25DC773A252ABDACC104856411A5CB85ADE58E9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DA840CA6-4FFA-46F3-B7E4-CAB32C6C4A93}"/>
+  <xr:revisionPtr revIDLastSave="202" documentId="11_F25DC773A252ABDACC104856411A5CB85ADE58E9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EAD6DAA3-7B3E-4EED-90CC-B3AAA5EB1E6B}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="1155" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="64">
   <si>
     <t>setting</t>
   </si>
@@ -210,10 +210,13 @@
     <t>grouping_orders</t>
   </si>
   <si>
-    <t>Control order of groups. Input group names separated by comma. For multiple grouping columns - separate by semicolon.</t>
-  </si>
-  <si>
     <t>sev_age_timepoint, inf_age_timepoint, inf_age</t>
+  </si>
+  <si>
+    <t>Control order of groups. Input group names separated by comma. For multiple grouping columns - separate by semicolon. If you do not want to input order for any specific grouping column - write NA.</t>
+  </si>
+  <si>
+    <t>NA; control child, control, infected child, infected adult, infected child d14, infected adult d14, infected child d180, infected adult d180; control child, control adult, infected child, infected adult</t>
   </si>
 </sst>
 </file>
@@ -380,7 +383,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -397,9 +400,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -412,18 +412,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -447,6 +441,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -730,14 +730,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="28.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="71.28515625" style="2" customWidth="1"/>
     <col min="3" max="3" width="59" style="2" customWidth="1"/>
   </cols>
   <sheetData>
@@ -745,7 +745,7 @@
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
@@ -756,303 +756,306 @@
       <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="8" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="10" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="20">
         <v>1</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="6" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="10" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
     </row>
     <row r="10" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="14">
+      <c r="B10" s="21">
         <v>1</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="12" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="20">
         <v>1</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="6" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="2">
         <v>1</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="8" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="C14" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>61</v>
-      </c>
     </row>
     <row r="16" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="8" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="210" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="2">
         <v>1</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="8" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="2">
         <v>100</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="8" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C19" s="10" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="22" t="s">
+      <c r="A20" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
     </row>
     <row r="21" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21" s="20">
         <v>1</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="6" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="2">
         <v>1</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="8" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="B23" s="11">
+      <c r="B23" s="16">
         <v>1</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="C23" s="10" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="20" t="s">
+      <c r="A24" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="B24" s="20"/>
-      <c r="C24" s="20"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
     </row>
     <row r="25" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="6" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A26" s="8" t="s">
+      <c r="A26" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26" s="2">
         <v>30</v>
       </c>
-      <c r="C26" s="16" t="s">
+      <c r="C26" s="13" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A27" s="8" t="s">
+      <c r="A27" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27" s="2">
         <v>10</v>
       </c>
-      <c r="C27" s="16" t="s">
+      <c r="C27" s="13" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="10" t="s">
+      <c r="A28" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="B28" s="11">
+      <c r="B28" s="16">
         <v>0.01</v>
       </c>
-      <c r="C28" s="17" t="s">
+      <c r="C28" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="G28" s="18"/>
+      <c r="G28" s="15"/>
     </row>
     <row r="29" spans="1:7" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="21" t="s">
+      <c r="A29" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="18"/>
     </row>
     <row r="30" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B30" s="6">
+      <c r="B30" s="20">
         <v>15</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C30" s="6" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="10" t="s">
+      <c r="A31" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B31" s="11">
+      <c r="B31" s="16">
         <v>0.1</v>
       </c>
-      <c r="C31" s="12" t="s">
+      <c r="C31" s="10" t="s">
         <v>25</v>
       </c>
     </row>

--- a/settings.xlsx
+++ b/settings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://charitede-my.sharepoint.com/personal/lev_petrov_charite_de/Documents/DOCTORATE/Cytomata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="92" documentId="11_F25DC773A252ABDACC104856411A5CB85ADE58E9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4CE2C7D2-6FC7-4DEB-90B6-FF216ACDF055}"/>
+  <xr:revisionPtr revIDLastSave="202" documentId="11_F25DC773A252ABDACC104856411A5CB85ADE58E9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EAD6DAA3-7B3E-4EED-90CC-B3AAA5EB1E6B}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="15" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="64">
   <si>
     <t>setting</t>
   </si>
@@ -78,18 +78,9 @@
     <t>~/DOCTORATE/Cytomata_data/</t>
   </si>
   <si>
-    <t>dev_project_panel_1</t>
-  </si>
-  <si>
     <t>meta</t>
   </si>
   <si>
-    <t>HC-4, HC-100</t>
-  </si>
-  <si>
-    <t>sev_age_timepoint, inf_age_timepoint</t>
-  </si>
-  <si>
     <t>CD4_T</t>
   </si>
   <si>
@@ -108,9 +99,6 @@
     <t>fs = FlowSOM with automatic cluster merging (default), fs_manual = FlowSOM with set k, manual merging possible, pg = PhenoGraph (attention, slow!)</t>
   </si>
   <si>
-    <t>If fs, final number of clusters before automatic merging. If fs_manual, final number of clusters before manual merging. If pg, number of nearest neighbors parameter. Accepts multiple values, separated by comma, if different values are needed for each data_subset. Order is given by data_subset vector.</t>
-  </si>
-  <si>
     <t>UMAPs n_neighbors. Low value leads to better resolution of local structure, high - to better capture of global structure. Default value is 15. Accepts multiple values, separated by comma of different values are needed for each data_subset. Order is given by data_subset vector.</t>
   </si>
   <si>
@@ -126,9 +114,6 @@
     <t>Used to find meta-table in meta_folder.</t>
   </si>
   <si>
-    <t>Pre-gated subsets of events that you want to be analyzed. These should be the exact names of folders in fcs/4_subsets/.</t>
-  </si>
-  <si>
     <t>normalization settings</t>
   </si>
   <si>
@@ -165,14 +150,80 @@
     <t>minimal sample size to be included. Samples that are too small can  lead to outliers in cluster abundances. 0 can be selected to ommit filtering by event size.</t>
   </si>
   <si>
-    <t>1, 15</t>
+    <t>plotting settings</t>
+  </si>
+  <si>
+    <t>figure_object_scaling</t>
+  </si>
+  <si>
+    <t>figure_text_scaling</t>
+  </si>
+  <si>
+    <t>increase factor for bigger objects (points, lines) in figures, or decrease for smaller, try to avoid drastic changes, because it is a multiplicative factor</t>
+  </si>
+  <si>
+    <t>automatic_palette</t>
+  </si>
+  <si>
+    <t>if you want to set a custom palette for your group stratification, set this to 0 and change values in "analysis_plot_settings.R"</t>
+  </si>
+  <si>
+    <t>increase factor for bigger text, labels and legends in figures, or decrease for smaller, try to avoid drastic changes, because it is a multiplicative factor</t>
+  </si>
+  <si>
+    <t>If fs, number of clusters after hierarchical and before automatic merging. If fs_manual, final number of clusters after hierarchical merging. If pg, number of nearest neighbors parameter. Accepts multiple values, separated by comma, if different values are needed for each data_subset. Order is given by data_subset vector.</t>
+  </si>
+  <si>
+    <t>fs_n_dims</t>
+  </si>
+  <si>
+    <t>controls the size of SOM. e.g. 10 gives a total of 100 nodes in SOM (xdim of 10 and ydim of 10), 20 results in 400 etc. default value is 10.</t>
+  </si>
+  <si>
+    <t>ccp_delta_cutoff</t>
+  </si>
+  <si>
+    <t>used for automatic detection of optimal number of clusters in "fs" clustering engine. minimal increase in CDF area under the curve after adding one more cluster. When increase reaches a plateu, maximum clustering consensus has probably been reached.</t>
+  </si>
+  <si>
+    <t>excluded_channels</t>
+  </si>
+  <si>
+    <t>B2M, DNA, Bead, LD, Live, Dead, ID, Cell-ID, Cell_ID</t>
+  </si>
+  <si>
+    <t>Pre-gated subsets of events that you want to analyze. These should be the exact names of folders in fcs/4_subsets/. Separated by comma.</t>
+  </si>
+  <si>
+    <t>Patterns present in the names of pre-processing channels that will be used to remove them. Input separated by comma. This can be adjusted in the panel.csv file afterwards.</t>
+  </si>
+  <si>
+    <t>1, 20</t>
+  </si>
+  <si>
+    <t>small_dev_project_panel_1</t>
+  </si>
+  <si>
+    <t>HC-100</t>
+  </si>
+  <si>
+    <t>grouping_orders</t>
+  </si>
+  <si>
+    <t>sev_age_timepoint, inf_age_timepoint, inf_age</t>
+  </si>
+  <si>
+    <t>Control order of groups. Input group names separated by comma. For multiple grouping columns - separate by semicolon. If you do not want to input order for any specific grouping column - write NA.</t>
+  </si>
+  <si>
+    <t>NA; control child, control, infected child, infected adult, infected child d14, infected adult d14, infected child d180, infected adult d180; control child, control adult, infected child, infected adult</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -188,6 +239,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9CDCFE"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -326,7 +383,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -343,9 +400,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -358,23 +412,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -656,16 +728,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:C18"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="28.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="71.28515625" style="2" customWidth="1"/>
     <col min="3" max="3" width="59" style="2" customWidth="1"/>
   </cols>
   <sheetData>
@@ -673,7 +745,7 @@
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
@@ -684,231 +756,317 @@
       <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>31</v>
+      <c r="C2" s="6" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="1">
-        <v>1</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>32</v>
+      <c r="C4" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
+      <c r="A6" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" s="6">
-        <v>0</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>35</v>
+        <v>31</v>
+      </c>
+      <c r="B7" s="20">
+        <v>1</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>24</v>
+      <c r="B8" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
+      <c r="A9" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
     </row>
     <row r="10" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B10" s="14">
-        <v>0</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>35</v>
+      <c r="A10" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="21">
+        <v>1</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
+      <c r="A11" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="20">
+        <v>1</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="2">
+        <v>1</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="210" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="2">
+        <v>1</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="2">
+        <v>100</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
+    </row>
+    <row r="21" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B21" s="20">
         <v>1</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C21" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" s="2">
+        <v>1</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" s="16">
+        <v>1</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="17" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="9" t="s">
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+    </row>
+    <row r="25" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="210" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
+    <row r="26" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" s="2">
+        <v>30</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B27" s="2">
         <v>10</v>
       </c>
-      <c r="B15" s="1">
-        <v>1</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B16" s="1">
-        <v>100</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
-    </row>
-    <row r="19" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B20" s="11">
-        <v>30</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
-    </row>
-    <row r="22" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
+      <c r="C27" s="13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B28" s="16">
+        <v>0.01</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="G28" s="15"/>
+    </row>
+    <row r="29" spans="1:7" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" s="18"/>
+      <c r="C29" s="18"/>
+    </row>
+    <row r="30" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B30" s="20">
         <v>15</v>
       </c>
-      <c r="C22" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="10" t="s">
+      <c r="C30" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="11">
+      <c r="B31" s="16">
         <v>0.1</v>
       </c>
-      <c r="C23" s="12" t="s">
-        <v>29</v>
+      <c r="C31" s="10" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A21:C21"/>
+  <mergeCells count="6">
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A29:C29"/>
     <mergeCell ref="A11:C11"/>
     <mergeCell ref="A9:C9"/>
     <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A20:C20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/settings.xlsx
+++ b/settings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://charitede-my.sharepoint.com/personal/lev_petrov_charite_de/Documents/DOCTORATE/Cytomata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="202" documentId="11_F25DC773A252ABDACC104856411A5CB85ADE58E9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EAD6DAA3-7B3E-4EED-90CC-B3AAA5EB1E6B}"/>
+  <xr:revisionPtr revIDLastSave="216" documentId="11_F25DC773A252ABDACC104856411A5CB85ADE58E9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C5162800-0828-4A59-913D-F261E20C2BFC}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-57720" yWindow="-11715" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -81,33 +81,15 @@
     <t>meta</t>
   </si>
   <si>
-    <t>CD4_T</t>
-  </si>
-  <si>
     <t>fs</t>
   </si>
   <si>
-    <t>Columns in meta-table that contain group stratification. Accepts multiple names, separated by comma.</t>
-  </si>
-  <si>
-    <t>What ID your reference replicates have. Accepts multiple IDs, separated by comma.</t>
-  </si>
-  <si>
     <t>0 (off) or 1 (on). Introduces prompts after clustering and UMAP steps, asks whether results acceptable, re-runs these steps if settings were changed. Useful for the first run of the pipeline.</t>
   </si>
   <si>
     <t>fs = FlowSOM with automatic cluster merging (default), fs_manual = FlowSOM with set k, manual merging possible, pg = PhenoGraph (attention, slow!)</t>
   </si>
   <si>
-    <t>UMAPs n_neighbors. Low value leads to better resolution of local structure, high - to better capture of global structure. Default value is 15. Accepts multiple values, separated by comma of different values are needed for each data_subset. Order is given by data_subset vector.</t>
-  </si>
-  <si>
-    <t>UMAPs min_dist. Lower values lead to clumpier embeddings, higher make them more spread-out. Accepts multiple values, separated by comma of different values are needed for each data_subset. Order is given by data_subset vector.</t>
-  </si>
-  <si>
-    <t>0 (off) or 1 (on). Second value can be entered for number of features to keep, separated by comma. Is done by default for top 20 features if subset_feature_selection.xlsx is not provided.</t>
-  </si>
-  <si>
     <t>Without quotes.</t>
   </si>
   <si>
@@ -141,9 +123,6 @@
     <t>do_analysis</t>
   </si>
   <si>
-    <t>Whether to down- or upsample events PER SAMPLE using a given factor. You might want to downsample if studying e.g. granulocytes (on whole blood) to reduce computational burden and oversample if interested in finding rare populations. Downsampling could also be used to reduce the dominance of the oversized samples, while oversampling could be used to enhance the representation of the undersized ones. The cutoff for downsampling is the average sample size across all samples (samples are not reduced in size beyond that threshold). The cutoff for oversampling is the average sample size across all samples (samples are not increased in size beyond that threshold). Accepts multiple values separated by comma if different needed for each data_subset. Order is given by data_subset order.</t>
-  </si>
-  <si>
     <t>event_cutoff</t>
   </si>
   <si>
@@ -171,9 +150,6 @@
     <t>increase factor for bigger text, labels and legends in figures, or decrease for smaller, try to avoid drastic changes, because it is a multiplicative factor</t>
   </si>
   <si>
-    <t>If fs, number of clusters after hierarchical and before automatic merging. If fs_manual, final number of clusters after hierarchical merging. If pg, number of nearest neighbors parameter. Accepts multiple values, separated by comma, if different values are needed for each data_subset. Order is given by data_subset vector.</t>
-  </si>
-  <si>
     <t>fs_n_dims</t>
   </si>
   <si>
@@ -192,31 +168,55 @@
     <t>B2M, DNA, Bead, LD, Live, Dead, ID, Cell-ID, Cell_ID</t>
   </si>
   <si>
-    <t>Pre-gated subsets of events that you want to analyze. These should be the exact names of folders in fcs/4_subsets/. Separated by comma.</t>
-  </si>
-  <si>
-    <t>Patterns present in the names of pre-processing channels that will be used to remove them. Input separated by comma. This can be adjusted in the panel.csv file afterwards.</t>
-  </si>
-  <si>
-    <t>1, 20</t>
-  </si>
-  <si>
-    <t>small_dev_project_panel_1</t>
-  </si>
-  <si>
-    <t>HC-100</t>
-  </si>
-  <si>
     <t>grouping_orders</t>
   </si>
   <si>
-    <t>sev_age_timepoint, inf_age_timepoint, inf_age</t>
-  </si>
-  <si>
-    <t>Control order of groups. Input group names separated by comma. For multiple grouping columns - separate by semicolon. If you do not want to input order for any specific grouping column - write NA.</t>
-  </si>
-  <si>
-    <t>NA; control child, control, infected child, infected adult, infected child d14, infected adult d14, infected child d180, infected adult d180; control child, control adult, infected child, infected adult</t>
+    <t>HC-050</t>
+  </si>
+  <si>
+    <t>antigen,anca_status</t>
+  </si>
+  <si>
+    <t>1, 30</t>
+  </si>
+  <si>
+    <t>anca_panel_1</t>
+  </si>
+  <si>
+    <t>Patterns present in the names of pre-processing channels that will be used to remove them. Input separated by comma and whitespace (', '). This can be adjusted in the panel.csv file afterwards.</t>
+  </si>
+  <si>
+    <t>What ID your reference replicates have. Accepts multiple IDs, separated by comma and whitespace (', ').</t>
+  </si>
+  <si>
+    <t>Columns in meta-table that contain group stratification. Accepts multiple names, separated by comma and whitespace (', ').</t>
+  </si>
+  <si>
+    <t>Pre-gated subsets of events that you want to analyze. These should be the exact names of folders in fcs/4_subsets/. Separated by comma and whitespace (', ').</t>
+  </si>
+  <si>
+    <t>Whether to down- or upsample events PER SAMPLE using a given factor. You might want to downsample if studying e.g. granulocytes (on whole blood) to reduce computational burden and oversample if interested in finding rare populations. Downsampling could also be used to reduce the dominance of the oversized samples, while oversampling could be used to enhance the representation of the undersized ones. The cutoff for downsampling is the average sample size across all samples (samples are not reduced in size beyond that threshold). The cutoff for oversampling is the average sample size across all samples (samples are not increased in size beyond that threshold). Accepts multiple values separated by comma and whitespace (', ') if different needed for each data_subset. Order is given by data_subset order.</t>
+  </si>
+  <si>
+    <t>0 (off) or 1 (on). Second value can be entered for number of features to keep, separated by comma and whitespace (', '). Is done by default for top 20 features if subset_feature_selection.xlsx is not provided.</t>
+  </si>
+  <si>
+    <t>If fs, number of clusters after hierarchical and before automatic merging. If fs_manual, final number of clusters after hierarchical merging. If pg, number of nearest neighbors parameter. Accepts multiple values, separated by comma and whitespace (', '), if different values are needed for each data_subset. Order is given by data_subset vector.</t>
+  </si>
+  <si>
+    <t>UMAPs n_neighbors. Low value leads to better resolution of local structure, high - to better capture of global structure. Default value is 15. Accepts multiple values, separated by comma and whitespace (', ') of different values are needed for each data_subset. Order is given by data_subset vector.</t>
+  </si>
+  <si>
+    <t>UMAPs min_dist. Lower values lead to clumpier embeddings, higher make them more spread-out. Accepts multiple values, separated by comma and whitespace (', ') of different values are needed for each data_subset. Order is given by data_subset vector.</t>
+  </si>
+  <si>
+    <t>CD4_T, B</t>
+  </si>
+  <si>
+    <t>HC, MPO, PR3; HC, ANCA</t>
+  </si>
+  <si>
+    <t>Control order of groups. Input group names separated by comma and whitespace (', '). For multiple grouping columns - separate by semicolon and whitespace ('; '). If you do not want to input order for any specific grouping column - write NA.</t>
   </si>
 </sst>
 </file>
@@ -433,6 +433,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -441,12 +447,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -730,18 +730,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="71.28515625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="23.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="71.33203125" style="2" customWidth="1"/>
     <col min="3" max="3" width="59" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -752,29 +752,29 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="17" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>6</v>
       </c>
@@ -782,86 +782,86 @@
         <v>17</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" s="20">
-        <v>1</v>
+        <v>25</v>
+      </c>
+      <c r="B7" s="17">
+        <v>0</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="9" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-    </row>
-    <row r="10" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+    </row>
+    <row r="10" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" s="21">
+        <v>27</v>
+      </c>
+      <c r="B10" s="18">
+        <v>0</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="17">
         <v>1</v>
       </c>
-      <c r="C10" s="12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B12" s="20">
-        <v>1</v>
-      </c>
       <c r="C12" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>5</v>
       </c>
@@ -869,43 +869,43 @@
         <v>1</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>8</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="C15" s="8" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="210" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>10</v>
       </c>
@@ -913,90 +913,90 @@
         <v>1</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B18" s="2">
         <v>100</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="9" t="s">
         <v>11</v>
       </c>
       <c r="B19" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="C19" s="10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="B20" s="19"/>
-      <c r="C20" s="19"/>
-    </row>
-    <row r="21" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:7" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
+    </row>
+    <row r="21" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B21" s="20">
+        <v>35</v>
+      </c>
+      <c r="B21" s="17">
         <v>1</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B22" s="2">
         <v>1</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="9" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B23" s="16">
         <v>1</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
-    </row>
-    <row r="25" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+    </row>
+    <row r="25" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B25" s="20" t="s">
-        <v>19</v>
+      <c r="B25" s="17" t="s">
+        <v>18</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>13</v>
       </c>
@@ -1004,51 +1004,51 @@
         <v>30</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B27" s="2">
         <v>10</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="9" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="B28" s="16">
         <v>0.01</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="G28" s="15"/>
     </row>
-    <row r="29" spans="1:7" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="B29" s="18"/>
-      <c r="C29" s="18"/>
-    </row>
-    <row r="30" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" s="20"/>
+      <c r="C29" s="20"/>
+    </row>
+    <row r="30" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B30" s="20">
+      <c r="B30" s="17">
         <v>15</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="9" t="s">
         <v>15</v>
       </c>
@@ -1056,7 +1056,7 @@
         <v>0.1</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/settings.xlsx
+++ b/settings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://charitede-my.sharepoint.com/personal/lev_petrov_charite_de/Documents/DOCTORATE/Cytomata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="216" documentId="11_F25DC773A252ABDACC104856411A5CB85ADE58E9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C5162800-0828-4A59-913D-F261E20C2BFC}"/>
+  <xr:revisionPtr revIDLastSave="218" documentId="11_F25DC773A252ABDACC104856411A5CB85ADE58E9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{691D1615-6DB9-4F2F-87C4-B53F50C676D5}"/>
   <bookViews>
-    <workbookView xWindow="-57720" yWindow="-11715" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-56010" yWindow="-10395" windowWidth="24495" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -174,49 +174,49 @@
     <t>HC-050</t>
   </si>
   <si>
-    <t>antigen,anca_status</t>
-  </si>
-  <si>
-    <t>1, 30</t>
-  </si>
-  <si>
     <t>anca_panel_1</t>
   </si>
   <si>
-    <t>Patterns present in the names of pre-processing channels that will be used to remove them. Input separated by comma and whitespace (', '). This can be adjusted in the panel.csv file afterwards.</t>
-  </si>
-  <si>
-    <t>What ID your reference replicates have. Accepts multiple IDs, separated by comma and whitespace (', ').</t>
-  </si>
-  <si>
-    <t>Columns in meta-table that contain group stratification. Accepts multiple names, separated by comma and whitespace (', ').</t>
-  </si>
-  <si>
-    <t>Pre-gated subsets of events that you want to analyze. These should be the exact names of folders in fcs/4_subsets/. Separated by comma and whitespace (', ').</t>
-  </si>
-  <si>
-    <t>Whether to down- or upsample events PER SAMPLE using a given factor. You might want to downsample if studying e.g. granulocytes (on whole blood) to reduce computational burden and oversample if interested in finding rare populations. Downsampling could also be used to reduce the dominance of the oversized samples, while oversampling could be used to enhance the representation of the undersized ones. The cutoff for downsampling is the average sample size across all samples (samples are not reduced in size beyond that threshold). The cutoff for oversampling is the average sample size across all samples (samples are not increased in size beyond that threshold). Accepts multiple values separated by comma and whitespace (', ') if different needed for each data_subset. Order is given by data_subset order.</t>
-  </si>
-  <si>
-    <t>0 (off) or 1 (on). Second value can be entered for number of features to keep, separated by comma and whitespace (', '). Is done by default for top 20 features if subset_feature_selection.xlsx is not provided.</t>
-  </si>
-  <si>
-    <t>If fs, number of clusters after hierarchical and before automatic merging. If fs_manual, final number of clusters after hierarchical merging. If pg, number of nearest neighbors parameter. Accepts multiple values, separated by comma and whitespace (', '), if different values are needed for each data_subset. Order is given by data_subset vector.</t>
-  </si>
-  <si>
-    <t>UMAPs n_neighbors. Low value leads to better resolution of local structure, high - to better capture of global structure. Default value is 15. Accepts multiple values, separated by comma and whitespace (', ') of different values are needed for each data_subset. Order is given by data_subset vector.</t>
-  </si>
-  <si>
-    <t>UMAPs min_dist. Lower values lead to clumpier embeddings, higher make them more spread-out. Accepts multiple values, separated by comma and whitespace (', ') of different values are needed for each data_subset. Order is given by data_subset vector.</t>
+    <t>Patterns present in the names of pre-processing channels that will be used to remove them. Input separated by comma and whitespace (", "). This can be adjusted in the panel.csv file afterwards.</t>
+  </si>
+  <si>
+    <t>What ID your reference replicates have. Accepts multiple IDs, separated by comma and whitespace (", ").</t>
+  </si>
+  <si>
+    <t>Columns in meta-table that contain group stratification. Accepts multiple names, separated by comma and whitespace (", ").</t>
+  </si>
+  <si>
+    <t>Pre-gated subsets of events that you want to analyze. These should be the exact names of folders in fcs/4_subsets/. Separated by comma and whitespace (", ").</t>
+  </si>
+  <si>
+    <t>Whether to down- or upsample events PER SAMPLE using a given factor. You might want to downsample if studying e.g. granulocytes (on whole blood) to reduce computational burden and oversample if interested in finding rare populations. Downsampling could also be used to reduce the dominance of the oversized samples, while oversampling could be used to enhance the representation of the undersized ones. The cutoff for downsampling is the average sample size across all samples (samples are not reduced in size beyond that threshold). The cutoff for oversampling is the average sample size across all samples (samples are not increased in size beyond that threshold). Accepts multiple values separated by comma and whitespace (", ") if different needed for each data_subset. Order is given by data_subset order.</t>
+  </si>
+  <si>
+    <t>0 (off) or 1 (on). Second value can be entered for number of features to keep, separated by comma and whitespace (", "). Is done by default for top 20 features if subset_feature_selection.xlsx is not provided.</t>
+  </si>
+  <si>
+    <t>If fs, number of clusters after hierarchical and before automatic merging. If fs_manual, final number of clusters after hierarchical merging. If pg, number of nearest neighbors parameter. Accepts multiple values, separated by comma and whitespace (", "), if different values are needed for each data_subset. Order is given by data_subset vector.</t>
+  </si>
+  <si>
+    <t>UMAPs n_neighbors. Low value leads to better resolution of local structure, high - to better capture of global structure. Default value is 15. Accepts multiple values, separated by comma and whitespace (", ") of different values are needed for each data_subset. Order is given by data_subset vector.</t>
+  </si>
+  <si>
+    <t>UMAPs min_dist. Lower values lead to clumpier embeddings, higher make them more spread-out. Accepts multiple values, separated by comma and whitespace (", ") of different values are needed for each data_subset. Order is given by data_subset vector.</t>
+  </si>
+  <si>
+    <t>Control order of groups. Input group names separated by comma and whitespace (", "). For multiple grouping columns - separate by semicolon and whitespace (", "). If you do not want to input order for any specific grouping column - write NA.</t>
+  </si>
+  <si>
+    <t>HC, MPO, PR3; HC, ANCA</t>
   </si>
   <si>
     <t>CD4_T, B</t>
   </si>
   <si>
-    <t>HC, MPO, PR3; HC, ANCA</t>
-  </si>
-  <si>
-    <t>Control order of groups. Input group names separated by comma and whitespace (', '). For multiple grouping columns - separate by semicolon and whitespace ('; '). If you do not want to input order for any specific grouping column - write NA.</t>
+    <t>antigen, anca_status</t>
+  </si>
+  <si>
+    <t>0, 30</t>
   </si>
 </sst>
 </file>
@@ -730,8 +730,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -768,7 +768,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>21</v>
@@ -793,7 +793,7 @@
         <v>46</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
@@ -822,7 +822,7 @@
         <v>48</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
@@ -877,10 +877,10 @@
         <v>8</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
@@ -888,10 +888,10 @@
         <v>47</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
@@ -902,7 +902,7 @@
         <v>61</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="172.8" x14ac:dyDescent="0.3">
@@ -913,7 +913,7 @@
         <v>1</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
@@ -932,10 +932,10 @@
         <v>11</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
@@ -996,7 +996,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>13</v>
       </c>
@@ -1004,7 +1004,7 @@
         <v>30</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
@@ -1045,7 +1045,7 @@
         <v>15</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -1056,7 +1056,7 @@
         <v>0.1</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/settings.xlsx
+++ b/settings.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://charitede-my.sharepoint.com/personal/lev_petrov_charite_de/Documents/DOCTORATE/Cytomata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://charitede-my.sharepoint.com/personal/lev_petrov_charite_de/Documents/DOCTORATE/Cytomata_data/anca_panel_3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="218" documentId="11_F25DC773A252ABDACC104856411A5CB85ADE58E9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{691D1615-6DB9-4F2F-87C4-B53F50C676D5}"/>
+  <xr:revisionPtr revIDLastSave="219" documentId="11_F25DC773A252ABDACC104856411A5CB85ADE58E9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ADD61B67-0CB2-434B-9601-AD824ED1A05B}"/>
   <bookViews>
     <workbookView xWindow="-56010" yWindow="-10395" windowWidth="24495" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -174,49 +174,49 @@
     <t>HC-050</t>
   </si>
   <si>
-    <t>anca_panel_1</t>
-  </si>
-  <si>
-    <t>Patterns present in the names of pre-processing channels that will be used to remove them. Input separated by comma and whitespace (", "). This can be adjusted in the panel.csv file afterwards.</t>
-  </si>
-  <si>
-    <t>What ID your reference replicates have. Accepts multiple IDs, separated by comma and whitespace (", ").</t>
-  </si>
-  <si>
-    <t>Columns in meta-table that contain group stratification. Accepts multiple names, separated by comma and whitespace (", ").</t>
-  </si>
-  <si>
-    <t>Pre-gated subsets of events that you want to analyze. These should be the exact names of folders in fcs/4_subsets/. Separated by comma and whitespace (", ").</t>
-  </si>
-  <si>
-    <t>Whether to down- or upsample events PER SAMPLE using a given factor. You might want to downsample if studying e.g. granulocytes (on whole blood) to reduce computational burden and oversample if interested in finding rare populations. Downsampling could also be used to reduce the dominance of the oversized samples, while oversampling could be used to enhance the representation of the undersized ones. The cutoff for downsampling is the average sample size across all samples (samples are not reduced in size beyond that threshold). The cutoff for oversampling is the average sample size across all samples (samples are not increased in size beyond that threshold). Accepts multiple values separated by comma and whitespace (", ") if different needed for each data_subset. Order is given by data_subset order.</t>
-  </si>
-  <si>
-    <t>0 (off) or 1 (on). Second value can be entered for number of features to keep, separated by comma and whitespace (", "). Is done by default for top 20 features if subset_feature_selection.xlsx is not provided.</t>
-  </si>
-  <si>
-    <t>If fs, number of clusters after hierarchical and before automatic merging. If fs_manual, final number of clusters after hierarchical merging. If pg, number of nearest neighbors parameter. Accepts multiple values, separated by comma and whitespace (", "), if different values are needed for each data_subset. Order is given by data_subset vector.</t>
-  </si>
-  <si>
-    <t>UMAPs n_neighbors. Low value leads to better resolution of local structure, high - to better capture of global structure. Default value is 15. Accepts multiple values, separated by comma and whitespace (", ") of different values are needed for each data_subset. Order is given by data_subset vector.</t>
-  </si>
-  <si>
-    <t>UMAPs min_dist. Lower values lead to clumpier embeddings, higher make them more spread-out. Accepts multiple values, separated by comma and whitespace (", ") of different values are needed for each data_subset. Order is given by data_subset vector.</t>
-  </si>
-  <si>
-    <t>Control order of groups. Input group names separated by comma and whitespace (", "). For multiple grouping columns - separate by semicolon and whitespace (", "). If you do not want to input order for any specific grouping column - write NA.</t>
+    <t>anca_panel_3</t>
+  </si>
+  <si>
+    <t>Monos_and_DCs</t>
+  </si>
+  <si>
+    <t>0, 30</t>
   </si>
   <si>
     <t>HC, MPO, PR3; HC, ANCA</t>
   </si>
   <si>
-    <t>CD4_T, B</t>
-  </si>
-  <si>
     <t>antigen, anca_status</t>
   </si>
   <si>
-    <t>0, 30</t>
+    <t>Patterns present in the names of pre-processing channels that will be used to remove them. Input separated by comma and whitespace (', '). This can be adjusted in the panel.csv file afterwards.</t>
+  </si>
+  <si>
+    <t>What ID your reference replicates have. Accepts multiple IDs, separated by comma and whitespace (', ').</t>
+  </si>
+  <si>
+    <t>Columns in meta-table that contain group stratification. Accepts multiple names, separated by comma and whitespace (', ').</t>
+  </si>
+  <si>
+    <t>Pre-gated subsets of events that you want to analyze. These should be the exact names of folders in fcs/4_subsets/. Separated by comma and whitespace (', ').</t>
+  </si>
+  <si>
+    <t>Whether to down- or upsample events PER SAMPLE using a given factor. You might want to downsample if studying e.g. granulocytes (on whole blood) to reduce computational burden and oversample if interested in finding rare populations. Downsampling could also be used to reduce the dominance of the oversized samples, while oversampling could be used to enhance the representation of the undersized ones. The cutoff for downsampling is the average sample size across all samples (samples are not reduced in size beyond that threshold). The cutoff for oversampling is the average sample size across all samples (samples are not increased in size beyond that threshold). Accepts multiple values separated by comma and whitespace (', ') if different needed for each data_subset. Order is given by data_subset order.</t>
+  </si>
+  <si>
+    <t>0 (off) or 1 (on). Second value can be entered for number of features to keep, separated by comma and whitespace (', '). Is done by default for top 20 features if subset_feature_selection.xlsx is not provided.</t>
+  </si>
+  <si>
+    <t>If fs, number of clusters after hierarchical and before automatic merging. If fs_manual, final number of clusters after hierarchical merging. If pg, number of nearest neighbors parameter. Accepts multiple values, separated by comma and whitespace (', '), if different values are needed for each data_subset. Order is given by data_subset vector.</t>
+  </si>
+  <si>
+    <t>UMAPs n_neighbors. Low value leads to better resolution of local structure, high - to better capture of global structure. Default value is 15. Accepts multiple values, separated by comma and whitespace (', ') of different values are needed for each data_subset. Order is given by data_subset vector.</t>
+  </si>
+  <si>
+    <t>UMAPs min_dist. Lower values lead to clumpier embeddings, higher make them more spread-out. Accepts multiple values, separated by comma and whitespace (', ') of different values are needed for each data_subset. Order is given by data_subset vector.</t>
+  </si>
+  <si>
+    <t>Control order of groups. Input group names separated by comma and whitespace (', '). For multiple grouping columns - separate by semicolon and whitespace (', '). If you do not want to input order for any specific grouping column - write NA.</t>
   </si>
 </sst>
 </file>
@@ -730,8 +730,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -793,7 +793,7 @@
         <v>46</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
@@ -822,7 +822,7 @@
         <v>48</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
@@ -877,21 +877,21 @@
         <v>8</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>47</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
@@ -899,10 +899,10 @@
         <v>9</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="172.8" x14ac:dyDescent="0.3">
@@ -913,7 +913,7 @@
         <v>1</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
@@ -932,10 +932,10 @@
         <v>11</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
@@ -996,7 +996,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>13</v>
       </c>
@@ -1004,7 +1004,7 @@
         <v>30</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
@@ -1045,7 +1045,7 @@
         <v>15</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -1056,7 +1056,7 @@
         <v>0.1</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/settings.xlsx
+++ b/settings.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://charitede-my.sharepoint.com/personal/lev_petrov_charite_de/Documents/DOCTORATE/Cytomata_data/anca_panel_3/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://charitede-my.sharepoint.com/personal/lev_petrov_charite_de/Documents/DOCTORATE/Cytomata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="219" documentId="11_F25DC773A252ABDACC104856411A5CB85ADE58E9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ADD61B67-0CB2-434B-9601-AD824ED1A05B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{C8F7A666-B505-455E-A52A-3CA40E73FDF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-56010" yWindow="-10395" windowWidth="24495" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -174,49 +174,49 @@
     <t>HC-050</t>
   </si>
   <si>
-    <t>anca_panel_3</t>
-  </si>
-  <si>
-    <t>Monos_and_DCs</t>
+    <t>anca_panel_2</t>
+  </si>
+  <si>
+    <t>Granulos</t>
+  </si>
+  <si>
+    <t>Patterns present in the names of pre-processing channels that will be used to remove them. Input separated by comma and whitespace (', '). This can be adjusted in the panel.csv file afterwards.</t>
+  </si>
+  <si>
+    <t>What ID your reference replicates have. Accepts multiple IDs, separated by comma and whitespace (', ').</t>
+  </si>
+  <si>
+    <t>Columns in meta-table that contain group stratification. Accepts multiple names, separated by comma and whitespace (', ').</t>
+  </si>
+  <si>
+    <t>Pre-gated subsets of events that you want to analyze. These should be the exact names of folders in fcs/4_subsets/. Separated by comma and whitespace (', ').</t>
+  </si>
+  <si>
+    <t>Whether to down- or upsample events PER SAMPLE using a given factor. You might want to downsample if studying e.g. granulocytes (on whole blood) to reduce computational burden and oversample if interested in finding rare populations. Downsampling could also be used to reduce the dominance of the oversized samples, while oversampling could be used to enhance the representation of the undersized ones. The cutoff for downsampling is the average sample size across all samples (samples are not reduced in size beyond that threshold). The cutoff for oversampling is the average sample size across all samples (samples are not increased in size beyond that threshold). Accepts multiple values separated by comma and whitespace (', ') if different needed for each data_subset. Order is given by data_subset order.</t>
+  </si>
+  <si>
+    <t>0 (off) or 1 (on). Second value can be entered for number of features to keep, separated by comma and whitespace (', '). Is done by default for top 20 features if subset_feature_selection.xlsx is not provided.</t>
+  </si>
+  <si>
+    <t>If fs, number of clusters after hierarchical and before automatic merging. If fs_manual, final number of clusters after hierarchical merging. If pg, number of nearest neighbors parameter. Accepts multiple values, separated by comma and whitespace (', '), if different values are needed for each data_subset. Order is given by data_subset vector.</t>
+  </si>
+  <si>
+    <t>UMAPs n_neighbors. Low value leads to better resolution of local structure, high - to better capture of global structure. Default value is 15. Accepts multiple values, separated by comma and whitespace (', ') of different values are needed for each data_subset. Order is given by data_subset vector.</t>
+  </si>
+  <si>
+    <t>UMAPs min_dist. Lower values lead to clumpier embeddings, higher make them more spread-out. Accepts multiple values, separated by comma and whitespace (', ') of different values are needed for each data_subset. Order is given by data_subset vector.</t>
+  </si>
+  <si>
+    <t>Control order of groups. Input group names separated by comma and whitespace (', '). For multiple grouping columns - separate by semicolon and whitespace (', '). If you do not want to input order for any specific grouping column - write NA.</t>
+  </si>
+  <si>
+    <t>antigen, anca_status</t>
+  </si>
+  <si>
+    <t>HC, MPO, PR3; HC, ANCA</t>
   </si>
   <si>
     <t>0, 30</t>
-  </si>
-  <si>
-    <t>HC, MPO, PR3; HC, ANCA</t>
-  </si>
-  <si>
-    <t>antigen, anca_status</t>
-  </si>
-  <si>
-    <t>Patterns present in the names of pre-processing channels that will be used to remove them. Input separated by comma and whitespace (', '). This can be adjusted in the panel.csv file afterwards.</t>
-  </si>
-  <si>
-    <t>What ID your reference replicates have. Accepts multiple IDs, separated by comma and whitespace (', ').</t>
-  </si>
-  <si>
-    <t>Columns in meta-table that contain group stratification. Accepts multiple names, separated by comma and whitespace (', ').</t>
-  </si>
-  <si>
-    <t>Pre-gated subsets of events that you want to analyze. These should be the exact names of folders in fcs/4_subsets/. Separated by comma and whitespace (', ').</t>
-  </si>
-  <si>
-    <t>Whether to down- or upsample events PER SAMPLE using a given factor. You might want to downsample if studying e.g. granulocytes (on whole blood) to reduce computational burden and oversample if interested in finding rare populations. Downsampling could also be used to reduce the dominance of the oversized samples, while oversampling could be used to enhance the representation of the undersized ones. The cutoff for downsampling is the average sample size across all samples (samples are not reduced in size beyond that threshold). The cutoff for oversampling is the average sample size across all samples (samples are not increased in size beyond that threshold). Accepts multiple values separated by comma and whitespace (', ') if different needed for each data_subset. Order is given by data_subset order.</t>
-  </si>
-  <si>
-    <t>0 (off) or 1 (on). Second value can be entered for number of features to keep, separated by comma and whitespace (', '). Is done by default for top 20 features if subset_feature_selection.xlsx is not provided.</t>
-  </si>
-  <si>
-    <t>If fs, number of clusters after hierarchical and before automatic merging. If fs_manual, final number of clusters after hierarchical merging. If pg, number of nearest neighbors parameter. Accepts multiple values, separated by comma and whitespace (', '), if different values are needed for each data_subset. Order is given by data_subset vector.</t>
-  </si>
-  <si>
-    <t>UMAPs n_neighbors. Low value leads to better resolution of local structure, high - to better capture of global structure. Default value is 15. Accepts multiple values, separated by comma and whitespace (', ') of different values are needed for each data_subset. Order is given by data_subset vector.</t>
-  </si>
-  <si>
-    <t>UMAPs min_dist. Lower values lead to clumpier embeddings, higher make them more spread-out. Accepts multiple values, separated by comma and whitespace (', ') of different values are needed for each data_subset. Order is given by data_subset vector.</t>
-  </si>
-  <si>
-    <t>Control order of groups. Input group names separated by comma and whitespace (', '). For multiple grouping columns - separate by semicolon and whitespace (', '). If you do not want to input order for any specific grouping column - write NA.</t>
   </si>
 </sst>
 </file>
@@ -730,8 +730,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -793,7 +793,7 @@
         <v>46</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
@@ -822,7 +822,7 @@
         <v>48</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
@@ -866,7 +866,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>19</v>
@@ -877,21 +877,21 @@
         <v>8</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C14" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>47</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
@@ -902,7 +902,7 @@
         <v>50</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="172.8" x14ac:dyDescent="0.3">
@@ -913,7 +913,7 @@
         <v>1</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
@@ -932,10 +932,10 @@
         <v>11</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
@@ -996,7 +996,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>13</v>
       </c>
@@ -1004,7 +1004,7 @@
         <v>30</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
@@ -1045,7 +1045,7 @@
         <v>15</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -1056,7 +1056,7 @@
         <v>0.1</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/settings.xlsx
+++ b/settings.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://charitede-my.sharepoint.com/personal/lev_petrov_charite_de/Documents/DOCTORATE/Cytomata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://charitede-my.sharepoint.com/personal/lev_petrov_charite_de/Documents/DOCTORATE/Cytomata_data/anca_panel_3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{C8F7A666-B505-455E-A52A-3CA40E73FDF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="14_{5CD1A498-E873-4B30-8872-751E1B7C508A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F956C573-4AE3-48D9-B9DA-1DFC6995C026}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-57720" yWindow="-11715" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -174,10 +174,16 @@
     <t>HC-050</t>
   </si>
   <si>
-    <t>anca_panel_2</t>
-  </si>
-  <si>
-    <t>Granulos</t>
+    <t>anca_panel_3</t>
+  </si>
+  <si>
+    <t>0, 30</t>
+  </si>
+  <si>
+    <t>HC, MPO, PR3; HC, ANCA</t>
+  </si>
+  <si>
+    <t>antigen, anca_status</t>
   </si>
   <si>
     <t>Patterns present in the names of pre-processing channels that will be used to remove them. Input separated by comma and whitespace (', '). This can be adjusted in the panel.csv file afterwards.</t>
@@ -210,13 +216,7 @@
     <t>Control order of groups. Input group names separated by comma and whitespace (', '). For multiple grouping columns - separate by semicolon and whitespace (', '). If you do not want to input order for any specific grouping column - write NA.</t>
   </si>
   <si>
-    <t>antigen, anca_status</t>
-  </si>
-  <si>
-    <t>HC, MPO, PR3; HC, ANCA</t>
-  </si>
-  <si>
-    <t>0, 30</t>
+    <t>B</t>
   </si>
 </sst>
 </file>
@@ -730,8 +730,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -793,7 +793,7 @@
         <v>46</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
@@ -822,7 +822,7 @@
         <v>48</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
@@ -866,7 +866,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>19</v>
@@ -877,10 +877,10 @@
         <v>8</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
@@ -888,10 +888,10 @@
         <v>47</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="8" t="s">
         <v>62</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
@@ -899,13 +899,13 @@
         <v>9</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="172.8" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>10</v>
       </c>
@@ -913,7 +913,7 @@
         <v>1</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
@@ -932,10 +932,10 @@
         <v>11</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
@@ -972,7 +972,7 @@
         <v>38</v>
       </c>
       <c r="B23" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23" s="10" t="s">
         <v>39</v>
@@ -1004,7 +1004,7 @@
         <v>30</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
@@ -1023,7 +1023,7 @@
         <v>43</v>
       </c>
       <c r="B28" s="16">
-        <v>0.01</v>
+        <v>1.2E-2</v>
       </c>
       <c r="C28" s="14" t="s">
         <v>44</v>
@@ -1045,7 +1045,7 @@
         <v>15</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -1056,7 +1056,7 @@
         <v>0.1</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/settings.xlsx
+++ b/settings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://charitede-my.sharepoint.com/personal/lev_petrov_charite_de/Documents/DOCTORATE/Cytomata_data/anca_panel_3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="14_{5CD1A498-E873-4B30-8872-751E1B7C508A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F956C573-4AE3-48D9-B9DA-1DFC6995C026}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="14_{5CD1A498-E873-4B30-8872-751E1B7C508A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AFB83027-AE09-42D8-B0F4-B1B6031C3A0F}"/>
   <bookViews>
-    <workbookView xWindow="-57720" yWindow="-11715" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -216,7 +216,7 @@
     <t>Control order of groups. Input group names separated by comma and whitespace (', '). For multiple grouping columns - separate by semicolon and whitespace (', '). If you do not want to input order for any specific grouping column - write NA.</t>
   </si>
   <si>
-    <t>B</t>
+    <t>B, CD4_T, Monos_and_DCs</t>
   </si>
 </sst>
 </file>
@@ -731,7 +731,7 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/settings.xlsx
+++ b/settings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://charitede-my.sharepoint.com/personal/lev_petrov_charite_de/Documents/DOCTORATE/Cytomata_data/anca_panel_3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="14_{5CD1A498-E873-4B30-8872-751E1B7C508A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AFB83027-AE09-42D8-B0F4-B1B6031C3A0F}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="14_{5CD1A498-E873-4B30-8872-751E1B7C508A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{56C2BC43-201A-4B29-805C-CBABCC979360}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -730,8 +730,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -866,7 +866,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>19</v>

--- a/settings.xlsx
+++ b/settings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://charitede-my.sharepoint.com/personal/lev_petrov_charite_de/Documents/DOCTORATE/Cytomata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://charitede-my.sharepoint.com/personal/lev_petrov_charite_de/Documents/DOCTORATE/Cytomata_data/anca_panel_3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="202" documentId="11_F25DC773A252ABDACC104856411A5CB85ADE58E9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EAD6DAA3-7B3E-4EED-90CC-B3AAA5EB1E6B}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="14_{5CD1A498-E873-4B30-8872-751E1B7C508A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{56C2BC43-201A-4B29-805C-CBABCC979360}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -81,33 +81,15 @@
     <t>meta</t>
   </si>
   <si>
-    <t>CD4_T</t>
-  </si>
-  <si>
     <t>fs</t>
   </si>
   <si>
-    <t>Columns in meta-table that contain group stratification. Accepts multiple names, separated by comma.</t>
-  </si>
-  <si>
-    <t>What ID your reference replicates have. Accepts multiple IDs, separated by comma.</t>
-  </si>
-  <si>
     <t>0 (off) or 1 (on). Introduces prompts after clustering and UMAP steps, asks whether results acceptable, re-runs these steps if settings were changed. Useful for the first run of the pipeline.</t>
   </si>
   <si>
     <t>fs = FlowSOM with automatic cluster merging (default), fs_manual = FlowSOM with set k, manual merging possible, pg = PhenoGraph (attention, slow!)</t>
   </si>
   <si>
-    <t>UMAPs n_neighbors. Low value leads to better resolution of local structure, high - to better capture of global structure. Default value is 15. Accepts multiple values, separated by comma of different values are needed for each data_subset. Order is given by data_subset vector.</t>
-  </si>
-  <si>
-    <t>UMAPs min_dist. Lower values lead to clumpier embeddings, higher make them more spread-out. Accepts multiple values, separated by comma of different values are needed for each data_subset. Order is given by data_subset vector.</t>
-  </si>
-  <si>
-    <t>0 (off) or 1 (on). Second value can be entered for number of features to keep, separated by comma. Is done by default for top 20 features if subset_feature_selection.xlsx is not provided.</t>
-  </si>
-  <si>
     <t>Without quotes.</t>
   </si>
   <si>
@@ -141,9 +123,6 @@
     <t>do_analysis</t>
   </si>
   <si>
-    <t>Whether to down- or upsample events PER SAMPLE using a given factor. You might want to downsample if studying e.g. granulocytes (on whole blood) to reduce computational burden and oversample if interested in finding rare populations. Downsampling could also be used to reduce the dominance of the oversized samples, while oversampling could be used to enhance the representation of the undersized ones. The cutoff for downsampling is the average sample size across all samples (samples are not reduced in size beyond that threshold). The cutoff for oversampling is the average sample size across all samples (samples are not increased in size beyond that threshold). Accepts multiple values separated by comma if different needed for each data_subset. Order is given by data_subset order.</t>
-  </si>
-  <si>
     <t>event_cutoff</t>
   </si>
   <si>
@@ -171,9 +150,6 @@
     <t>increase factor for bigger text, labels and legends in figures, or decrease for smaller, try to avoid drastic changes, because it is a multiplicative factor</t>
   </si>
   <si>
-    <t>If fs, number of clusters after hierarchical and before automatic merging. If fs_manual, final number of clusters after hierarchical merging. If pg, number of nearest neighbors parameter. Accepts multiple values, separated by comma, if different values are needed for each data_subset. Order is given by data_subset vector.</t>
-  </si>
-  <si>
     <t>fs_n_dims</t>
   </si>
   <si>
@@ -192,31 +168,55 @@
     <t>B2M, DNA, Bead, LD, Live, Dead, ID, Cell-ID, Cell_ID</t>
   </si>
   <si>
-    <t>Pre-gated subsets of events that you want to analyze. These should be the exact names of folders in fcs/4_subsets/. Separated by comma.</t>
-  </si>
-  <si>
-    <t>Patterns present in the names of pre-processing channels that will be used to remove them. Input separated by comma. This can be adjusted in the panel.csv file afterwards.</t>
-  </si>
-  <si>
-    <t>1, 20</t>
-  </si>
-  <si>
-    <t>small_dev_project_panel_1</t>
-  </si>
-  <si>
-    <t>HC-100</t>
-  </si>
-  <si>
     <t>grouping_orders</t>
   </si>
   <si>
-    <t>sev_age_timepoint, inf_age_timepoint, inf_age</t>
-  </si>
-  <si>
-    <t>Control order of groups. Input group names separated by comma. For multiple grouping columns - separate by semicolon. If you do not want to input order for any specific grouping column - write NA.</t>
-  </si>
-  <si>
-    <t>NA; control child, control, infected child, infected adult, infected child d14, infected adult d14, infected child d180, infected adult d180; control child, control adult, infected child, infected adult</t>
+    <t>HC-050</t>
+  </si>
+  <si>
+    <t>anca_panel_3</t>
+  </si>
+  <si>
+    <t>0, 30</t>
+  </si>
+  <si>
+    <t>HC, MPO, PR3; HC, ANCA</t>
+  </si>
+  <si>
+    <t>antigen, anca_status</t>
+  </si>
+  <si>
+    <t>Patterns present in the names of pre-processing channels that will be used to remove them. Input separated by comma and whitespace (', '). This can be adjusted in the panel.csv file afterwards.</t>
+  </si>
+  <si>
+    <t>What ID your reference replicates have. Accepts multiple IDs, separated by comma and whitespace (', ').</t>
+  </si>
+  <si>
+    <t>Columns in meta-table that contain group stratification. Accepts multiple names, separated by comma and whitespace (', ').</t>
+  </si>
+  <si>
+    <t>Pre-gated subsets of events that you want to analyze. These should be the exact names of folders in fcs/4_subsets/. Separated by comma and whitespace (', ').</t>
+  </si>
+  <si>
+    <t>Whether to down- or upsample events PER SAMPLE using a given factor. You might want to downsample if studying e.g. granulocytes (on whole blood) to reduce computational burden and oversample if interested in finding rare populations. Downsampling could also be used to reduce the dominance of the oversized samples, while oversampling could be used to enhance the representation of the undersized ones. The cutoff for downsampling is the average sample size across all samples (samples are not reduced in size beyond that threshold). The cutoff for oversampling is the average sample size across all samples (samples are not increased in size beyond that threshold). Accepts multiple values separated by comma and whitespace (', ') if different needed for each data_subset. Order is given by data_subset order.</t>
+  </si>
+  <si>
+    <t>0 (off) or 1 (on). Second value can be entered for number of features to keep, separated by comma and whitespace (', '). Is done by default for top 20 features if subset_feature_selection.xlsx is not provided.</t>
+  </si>
+  <si>
+    <t>If fs, number of clusters after hierarchical and before automatic merging. If fs_manual, final number of clusters after hierarchical merging. If pg, number of nearest neighbors parameter. Accepts multiple values, separated by comma and whitespace (', '), if different values are needed for each data_subset. Order is given by data_subset vector.</t>
+  </si>
+  <si>
+    <t>UMAPs n_neighbors. Low value leads to better resolution of local structure, high - to better capture of global structure. Default value is 15. Accepts multiple values, separated by comma and whitespace (', ') of different values are needed for each data_subset. Order is given by data_subset vector.</t>
+  </si>
+  <si>
+    <t>UMAPs min_dist. Lower values lead to clumpier embeddings, higher make them more spread-out. Accepts multiple values, separated by comma and whitespace (', ') of different values are needed for each data_subset. Order is given by data_subset vector.</t>
+  </si>
+  <si>
+    <t>Control order of groups. Input group names separated by comma and whitespace (', '). For multiple grouping columns - separate by semicolon and whitespace (', '). If you do not want to input order for any specific grouping column - write NA.</t>
+  </si>
+  <si>
+    <t>B, CD4_T, Monos_and_DCs</t>
   </si>
 </sst>
 </file>
@@ -433,6 +433,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -441,12 +447,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -730,18 +730,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="71.28515625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="23.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="71.33203125" style="2" customWidth="1"/>
     <col min="3" max="3" width="59" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -752,29 +752,29 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="17" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>6</v>
       </c>
@@ -782,130 +782,130 @@
         <v>17</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="B5" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:3" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" s="20">
-        <v>1</v>
+        <v>25</v>
+      </c>
+      <c r="B7" s="17">
+        <v>0</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="9" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-    </row>
-    <row r="10" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+    </row>
+    <row r="10" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" s="21">
+        <v>27</v>
+      </c>
+      <c r="B10" s="18">
+        <v>0</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="17">
         <v>1</v>
       </c>
-      <c r="C10" s="12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B12" s="20">
-        <v>1</v>
-      </c>
       <c r="C12" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>8</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="210" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>10</v>
       </c>
@@ -913,90 +913,90 @@
         <v>1</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B18" s="2">
         <v>100</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="9" t="s">
         <v>11</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="B20" s="19"/>
-      <c r="C20" s="19"/>
-    </row>
-    <row r="21" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
+    </row>
+    <row r="21" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B21" s="20">
+        <v>35</v>
+      </c>
+      <c r="B21" s="17">
         <v>1</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B22" s="2">
         <v>1</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="9" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B23" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
-    </row>
-    <row r="25" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+    </row>
+    <row r="25" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B25" s="20" t="s">
-        <v>19</v>
+      <c r="B25" s="17" t="s">
+        <v>18</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>13</v>
       </c>
@@ -1004,51 +1004,51 @@
         <v>30</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B27" s="2">
         <v>10</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="9" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="B28" s="16">
-        <v>0.01</v>
+        <v>1.2E-2</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="G28" s="15"/>
     </row>
-    <row r="29" spans="1:7" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="B29" s="18"/>
-      <c r="C29" s="18"/>
-    </row>
-    <row r="30" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" s="20"/>
+      <c r="C29" s="20"/>
+    </row>
+    <row r="30" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B30" s="20">
+      <c r="B30" s="17">
         <v>15</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="9" t="s">
         <v>15</v>
       </c>
@@ -1056,7 +1056,7 @@
         <v>0.1</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/settings.xlsx
+++ b/settings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://charitede-my.sharepoint.com/personal/lev_petrov_charite_de/Documents/DOCTORATE/Cytomata_data/anca_panel_3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="14_{5CD1A498-E873-4B30-8872-751E1B7C508A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{56C2BC43-201A-4B29-805C-CBABCC979360}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="14_{5CD1A498-E873-4B30-8872-751E1B7C508A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C3E73056-10E9-4FDC-912A-D4D8F07CE771}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -216,7 +216,7 @@
     <t>Control order of groups. Input group names separated by comma and whitespace (', '). For multiple grouping columns - separate by semicolon and whitespace (', '). If you do not want to input order for any specific grouping column - write NA.</t>
   </si>
   <si>
-    <t>B, CD4_T, Monos_and_DCs</t>
+    <t>Monos_and_DCs</t>
   </si>
 </sst>
 </file>
@@ -730,8 +730,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -866,7 +866,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>19</v>

--- a/settings.xlsx
+++ b/settings.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://charitede-my.sharepoint.com/personal/lev_petrov_charite_de/Documents/DOCTORATE/Cytomata_data/anca_panel_3/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://charitede-my.sharepoint.com/personal/lev_petrov_charite_de/Documents/DOCTORATE/Cytomata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="14_{5CD1A498-E873-4B30-8872-751E1B7C508A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C3E73056-10E9-4FDC-912A-D4D8F07CE771}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="14_{5CD1A498-E873-4B30-8872-751E1B7C508A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C6769CEC-C450-447A-98EF-9D2152D2CC99}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-57720" yWindow="-11715" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="67">
   <si>
     <t>setting</t>
   </si>
@@ -174,9 +174,6 @@
     <t>HC-050</t>
   </si>
   <si>
-    <t>anca_panel_3</t>
-  </si>
-  <si>
     <t>0, 30</t>
   </si>
   <si>
@@ -217,6 +214,18 @@
   </si>
   <si>
     <t>Monos_and_DCs</t>
+  </si>
+  <si>
+    <t>anca_panel_3_temp</t>
+  </si>
+  <si>
+    <t>norm_mode</t>
+  </si>
+  <si>
+    <t>harmony</t>
+  </si>
+  <si>
+    <t>percentile or harmony</t>
   </si>
 </sst>
 </file>
@@ -383,7 +392,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -447,6 +456,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -728,10 +740,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -768,7 +780,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>21</v>
@@ -793,7 +805,7 @@
         <v>46</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
@@ -808,265 +820,276 @@
         <v>25</v>
       </c>
       <c r="B7" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="9" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B9" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="20" t="s">
+      <c r="C9" s="10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-    </row>
-    <row r="10" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="11" t="s">
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+    </row>
+    <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="18">
+      <c r="B11" s="18">
         <v>0</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C11" s="12" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="20" t="s">
+    <row r="12" spans="1:3" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="17">
+      <c r="B13" s="17">
+        <v>0</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="2">
         <v>1</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A13" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="2">
-        <v>1</v>
-      </c>
-      <c r="C13" s="8" t="s">
+      <c r="C14" s="8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="7" t="s">
+    <row r="15" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="7" t="s">
         <v>8</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="7" t="s">
-        <v>47</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C15" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A17" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A16" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C16" s="8" t="s">
+      <c r="C17" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A18" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="2">
+        <v>1</v>
+      </c>
+      <c r="C18" s="8" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="187.2" x14ac:dyDescent="0.3">
-      <c r="A17" s="7" t="s">
+    <row r="19" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A19" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="2">
+        <v>100</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="21"/>
+      <c r="C21" s="21"/>
+    </row>
+    <row r="22" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A22" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="17">
+        <v>1</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="2">
+        <v>1</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" s="16">
+        <v>0</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+    </row>
+    <row r="26" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A26" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B27" s="2">
+        <v>30</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A28" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28" s="2">
         <v>10</v>
       </c>
-      <c r="B17" s="2">
-        <v>1</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A18" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18" s="2">
-        <v>100</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="B20" s="21"/>
-      <c r="C20" s="21"/>
-    </row>
-    <row r="21" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A21" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B21" s="17">
-        <v>1</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A22" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B22" s="2">
-        <v>1</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B23" s="16">
-        <v>0</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="19"/>
-      <c r="C24" s="19"/>
-    </row>
-    <row r="25" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A25" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B25" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A26" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B26" s="2">
+      <c r="C28" s="13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B29" s="16">
+        <v>1.2E-2</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="G29" s="15"/>
+    </row>
+    <row r="30" spans="1:7" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="B30" s="20"/>
+      <c r="C30" s="20"/>
+    </row>
+    <row r="31" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="A31" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B31" s="17">
+        <v>15</v>
+      </c>
+      <c r="C31" s="6" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A27" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B27" s="2">
-        <v>10</v>
-      </c>
-      <c r="C27" s="13" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B28" s="16">
-        <v>1.2E-2</v>
-      </c>
-      <c r="C28" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="G28" s="15"/>
-    </row>
-    <row r="29" spans="1:7" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="B29" s="20"/>
-      <c r="C29" s="20"/>
-    </row>
-    <row r="30" spans="1:7" ht="72" x14ac:dyDescent="0.3">
-      <c r="A30" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B30" s="17">
+    <row r="32" spans="1:7" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="B32" s="16">
+        <v>0.1</v>
+      </c>
+      <c r="C32" s="10" t="s">
         <v>60</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B31" s="16">
-        <v>0.1</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>61</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A10:C10"/>
     <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/settings.xlsx
+++ b/settings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://charitede-my.sharepoint.com/personal/lev_petrov_charite_de/Documents/DOCTORATE/Cytomata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="14_{5CD1A498-E873-4B30-8872-751E1B7C508A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C6769CEC-C450-447A-98EF-9D2152D2CC99}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{9C262F40-B724-47DA-807B-CA0883A1DDFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B25339B4-8BFC-4D9D-98A2-55C45FA88A0D}"/>
   <bookViews>
     <workbookView xWindow="-57720" yWindow="-11715" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="64">
   <si>
     <t>setting</t>
   </si>
@@ -174,58 +174,49 @@
     <t>HC-050</t>
   </si>
   <si>
+    <t>anca_panel_1</t>
+  </si>
+  <si>
+    <t>Patterns present in the names of pre-processing channels that will be used to remove them. Input separated by comma and whitespace (", "). This can be adjusted in the panel.csv file afterwards.</t>
+  </si>
+  <si>
+    <t>What ID your reference replicates have. Accepts multiple IDs, separated by comma and whitespace (", ").</t>
+  </si>
+  <si>
+    <t>Columns in meta-table that contain group stratification. Accepts multiple names, separated by comma and whitespace (", ").</t>
+  </si>
+  <si>
+    <t>Pre-gated subsets of events that you want to analyze. These should be the exact names of folders in fcs/4_subsets/. Separated by comma and whitespace (", ").</t>
+  </si>
+  <si>
+    <t>Whether to down- or upsample events PER SAMPLE using a given factor. You might want to downsample if studying e.g. granulocytes (on whole blood) to reduce computational burden and oversample if interested in finding rare populations. Downsampling could also be used to reduce the dominance of the oversized samples, while oversampling could be used to enhance the representation of the undersized ones. The cutoff for downsampling is the average sample size across all samples (samples are not reduced in size beyond that threshold). The cutoff for oversampling is the average sample size across all samples (samples are not increased in size beyond that threshold). Accepts multiple values separated by comma and whitespace (", ") if different needed for each data_subset. Order is given by data_subset order.</t>
+  </si>
+  <si>
+    <t>0 (off) or 1 (on). Second value can be entered for number of features to keep, separated by comma and whitespace (", "). Is done by default for top 20 features if subset_feature_selection.xlsx is not provided.</t>
+  </si>
+  <si>
+    <t>If fs, number of clusters after hierarchical and before automatic merging. If fs_manual, final number of clusters after hierarchical merging. If pg, number of nearest neighbors parameter. Accepts multiple values, separated by comma and whitespace (", "), if different values are needed for each data_subset. Order is given by data_subset vector.</t>
+  </si>
+  <si>
+    <t>UMAPs n_neighbors. Low value leads to better resolution of local structure, high - to better capture of global structure. Default value is 15. Accepts multiple values, separated by comma and whitespace (", ") of different values are needed for each data_subset. Order is given by data_subset vector.</t>
+  </si>
+  <si>
+    <t>UMAPs min_dist. Lower values lead to clumpier embeddings, higher make them more spread-out. Accepts multiple values, separated by comma and whitespace (", ") of different values are needed for each data_subset. Order is given by data_subset vector.</t>
+  </si>
+  <si>
+    <t>Control order of groups. Input group names separated by comma and whitespace (", "). For multiple grouping columns - separate by semicolon and whitespace (", "). If you do not want to input order for any specific grouping column - write NA.</t>
+  </si>
+  <si>
+    <t>HC, MPO, PR3; HC, ANCA</t>
+  </si>
+  <si>
+    <t>antigen, anca_status</t>
+  </si>
+  <si>
     <t>0, 30</t>
   </si>
   <si>
-    <t>HC, MPO, PR3; HC, ANCA</t>
-  </si>
-  <si>
-    <t>antigen, anca_status</t>
-  </si>
-  <si>
-    <t>Patterns present in the names of pre-processing channels that will be used to remove them. Input separated by comma and whitespace (', '). This can be adjusted in the panel.csv file afterwards.</t>
-  </si>
-  <si>
-    <t>What ID your reference replicates have. Accepts multiple IDs, separated by comma and whitespace (', ').</t>
-  </si>
-  <si>
-    <t>Columns in meta-table that contain group stratification. Accepts multiple names, separated by comma and whitespace (', ').</t>
-  </si>
-  <si>
-    <t>Pre-gated subsets of events that you want to analyze. These should be the exact names of folders in fcs/4_subsets/. Separated by comma and whitespace (', ').</t>
-  </si>
-  <si>
-    <t>Whether to down- or upsample events PER SAMPLE using a given factor. You might want to downsample if studying e.g. granulocytes (on whole blood) to reduce computational burden and oversample if interested in finding rare populations. Downsampling could also be used to reduce the dominance of the oversized samples, while oversampling could be used to enhance the representation of the undersized ones. The cutoff for downsampling is the average sample size across all samples (samples are not reduced in size beyond that threshold). The cutoff for oversampling is the average sample size across all samples (samples are not increased in size beyond that threshold). Accepts multiple values separated by comma and whitespace (', ') if different needed for each data_subset. Order is given by data_subset order.</t>
-  </si>
-  <si>
-    <t>0 (off) or 1 (on). Second value can be entered for number of features to keep, separated by comma and whitespace (', '). Is done by default for top 20 features if subset_feature_selection.xlsx is not provided.</t>
-  </si>
-  <si>
-    <t>If fs, number of clusters after hierarchical and before automatic merging. If fs_manual, final number of clusters after hierarchical merging. If pg, number of nearest neighbors parameter. Accepts multiple values, separated by comma and whitespace (', '), if different values are needed for each data_subset. Order is given by data_subset vector.</t>
-  </si>
-  <si>
-    <t>UMAPs n_neighbors. Low value leads to better resolution of local structure, high - to better capture of global structure. Default value is 15. Accepts multiple values, separated by comma and whitespace (', ') of different values are needed for each data_subset. Order is given by data_subset vector.</t>
-  </si>
-  <si>
-    <t>UMAPs min_dist. Lower values lead to clumpier embeddings, higher make them more spread-out. Accepts multiple values, separated by comma and whitespace (', ') of different values are needed for each data_subset. Order is given by data_subset vector.</t>
-  </si>
-  <si>
-    <t>Control order of groups. Input group names separated by comma and whitespace (', '). For multiple grouping columns - separate by semicolon and whitespace (', '). If you do not want to input order for any specific grouping column - write NA.</t>
-  </si>
-  <si>
-    <t>Monos_and_DCs</t>
-  </si>
-  <si>
-    <t>anca_panel_3_temp</t>
-  </si>
-  <si>
-    <t>norm_mode</t>
-  </si>
-  <si>
-    <t>harmony</t>
-  </si>
-  <si>
-    <t>percentile or harmony</t>
+    <t>CD8_T</t>
   </si>
 </sst>
 </file>
@@ -392,7 +383,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -456,9 +447,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -740,10 +728,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -780,7 +768,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>21</v>
@@ -805,7 +793,7 @@
         <v>46</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
@@ -820,276 +808,265 @@
         <v>25</v>
       </c>
       <c r="B7" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="B8" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="9" t="s">
+    <row r="8" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B8" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C8" s="10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+    </row>
+    <row r="10" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="18">
+        <v>0</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="17">
+        <v>1</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A13" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="2">
+        <v>0</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A16" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="8" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
-    </row>
-    <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="18">
+    <row r="17" spans="1:7" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A17" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="2">
+        <v>1</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A18" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="2">
+        <v>100</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
+    </row>
+    <row r="21" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A21" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="17">
+        <v>1</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A22" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="2">
+        <v>1</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" s="16">
         <v>0</v>
       </c>
-      <c r="C11" s="12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="17">
-        <v>0</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A14" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" s="2">
-        <v>1</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A17" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="187.2" x14ac:dyDescent="0.3">
-      <c r="A18" s="7" t="s">
+      <c r="C23" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+    </row>
+    <row r="25" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A25" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A26" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" s="2">
+        <v>30</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A27" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27" s="2">
         <v>10</v>
       </c>
-      <c r="B18" s="2">
-        <v>1</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A19" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B19" s="2">
-        <v>100</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B20" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="C20" s="10" t="s">
+      <c r="C27" s="13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B28" s="16">
+        <v>0.02</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="G28" s="15"/>
+    </row>
+    <row r="29" spans="1:7" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" s="20"/>
+      <c r="C29" s="20"/>
+    </row>
+    <row r="30" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="A30" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B30" s="17">
+        <v>15</v>
+      </c>
+      <c r="C30" s="6" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="B21" s="21"/>
-      <c r="C21" s="21"/>
-    </row>
-    <row r="22" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A22" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B22" s="17">
-        <v>1</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A23" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B23" s="2">
-        <v>1</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B24" s="16">
-        <v>0</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="B25" s="19"/>
-      <c r="C25" s="19"/>
-    </row>
-    <row r="26" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A26" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B26" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B27" s="2">
-        <v>30</v>
-      </c>
-      <c r="C27" s="13" t="s">
+    <row r="31" spans="1:7" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B31" s="16">
+        <v>0.1</v>
+      </c>
+      <c r="C31" s="10" t="s">
         <v>58</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A28" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B28" s="2">
-        <v>10</v>
-      </c>
-      <c r="C28" s="13" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B29" s="16">
-        <v>1.2E-2</v>
-      </c>
-      <c r="C29" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="G29" s="15"/>
-    </row>
-    <row r="30" spans="1:7" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30" s="20"/>
-      <c r="C30" s="20"/>
-    </row>
-    <row r="31" spans="1:7" ht="72" x14ac:dyDescent="0.3">
-      <c r="A31" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B31" s="17">
-        <v>15</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B32" s="16">
-        <v>0.1</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>60</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A9:C9"/>
     <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A20:C20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/settings.xlsx
+++ b/settings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://charitede-my.sharepoint.com/personal/lev_petrov_charite_de/Documents/DOCTORATE/Cytomata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://charitede-my.sharepoint.com/personal/lucas_arendholz_bih-charite_de/Documents/In_Silico/Cytomata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{9C262F40-B724-47DA-807B-CA0883A1DDFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B25339B4-8BFC-4D9D-98A2-55C45FA88A0D}"/>
+  <xr:revisionPtr revIDLastSave="25" documentId="14_{5CD1A498-E873-4B30-8872-751E1B7C508A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A57A9D6D-1861-4F80-B619-4A17FA531146}"/>
   <bookViews>
-    <workbookView xWindow="-57720" yWindow="-11715" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="67">
   <si>
     <t>setting</t>
   </si>
@@ -75,9 +75,6 @@
     <t>umap_min_dist</t>
   </si>
   <si>
-    <t>~/DOCTORATE/Cytomata_data/</t>
-  </si>
-  <si>
     <t>meta</t>
   </si>
   <si>
@@ -171,40 +168,7 @@
     <t>grouping_orders</t>
   </si>
   <si>
-    <t>HC-050</t>
-  </si>
-  <si>
-    <t>anca_panel_1</t>
-  </si>
-  <si>
-    <t>Patterns present in the names of pre-processing channels that will be used to remove them. Input separated by comma and whitespace (", "). This can be adjusted in the panel.csv file afterwards.</t>
-  </si>
-  <si>
-    <t>What ID your reference replicates have. Accepts multiple IDs, separated by comma and whitespace (", ").</t>
-  </si>
-  <si>
-    <t>Columns in meta-table that contain group stratification. Accepts multiple names, separated by comma and whitespace (", ").</t>
-  </si>
-  <si>
-    <t>Pre-gated subsets of events that you want to analyze. These should be the exact names of folders in fcs/4_subsets/. Separated by comma and whitespace (", ").</t>
-  </si>
-  <si>
-    <t>Whether to down- or upsample events PER SAMPLE using a given factor. You might want to downsample if studying e.g. granulocytes (on whole blood) to reduce computational burden and oversample if interested in finding rare populations. Downsampling could also be used to reduce the dominance of the oversized samples, while oversampling could be used to enhance the representation of the undersized ones. The cutoff for downsampling is the average sample size across all samples (samples are not reduced in size beyond that threshold). The cutoff for oversampling is the average sample size across all samples (samples are not increased in size beyond that threshold). Accepts multiple values separated by comma and whitespace (", ") if different needed for each data_subset. Order is given by data_subset order.</t>
-  </si>
-  <si>
-    <t>0 (off) or 1 (on). Second value can be entered for number of features to keep, separated by comma and whitespace (", "). Is done by default for top 20 features if subset_feature_selection.xlsx is not provided.</t>
-  </si>
-  <si>
-    <t>If fs, number of clusters after hierarchical and before automatic merging. If fs_manual, final number of clusters after hierarchical merging. If pg, number of nearest neighbors parameter. Accepts multiple values, separated by comma and whitespace (", "), if different values are needed for each data_subset. Order is given by data_subset vector.</t>
-  </si>
-  <si>
-    <t>UMAPs n_neighbors. Low value leads to better resolution of local structure, high - to better capture of global structure. Default value is 15. Accepts multiple values, separated by comma and whitespace (", ") of different values are needed for each data_subset. Order is given by data_subset vector.</t>
-  </si>
-  <si>
-    <t>UMAPs min_dist. Lower values lead to clumpier embeddings, higher make them more spread-out. Accepts multiple values, separated by comma and whitespace (", ") of different values are needed for each data_subset. Order is given by data_subset vector.</t>
-  </si>
-  <si>
-    <t>Control order of groups. Input group names separated by comma and whitespace (", "). For multiple grouping columns - separate by semicolon and whitespace (", "). If you do not want to input order for any specific grouping column - write NA.</t>
+    <t>0, 30</t>
   </si>
   <si>
     <t>HC, MPO, PR3; HC, ANCA</t>
@@ -213,10 +177,55 @@
     <t>antigen, anca_status</t>
   </si>
   <si>
-    <t>0, 30</t>
-  </si>
-  <si>
-    <t>CD8_T</t>
+    <t>Patterns present in the names of pre-processing channels that will be used to remove them. Input separated by comma and whitespace (', '). This can be adjusted in the panel.csv file afterwards.</t>
+  </si>
+  <si>
+    <t>What ID your reference replicates have. Accepts multiple IDs, separated by comma and whitespace (', ').</t>
+  </si>
+  <si>
+    <t>Columns in meta-table that contain group stratification. Accepts multiple names, separated by comma and whitespace (', ').</t>
+  </si>
+  <si>
+    <t>Pre-gated subsets of events that you want to analyze. These should be the exact names of folders in fcs/4_subsets/. Separated by comma and whitespace (', ').</t>
+  </si>
+  <si>
+    <t>Whether to down- or upsample events PER SAMPLE using a given factor. You might want to downsample if studying e.g. granulocytes (on whole blood) to reduce computational burden and oversample if interested in finding rare populations. Downsampling could also be used to reduce the dominance of the oversized samples, while oversampling could be used to enhance the representation of the undersized ones. The cutoff for downsampling is the average sample size across all samples (samples are not reduced in size beyond that threshold). The cutoff for oversampling is the average sample size across all samples (samples are not increased in size beyond that threshold). Accepts multiple values separated by comma and whitespace (', ') if different needed for each data_subset. Order is given by data_subset order.</t>
+  </si>
+  <si>
+    <t>0 (off) or 1 (on). Second value can be entered for number of features to keep, separated by comma and whitespace (', '). Is done by default for top 20 features if subset_feature_selection.xlsx is not provided.</t>
+  </si>
+  <si>
+    <t>If fs, number of clusters after hierarchical and before automatic merging. If fs_manual, final number of clusters after hierarchical merging. If pg, number of nearest neighbors parameter. Accepts multiple values, separated by comma and whitespace (', '), if different values are needed for each data_subset. Order is given by data_subset vector.</t>
+  </si>
+  <si>
+    <t>UMAPs n_neighbors. Low value leads to better resolution of local structure, high - to better capture of global structure. Default value is 15. Accepts multiple values, separated by comma and whitespace (', ') of different values are needed for each data_subset. Order is given by data_subset vector.</t>
+  </si>
+  <si>
+    <t>UMAPs min_dist. Lower values lead to clumpier embeddings, higher make them more spread-out. Accepts multiple values, separated by comma and whitespace (', ') of different values are needed for each data_subset. Order is given by data_subset vector.</t>
+  </si>
+  <si>
+    <t>Control order of groups. Input group names separated by comma and whitespace (', '). For multiple grouping columns - separate by semicolon and whitespace (', '). If you do not want to input order for any specific grouping column - write NA.</t>
+  </si>
+  <si>
+    <t>B, CD4_T, Monos_and_DCs</t>
+  </si>
+  <si>
+    <t>NKSG_IACS_panel_3</t>
+  </si>
+  <si>
+    <t>C:/Users/lucas/OneDrive - Charité - Universitätsmedizin Berlin/#NKSG - Post-Covid19/CyTOF_analysis/Cytomata-master/Cytomata_data/</t>
+  </si>
+  <si>
+    <t>HC-04</t>
+  </si>
+  <si>
+    <t>norm_mode</t>
+  </si>
+  <si>
+    <t>percentile</t>
+  </si>
+  <si>
+    <t>percentile or harmony. harmony looks weird, will fix.</t>
   </si>
 </sst>
 </file>
@@ -383,7 +392,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -447,6 +456,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -728,10 +740,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -752,15 +764,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -768,10 +780,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -779,18 +791,18 @@
         <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="16" t="s">
         <v>45</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>46</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>50</v>
@@ -798,275 +810,286 @@
     </row>
     <row r="6" spans="1:3" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B6" s="20"/>
       <c r="C6" s="20"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="17">
+        <v>1</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="17">
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+    </row>
+    <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="18">
+        <v>1</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="17">
+        <v>1</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="2">
+        <v>1</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A17" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A18" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="2">
+        <v>1</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A19" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="2">
+        <v>100</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="21"/>
+      <c r="C21" s="21"/>
+    </row>
+    <row r="22" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A22" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="17">
+        <v>1</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A23" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" s="2">
+        <v>1</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" s="16">
         <v>0</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-    </row>
-    <row r="10" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="18">
-        <v>0</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="20" t="s">
+      <c r="C24" s="10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" s="17">
-        <v>1</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A13" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="2">
-        <v>0</v>
-      </c>
-      <c r="C13" s="8" t="s">
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+    </row>
+    <row r="26" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A26" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A16" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="187.2" x14ac:dyDescent="0.3">
-      <c r="A17" s="7" t="s">
+    <row r="27" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B27" s="2">
+        <v>30</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A28" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B28" s="2">
         <v>10</v>
       </c>
-      <c r="B17" s="2">
-        <v>1</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A18" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18" s="2">
-        <v>100</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="B20" s="21"/>
-      <c r="C20" s="21"/>
-    </row>
-    <row r="21" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A21" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B21" s="17">
-        <v>1</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A22" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B22" s="2">
-        <v>1</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B23" s="16">
-        <v>0</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="19" t="s">
+      <c r="C28" s="13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29" s="16">
+        <v>1.2E-2</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="G29" s="15"/>
+    </row>
+    <row r="30" spans="1:7" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="19"/>
-      <c r="C24" s="19"/>
-    </row>
-    <row r="25" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A25" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B25" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A26" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B26" s="2">
-        <v>30</v>
-      </c>
-      <c r="C26" s="13" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A27" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B27" s="2">
-        <v>10</v>
-      </c>
-      <c r="C27" s="13" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B28" s="16">
-        <v>0.02</v>
-      </c>
-      <c r="C28" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="G28" s="15"/>
-    </row>
-    <row r="29" spans="1:7" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="B29" s="20"/>
-      <c r="C29" s="20"/>
-    </row>
-    <row r="30" spans="1:7" ht="72" x14ac:dyDescent="0.3">
-      <c r="A30" s="5" t="s">
+      <c r="B30" s="20"/>
+      <c r="C30" s="20"/>
+    </row>
+    <row r="31" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="A31" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B30" s="17">
+      <c r="B31" s="17">
         <v>15</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C31" s="6" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="9" t="s">
+    <row r="32" spans="1:7" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B31" s="16">
+      <c r="B32" s="16">
         <v>0.1</v>
       </c>
-      <c r="C31" s="10" t="s">
+      <c r="C32" s="10" t="s">
         <v>58</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A10:C10"/>
     <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/settings.xlsx
+++ b/settings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://charitede-my.sharepoint.com/personal/lev_petrov_charite_de/Documents/DOCTORATE/Cytomata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{9C262F40-B724-47DA-807B-CA0883A1DDFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B25339B4-8BFC-4D9D-98A2-55C45FA88A0D}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="13_ncr:1_{9C262F40-B724-47DA-807B-CA0883A1DDFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{45416216-9AE5-49C5-8A35-2C2E330F3C3F}"/>
   <bookViews>
-    <workbookView xWindow="-57720" yWindow="-11715" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1440" yWindow="1008" windowWidth="21600" windowHeight="11232" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="67">
   <si>
     <t>setting</t>
   </si>
@@ -174,9 +174,6 @@
     <t>HC-050</t>
   </si>
   <si>
-    <t>anca_panel_1</t>
-  </si>
-  <si>
     <t>Patterns present in the names of pre-processing channels that will be used to remove them. Input separated by comma and whitespace (", "). This can be adjusted in the panel.csv file afterwards.</t>
   </si>
   <si>
@@ -207,16 +204,28 @@
     <t>Control order of groups. Input group names separated by comma and whitespace (", "). For multiple grouping columns - separate by semicolon and whitespace (", "). If you do not want to input order for any specific grouping column - write NA.</t>
   </si>
   <si>
-    <t>HC, MPO, PR3; HC, ANCA</t>
-  </si>
-  <si>
-    <t>antigen, anca_status</t>
-  </si>
-  <si>
     <t>0, 30</t>
   </si>
   <si>
-    <t>CD8_T</t>
+    <t>iahp_panel_1</t>
+  </si>
+  <si>
+    <t>visit</t>
+  </si>
+  <si>
+    <t>S1.1, S1.2, HC</t>
+  </si>
+  <si>
+    <t>Monos_and_DCs, CD4_T, CD8_T, B</t>
+  </si>
+  <si>
+    <t>norm_mode</t>
+  </si>
+  <si>
+    <t>percentile</t>
+  </si>
+  <si>
+    <t>percentile or harmony. Harmony is weird right now, use percentile.</t>
   </si>
 </sst>
 </file>
@@ -383,7 +392,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -447,6 +456,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -728,10 +740,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -768,7 +780,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>21</v>
@@ -793,7 +805,7 @@
         <v>46</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
@@ -808,7 +820,7 @@
         <v>25</v>
       </c>
       <c r="B7" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>24</v>
@@ -822,251 +834,262 @@
         <v>48</v>
       </c>
       <c r="C8" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+    </row>
+    <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="18">
+        <v>1</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="17">
+        <v>0</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="2">
+        <v>1</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" s="8" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-    </row>
-    <row r="10" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="18">
+    <row r="16" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A17" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A18" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="2">
+        <v>1</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A19" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="2">
+        <v>100</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="21"/>
+      <c r="C21" s="21"/>
+    </row>
+    <row r="22" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A22" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="17">
+        <v>1</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="2">
+        <v>1</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" s="16">
         <v>0</v>
       </c>
-      <c r="C10" s="12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" s="17">
-        <v>1</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A13" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="2">
-        <v>0</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A16" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="187.2" x14ac:dyDescent="0.3">
-      <c r="A17" s="7" t="s">
+      <c r="C24" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+    </row>
+    <row r="26" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A26" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B27" s="2">
+        <v>30</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A28" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28" s="2">
         <v>10</v>
       </c>
-      <c r="B17" s="2">
-        <v>1</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A18" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18" s="2">
-        <v>100</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="B20" s="21"/>
-      <c r="C20" s="21"/>
-    </row>
-    <row r="21" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A21" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B21" s="17">
-        <v>1</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A22" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B22" s="2">
-        <v>1</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B23" s="16">
-        <v>0</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="19"/>
-      <c r="C24" s="19"/>
-    </row>
-    <row r="25" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A25" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B25" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A26" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B26" s="2">
+      <c r="C28" s="13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B29" s="16">
+        <v>0.02</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="G29" s="15"/>
+    </row>
+    <row r="30" spans="1:7" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="B30" s="20"/>
+      <c r="C30" s="20"/>
+    </row>
+    <row r="31" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="A31" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B31" s="17">
+        <v>15</v>
+      </c>
+      <c r="C31" s="6" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A27" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B27" s="2">
-        <v>10</v>
-      </c>
-      <c r="C27" s="13" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B28" s="16">
-        <v>0.02</v>
-      </c>
-      <c r="C28" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="G28" s="15"/>
-    </row>
-    <row r="29" spans="1:7" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="B29" s="20"/>
-      <c r="C29" s="20"/>
-    </row>
-    <row r="30" spans="1:7" ht="72" x14ac:dyDescent="0.3">
-      <c r="A30" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B30" s="17">
+    <row r="32" spans="1:7" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="B32" s="16">
+        <v>0.1</v>
+      </c>
+      <c r="C32" s="10" t="s">
         <v>57</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B31" s="16">
-        <v>0.1</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>58</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A10:C10"/>
     <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/settings.xlsx
+++ b/settings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://charitede-my.sharepoint.com/personal/lev_petrov_charite_de/Documents/DOCTORATE/Cytomata_data/iahp_panel_1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="13_ncr:1_{9C262F40-B724-47DA-807B-CA0883A1DDFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{859FDE1F-19A7-4992-B7F9-0C57C426998A}"/>
+  <xr:revisionPtr revIDLastSave="26" documentId="13_ncr:1_{9C262F40-B724-47DA-807B-CA0883A1DDFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A0EDFBD9-E490-4A5E-9D63-272ED4A8D50D}"/>
   <bookViews>
     <workbookView xWindow="1440" yWindow="1008" windowWidth="21600" windowHeight="11232" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -216,9 +216,6 @@
     <t>S1.1, S1.2, HC</t>
   </si>
   <si>
-    <t>Monos_and_DCs, CD4_T, CD8_T, B</t>
-  </si>
-  <si>
     <t>norm_mode</t>
   </si>
   <si>
@@ -226,6 +223,9 @@
   </si>
   <si>
     <t>percentile or harmony. Harmony is weird for now, will fix.</t>
+  </si>
+  <si>
+    <t>Monos_and_DCs, CD4_T, CD8_T, B, TCRgd, NK</t>
   </si>
 </sst>
 </file>
@@ -448,6 +448,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -456,9 +459,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -742,8 +742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="A8:C8"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -809,18 +809,18 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>25</v>
       </c>
       <c r="B7" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>24</v>
@@ -828,13 +828,13 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="C8" s="8" t="s">
         <v>65</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -849,36 +849,36 @@
       </c>
     </row>
     <row r="10" spans="1:3" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
     </row>
     <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="11" t="s">
         <v>27</v>
       </c>
       <c r="B11" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>31</v>
       </c>
       <c r="B13" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>24</v>
@@ -922,7 +922,7 @@
         <v>9</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>52</v>
@@ -962,11 +962,11 @@
       </c>
     </row>
     <row r="21" spans="1:7" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="21" t="s">
+      <c r="A21" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="B21" s="21"/>
-      <c r="C21" s="21"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
     </row>
     <row r="22" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
@@ -1002,11 +1002,11 @@
       </c>
     </row>
     <row r="25" spans="1:7" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="19" t="s">
+      <c r="A25" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="B25" s="19"/>
-      <c r="C25" s="19"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
     </row>
     <row r="26" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
@@ -1054,11 +1054,11 @@
       <c r="G29" s="15"/>
     </row>
     <row r="30" spans="1:7" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="20" t="s">
+      <c r="A30" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="B30" s="20"/>
-      <c r="C30" s="20"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="21"/>
     </row>
     <row r="31" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">

--- a/settings.xlsx
+++ b/settings.xlsx
@@ -1,24 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27932"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://charitede-my.sharepoint.com/personal/lev_petrov_charite_de/Documents/DOCTORATE/Cytomata_data/iahp_panel_1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://charitede-my.sharepoint.com/personal/lev_petrov_charite_de/Documents/DOCTORATE/Cytomata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="26" documentId="13_ncr:1_{9C262F40-B724-47DA-807B-CA0883A1DDFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A0EDFBD9-E490-4A5E-9D63-272ED4A8D50D}"/>
+  <xr:revisionPtr revIDLastSave="52" documentId="13_ncr:1_{9C262F40-B724-47DA-807B-CA0883A1DDFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3DD45382-447F-4FF1-934C-9EF2565386A3}"/>
   <bookViews>
-    <workbookView xWindow="1440" yWindow="1008" windowWidth="21600" windowHeight="11232" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8664" yWindow="3324" windowWidth="28776" windowHeight="15288" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -165,15 +176,9 @@
     <t>excluded_channels</t>
   </si>
   <si>
-    <t>B2M, DNA, Bead, LD, Live, Dead, ID, Cell-ID, Cell_ID</t>
-  </si>
-  <si>
     <t>grouping_orders</t>
   </si>
   <si>
-    <t>HC-050</t>
-  </si>
-  <si>
     <t>Patterns present in the names of pre-processing channels that will be used to remove them. Input separated by comma and whitespace (", "). This can be adjusted in the panel.csv file afterwards.</t>
   </si>
   <si>
@@ -201,21 +206,9 @@
     <t>UMAPs min_dist. Lower values lead to clumpier embeddings, higher make them more spread-out. Accepts multiple values, separated by comma and whitespace (", ") of different values are needed for each data_subset. Order is given by data_subset vector.</t>
   </si>
   <si>
-    <t>Control order of groups. Input group names separated by comma and whitespace (", "). For multiple grouping columns - separate by semicolon and whitespace (", "). If you do not want to input order for any specific grouping column - write NA.</t>
-  </si>
-  <si>
     <t>0, 30</t>
   </si>
   <si>
-    <t>iahp_panel_1</t>
-  </si>
-  <si>
-    <t>visit</t>
-  </si>
-  <si>
-    <t>S1.1, S1.2, HC</t>
-  </si>
-  <si>
     <t>norm_mode</t>
   </si>
   <si>
@@ -225,7 +218,25 @@
     <t>percentile or harmony. Harmony is weird for now, will fix.</t>
   </si>
   <si>
-    <t>Monos_and_DCs, CD4_T, CD8_T, B, TCRgd, NK</t>
+    <t>B</t>
+  </si>
+  <si>
+    <t>B2M, DNA, Bead, LD, Live, Dead, ID, Cell-ID, Cell_ID, NA</t>
+  </si>
+  <si>
+    <t>iacs_panel_1</t>
+  </si>
+  <si>
+    <t>HC-04</t>
+  </si>
+  <si>
+    <t>Control order of groups. Input group names separated by comma and whitespace (", "). For multiple grouping columns - separate by semicolon and whitespace ("; "). If you do not want to input order for any specific grouping column - write NA.</t>
+  </si>
+  <si>
+    <t>hc_vs_pc_pre_treat, responder_pre_treat, pre_post, pre_post_w_hc</t>
+  </si>
+  <si>
+    <t>HC, S1.1; yes, no; S1.1, S1.2; HC, S1.1, S1.2</t>
   </si>
 </sst>
 </file>
@@ -742,8 +753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -780,7 +791,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>21</v>
@@ -802,10 +813,10 @@
         <v>45</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
@@ -828,13 +839,13 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -842,10 +853,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" s="10" t="s">
         <v>48</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
@@ -900,21 +911,21 @@
         <v>8</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
@@ -922,10 +933,10 @@
         <v>9</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="187.2" x14ac:dyDescent="0.3">
@@ -936,7 +947,7 @@
         <v>1</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
@@ -955,10 +966,10 @@
         <v>11</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
@@ -1027,7 +1038,7 @@
         <v>30</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
@@ -1046,7 +1057,7 @@
         <v>43</v>
       </c>
       <c r="B29" s="16">
-        <v>0.02</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="C29" s="14" t="s">
         <v>44</v>
@@ -1068,7 +1079,7 @@
         <v>15</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -1079,7 +1090,7 @@
         <v>0.1</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/settings.xlsx
+++ b/settings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27932"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://charitede-my.sharepoint.com/personal/lev_petrov_charite_de/Documents/DOCTORATE/Cytomata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://charitede-my.sharepoint.com/personal/lev_petrov_charite_de/Documents/DOCTORATE/Cytomata_data/iacs_panel_1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="52" documentId="13_ncr:1_{9C262F40-B724-47DA-807B-CA0883A1DDFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3DD45382-447F-4FF1-934C-9EF2565386A3}"/>
+  <xr:revisionPtr revIDLastSave="60" documentId="13_ncr:1_{9C262F40-B724-47DA-807B-CA0883A1DDFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E79D95C2-3479-4A96-AFA4-29FE57FB9764}"/>
   <bookViews>
-    <workbookView xWindow="8664" yWindow="3324" windowWidth="28776" windowHeight="15288" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="69">
   <si>
     <t>setting</t>
   </si>
@@ -218,9 +216,6 @@
     <t>percentile or harmony. Harmony is weird for now, will fix.</t>
   </si>
   <si>
-    <t>B</t>
-  </si>
-  <si>
     <t>B2M, DNA, Bead, LD, Live, Dead, ID, Cell-ID, Cell_ID, NA</t>
   </si>
   <si>
@@ -237,6 +232,15 @@
   </si>
   <si>
     <t>HC, S1.1; yes, no; S1.1, S1.2; HC, S1.1, S1.2</t>
+  </si>
+  <si>
+    <t>treat_NA_as_group</t>
+  </si>
+  <si>
+    <t>0 (off, default) or 1 (on)</t>
+  </si>
+  <si>
+    <t>B, CD4_T</t>
   </si>
 </sst>
 </file>
@@ -751,10 +755,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -791,7 +795,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>21</v>
@@ -813,7 +817,7 @@
         <v>45</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>47</v>
@@ -853,7 +857,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>48</v>
@@ -911,7 +915,7 @@
         <v>8</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>49</v>
@@ -922,185 +926,196 @@
         <v>46</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="C16" s="8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A17" s="7" t="s">
+      <c r="B17" s="2">
+        <v>0</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A18" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C17" s="8" t="s">
+      <c r="B18" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" s="8" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="187.2" x14ac:dyDescent="0.3">
-      <c r="A18" s="7" t="s">
+    <row r="19" spans="1:7" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A19" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B19" s="2">
         <v>1</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C19" s="8" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A19" s="7" t="s">
+    <row r="20" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A20" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B20" s="2">
         <v>100</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C20" s="8" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="9" t="s">
+    <row r="21" spans="1:7" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="B21" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C21" s="10" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="22" t="s">
+    <row r="22" spans="1:7" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="B21" s="22"/>
-      <c r="C21" s="22"/>
-    </row>
-    <row r="22" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A22" s="5" t="s">
+      <c r="B22" s="22"/>
+      <c r="C22" s="22"/>
+    </row>
+    <row r="23" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A23" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="17">
+      <c r="B23" s="17">
         <v>1</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C23" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A23" s="7" t="s">
+    <row r="24" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A24" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B24" s="2">
         <v>1</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C24" s="8" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="9" t="s">
+    <row r="25" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B24" s="16">
+      <c r="B25" s="16">
         <v>0</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C25" s="10" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="20" t="s">
+    <row r="26" spans="1:7" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="B25" s="20"/>
-      <c r="C25" s="20"/>
-    </row>
-    <row r="26" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A26" s="5" t="s">
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
+    </row>
+    <row r="27" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A27" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B26" s="17" t="s">
+      <c r="B27" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C27" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A27" s="7" t="s">
+    <row r="28" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A28" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B28" s="2">
         <v>30</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="C28" s="13" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A28" s="7" t="s">
+    <row r="29" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A29" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B29" s="2">
         <v>10</v>
       </c>
-      <c r="C28" s="13" t="s">
+      <c r="C29" s="13" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="9" t="s">
+    <row r="30" spans="1:7" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B29" s="16">
+      <c r="B30" s="16">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="C29" s="14" t="s">
+      <c r="C30" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="G29" s="15"/>
-    </row>
-    <row r="30" spans="1:7" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="21" t="s">
+      <c r="G30" s="15"/>
+    </row>
+    <row r="31" spans="1:7" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="B30" s="21"/>
-      <c r="C30" s="21"/>
-    </row>
-    <row r="31" spans="1:7" ht="72" x14ac:dyDescent="0.3">
-      <c r="A31" s="5" t="s">
+      <c r="B31" s="21"/>
+      <c r="C31" s="21"/>
+    </row>
+    <row r="32" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="A32" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B31" s="17">
+      <c r="B32" s="17">
         <v>15</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C32" s="6" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="9" t="s">
+    <row r="33" spans="1:3" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B32" s="16">
+      <c r="B33" s="16">
         <v>0.1</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="C33" s="10" t="s">
         <v>55</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A31:C31"/>
     <mergeCell ref="A12:C12"/>
     <mergeCell ref="A10:C10"/>
     <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/settings.xlsx
+++ b/settings.xlsx
@@ -1,40 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27932"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://charitede-my.sharepoint.com/personal/lev_petrov_charite_de/Documents/DOCTORATE/Cytomata_data/iacs_panel_1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://charitede-my.sharepoint.com/personal/lev_petrov_charite_de/Documents/DOCTORATE/Cytomata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="60" documentId="13_ncr:1_{9C262F40-B724-47DA-807B-CA0883A1DDFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E79D95C2-3479-4A96-AFA4-29FE57FB9764}"/>
+  <xr:revisionPtr revIDLastSave="37" documentId="13_ncr:1_{9C262F40-B724-47DA-807B-CA0883A1DDFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F1A53FD9-25B2-47DA-B102-657616DD89E5}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1260" yWindow="4872" windowWidth="28776" windowHeight="16176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="67">
   <si>
     <t>setting</t>
   </si>
@@ -204,9 +195,15 @@
     <t>UMAPs min_dist. Lower values lead to clumpier embeddings, higher make them more spread-out. Accepts multiple values, separated by comma and whitespace (", ") of different values are needed for each data_subset. Order is given by data_subset vector.</t>
   </si>
   <si>
+    <t>Control order of groups. Input group names separated by comma and whitespace (", "). For multiple grouping columns - separate by semicolon and whitespace (", "). If you do not want to input order for any specific grouping column - write NA.</t>
+  </si>
+  <si>
     <t>0, 30</t>
   </si>
   <si>
+    <t>visit</t>
+  </si>
+  <si>
     <t>norm_mode</t>
   </si>
   <si>
@@ -216,31 +213,19 @@
     <t>percentile or harmony. Harmony is weird for now, will fix.</t>
   </si>
   <si>
+    <t>HC, S1.1, S1.2</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>dc10</t>
+  </si>
+  <si>
+    <t>Anchor</t>
+  </si>
+  <si>
     <t>B2M, DNA, Bead, LD, Live, Dead, ID, Cell-ID, Cell_ID, NA</t>
-  </si>
-  <si>
-    <t>iacs_panel_1</t>
-  </si>
-  <si>
-    <t>HC-04</t>
-  </si>
-  <si>
-    <t>Control order of groups. Input group names separated by comma and whitespace (", "). For multiple grouping columns - separate by semicolon and whitespace ("; "). If you do not want to input order for any specific grouping column - write NA.</t>
-  </si>
-  <si>
-    <t>hc_vs_pc_pre_treat, responder_pre_treat, pre_post, pre_post_w_hc</t>
-  </si>
-  <si>
-    <t>HC, S1.1; yes, no; S1.1, S1.2; HC, S1.1, S1.2</t>
-  </si>
-  <si>
-    <t>treat_NA_as_group</t>
-  </si>
-  <si>
-    <t>0 (off, default) or 1 (on)</t>
-  </si>
-  <si>
-    <t>B, CD4_T</t>
   </si>
 </sst>
 </file>
@@ -755,10 +740,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -795,7 +780,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>21</v>
@@ -817,7 +802,7 @@
         <v>45</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>47</v>
@@ -835,7 +820,7 @@
         <v>25</v>
       </c>
       <c r="B7" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>24</v>
@@ -843,13 +828,13 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -857,7 +842,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>48</v>
@@ -875,7 +860,7 @@
         <v>27</v>
       </c>
       <c r="B11" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>24</v>
@@ -893,7 +878,7 @@
         <v>31</v>
       </c>
       <c r="B13" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>24</v>
@@ -915,7 +900,7 @@
         <v>8</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>49</v>
@@ -926,196 +911,185 @@
         <v>46</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C16" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A17" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="B17" s="2">
+      <c r="C17" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A18" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="2">
+        <v>1</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A19" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="2">
+        <v>100</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
+    </row>
+    <row r="22" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A22" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="17">
+        <v>1</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="2">
+        <v>1</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" s="16">
         <v>0</v>
       </c>
-      <c r="C17" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A18" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="187.2" x14ac:dyDescent="0.3">
-      <c r="A19" s="7" t="s">
+      <c r="C24" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
+    </row>
+    <row r="26" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A26" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B27" s="2">
+        <v>30</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A28" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28" s="2">
         <v>10</v>
       </c>
-      <c r="B19" s="2">
-        <v>1</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A20" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B20" s="2">
-        <v>100</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B21" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="B22" s="22"/>
-      <c r="C22" s="22"/>
-    </row>
-    <row r="23" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A23" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B23" s="17">
-        <v>1</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A24" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B24" s="2">
-        <v>1</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B25" s="16">
-        <v>0</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="B26" s="20"/>
-      <c r="C26" s="20"/>
-    </row>
-    <row r="27" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A27" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B27" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A28" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B28" s="2">
+      <c r="C28" s="13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B29" s="16">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="G29" s="15"/>
+    </row>
+    <row r="30" spans="1:7" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="C28" s="13" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A29" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B29" s="2">
-        <v>10</v>
-      </c>
-      <c r="C29" s="13" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B30" s="16">
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="C30" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="G30" s="15"/>
-    </row>
-    <row r="31" spans="1:7" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31" s="21"/>
-      <c r="C31" s="21"/>
-    </row>
-    <row r="32" spans="1:7" ht="72" x14ac:dyDescent="0.3">
-      <c r="A32" s="5" t="s">
+      <c r="B30" s="21"/>
+      <c r="C30" s="21"/>
+    </row>
+    <row r="31" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="A31" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B32" s="17">
+      <c r="B31" s="17">
         <v>15</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="C31" s="6" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="9" t="s">
+    <row r="32" spans="1:7" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B33" s="16">
+      <c r="B32" s="16">
         <v>0.1</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="C32" s="10" t="s">
         <v>55</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A30:C30"/>
     <mergeCell ref="A12:C12"/>
     <mergeCell ref="A10:C10"/>
     <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A21:C21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/settings.xlsx
+++ b/settings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27932"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://charitede-my.sharepoint.com/personal/lev_petrov_charite_de/Documents/DOCTORATE/Cytomata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="37" documentId="13_ncr:1_{9C262F40-B724-47DA-807B-CA0883A1DDFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F1A53FD9-25B2-47DA-B102-657616DD89E5}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="6_{876AA531-D3F9-49D7-A1D5-6BB11379BB13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2548AA64-A83A-42F9-8BDE-440C2679FB5D}"/>
   <bookViews>
-    <workbookView xWindow="1260" yWindow="4872" windowWidth="28776" windowHeight="16176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2268" yWindow="2268" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="69">
   <si>
     <t>setting</t>
   </si>
@@ -195,15 +195,9 @@
     <t>UMAPs min_dist. Lower values lead to clumpier embeddings, higher make them more spread-out. Accepts multiple values, separated by comma and whitespace (", ") of different values are needed for each data_subset. Order is given by data_subset vector.</t>
   </si>
   <si>
-    <t>Control order of groups. Input group names separated by comma and whitespace (", "). For multiple grouping columns - separate by semicolon and whitespace (", "). If you do not want to input order for any specific grouping column - write NA.</t>
-  </si>
-  <si>
     <t>0, 30</t>
   </si>
   <si>
-    <t>visit</t>
-  </si>
-  <si>
     <t>norm_mode</t>
   </si>
   <si>
@@ -213,12 +207,6 @@
     <t>percentile or harmony. Harmony is weird for now, will fix.</t>
   </si>
   <si>
-    <t>HC, S1.1, S1.2</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
     <t>dc10</t>
   </si>
   <si>
@@ -226,6 +214,24 @@
   </si>
   <si>
     <t>B2M, DNA, Bead, LD, Live, Dead, ID, Cell-ID, Cell_ID, NA</t>
+  </si>
+  <si>
+    <t>group, paired_0, paired_0_5, paired_4, paired_24, paired_0_LPS, paired_0_5_LPS, paired_4_LPS, paired_24_LPS</t>
+  </si>
+  <si>
+    <t>Control order of groups. Input group names separated by comma and whitespace (", "). For multiple grouping columns - separate by semicolon and whitespace ("; "). If you do not want to input order for any specific grouping column - write NA.</t>
+  </si>
+  <si>
+    <t>DC</t>
+  </si>
+  <si>
+    <t>DC_0h, DC_0.5h, DC_4h, DC_24h, DC+LPS_0h, DC+LPS_0.5h, DC+LPS_4h, DC+LPS_24h, DC-10_0h, DC-10_0.5h, DC-10_4h, DC-10_24h, DC-10+LPS_0h, DC-10+LPS_0.5h, DC-10+LPS_4h, DC-10+LPS_24h; DC_0h, DC-10_0h; DC_0.5h, DC-10_0.5h; DC_4h, DC-10_4h; DC_24h, DC-10_24h; DC+LPS_0h, DC-10+LPS_0h; DC+LPS_0.5h, DC-10+LPS_0.5h; DC+LPS_4h, DC-10+LPS_4h; DC+LPS_24h, DC-10+LPS_24h</t>
+  </si>
+  <si>
+    <t>treat_NA_as_group</t>
+  </si>
+  <si>
+    <t>0 (off, default) or 1 (on)</t>
   </si>
 </sst>
 </file>
@@ -740,10 +746,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -780,7 +786,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>21</v>
@@ -802,7 +808,7 @@
         <v>45</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>47</v>
@@ -820,7 +826,7 @@
         <v>25</v>
       </c>
       <c r="B7" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>24</v>
@@ -828,13 +834,13 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>59</v>
-      </c>
-      <c r="B8" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -842,7 +848,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>48</v>
@@ -860,7 +866,7 @@
         <v>27</v>
       </c>
       <c r="B11" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>24</v>
@@ -878,7 +884,7 @@
         <v>31</v>
       </c>
       <c r="B13" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>24</v>
@@ -900,196 +906,207 @@
         <v>8</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>46</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C16" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" s="2">
+        <v>0</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A18" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A19" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="2">
+        <v>1</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A20" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="2">
+        <v>100</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="16" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A17" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="187.2" x14ac:dyDescent="0.3">
-      <c r="A18" s="7" t="s">
+      <c r="C21" s="10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="22"/>
+      <c r="C22" s="22"/>
+    </row>
+    <row r="23" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A23" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" s="17">
+        <v>1</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A24" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" s="2">
+        <v>1</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="16">
+        <v>0</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
+    </row>
+    <row r="27" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A27" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A28" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B28" s="2">
+        <v>20</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A29" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B29" s="2">
         <v>10</v>
       </c>
-      <c r="B18" s="2">
-        <v>1</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A19" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B19" s="2">
-        <v>100</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B20" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="B21" s="22"/>
-      <c r="C21" s="22"/>
-    </row>
-    <row r="22" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A22" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B22" s="17">
-        <v>1</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A23" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B23" s="2">
-        <v>1</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B24" s="16">
-        <v>0</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="B25" s="20"/>
-      <c r="C25" s="20"/>
-    </row>
-    <row r="26" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A26" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B26" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="C26" s="6" t="s">
+      <c r="C29" s="13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B30" s="16">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="G30" s="15"/>
+    </row>
+    <row r="31" spans="1:7" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" s="21"/>
+      <c r="C31" s="21"/>
+    </row>
+    <row r="32" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="A32" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B32" s="17">
         <v>20</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B27" s="2">
-        <v>30</v>
-      </c>
-      <c r="C27" s="13" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A28" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B28" s="2">
-        <v>10</v>
-      </c>
-      <c r="C28" s="13" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B29" s="16">
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="C29" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="G29" s="15"/>
-    </row>
-    <row r="30" spans="1:7" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30" s="21"/>
-      <c r="C30" s="21"/>
-    </row>
-    <row r="31" spans="1:7" ht="72" x14ac:dyDescent="0.3">
-      <c r="A31" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B31" s="17">
+      <c r="C32" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C31" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B32" s="16">
-        <v>0.1</v>
-      </c>
-      <c r="C32" s="10" t="s">
+      <c r="B33" s="16">
+        <v>0.15</v>
+      </c>
+      <c r="C33" s="10" t="s">
         <v>55</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A31:C31"/>
     <mergeCell ref="A12:C12"/>
     <mergeCell ref="A10:C10"/>
     <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/settings.xlsx
+++ b/settings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://charitede-my.sharepoint.com/personal/lev_petrov_charite_de/Documents/DOCTORATE/Cytomata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="6_{876AA531-D3F9-49D7-A1D5-6BB11379BB13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2548AA64-A83A-42F9-8BDE-440C2679FB5D}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="6_{876AA531-D3F9-49D7-A1D5-6BB11379BB13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{25807F88-EDEF-40CC-902B-B0A2B0B17303}"/>
   <bookViews>
-    <workbookView xWindow="2268" yWindow="2268" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2616" yWindow="2616" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -225,13 +225,13 @@
     <t>DC</t>
   </si>
   <si>
-    <t>DC_0h, DC_0.5h, DC_4h, DC_24h, DC+LPS_0h, DC+LPS_0.5h, DC+LPS_4h, DC+LPS_24h, DC-10_0h, DC-10_0.5h, DC-10_4h, DC-10_24h, DC-10+LPS_0h, DC-10+LPS_0.5h, DC-10+LPS_4h, DC-10+LPS_24h; DC_0h, DC-10_0h; DC_0.5h, DC-10_0.5h; DC_4h, DC-10_4h; DC_24h, DC-10_24h; DC+LPS_0h, DC-10+LPS_0h; DC+LPS_0.5h, DC-10+LPS_0.5h; DC+LPS_4h, DC-10+LPS_4h; DC+LPS_24h, DC-10+LPS_24h</t>
-  </si>
-  <si>
     <t>treat_NA_as_group</t>
   </si>
   <si>
     <t>0 (off, default) or 1 (on)</t>
+  </si>
+  <si>
+    <t>DC_0h, DC_0_5h, DC_4h, DC_24h, DC_LPS_0h, DC_LPS_0_5h, DC_LPS_4h, DC_LPS_24h, DC10_0h, DC10_0_5h, DC10_4h, DC10_24h, DC10_LPS_0h, DC10_LPS_0_5h, DC10_LPS_4h, DC10_LPS_24h; DC_0h, DC10_0h; DC_0_5h, DC10_0_5h; DC_4h, DC10_4h; DC_24h, DC10_24h; DC_LPS_0h, DC10_LPS_0h; DC_LPS_0_5h, DC10_LPS_0_5h; DC_LPS_4h, DC10_LPS_4h; DC_LPS_24h, DC10_LPS_24h</t>
   </si>
 </sst>
 </file>
@@ -748,8 +748,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -917,7 +917,7 @@
         <v>46</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>64</v>
@@ -925,13 +925,13 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B17" s="2">
         <v>0</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">

--- a/settings.xlsx
+++ b/settings.xlsx
@@ -8,17 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://charitede-my.sharepoint.com/personal/lev_petrov_charite_de/Documents/DOCTORATE/Cytomata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="6_{876AA531-D3F9-49D7-A1D5-6BB11379BB13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{25807F88-EDEF-40CC-902B-B0A2B0B17303}"/>
+  <xr:revisionPtr revIDLastSave="73" documentId="13_ncr:1_{9C262F40-B724-47DA-807B-CA0883A1DDFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AAF093B7-5D07-41EB-94A6-E26478FE079F}"/>
   <bookViews>
-    <workbookView xWindow="2616" yWindow="2616" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -207,22 +216,22 @@
     <t>percentile or harmony. Harmony is weird for now, will fix.</t>
   </si>
   <si>
-    <t>dc10</t>
-  </si>
-  <si>
-    <t>Anchor</t>
-  </si>
-  <si>
     <t>B2M, DNA, Bead, LD, Live, Dead, ID, Cell-ID, Cell_ID, NA</t>
   </si>
   <si>
-    <t>group, paired_0, paired_0_5, paired_4, paired_24, paired_0_LPS, paired_0_5_LPS, paired_4_LPS, paired_24_LPS</t>
+    <t>iacs_panel_1</t>
+  </si>
+  <si>
+    <t>HC-04</t>
   </si>
   <si>
     <t>Control order of groups. Input group names separated by comma and whitespace (", "). For multiple grouping columns - separate by semicolon and whitespace ("; "). If you do not want to input order for any specific grouping column - write NA.</t>
   </si>
   <si>
-    <t>DC</t>
+    <t>hc_vs_pc_pre_treat, responder_pre_treat, pre_post, pre_post_w_hc</t>
+  </si>
+  <si>
+    <t>HC, S1.1; yes, no; S1.1, S1.2; HC, S1.1, S1.2</t>
   </si>
   <si>
     <t>treat_NA_as_group</t>
@@ -231,7 +240,7 @@
     <t>0 (off, default) or 1 (on)</t>
   </si>
   <si>
-    <t>DC_0h, DC_0_5h, DC_4h, DC_24h, DC_LPS_0h, DC_LPS_0_5h, DC_LPS_4h, DC_LPS_24h, DC10_0h, DC10_0_5h, DC10_4h, DC10_24h, DC10_LPS_0h, DC10_LPS_0_5h, DC10_LPS_4h, DC10_LPS_24h; DC_0h, DC10_0h; DC_0_5h, DC10_0_5h; DC_4h, DC10_4h; DC_24h, DC10_24h; DC_LPS_0h, DC10_LPS_0h; DC_LPS_0_5h, DC10_LPS_0_5h; DC_LPS_4h, DC10_LPS_4h; DC_LPS_24h, DC10_LPS_24h</t>
+    <t>B</t>
   </si>
 </sst>
 </file>
@@ -748,8 +757,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -786,7 +795,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>21</v>
@@ -808,7 +817,7 @@
         <v>45</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>47</v>
@@ -848,7 +857,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>48</v>
@@ -906,21 +915,21 @@
         <v>8</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>46</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -939,7 +948,7 @@
         <v>9</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>50</v>
@@ -1041,7 +1050,7 @@
         <v>13</v>
       </c>
       <c r="B28" s="2">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C28" s="13" t="s">
         <v>53</v>
@@ -1063,7 +1072,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="16">
-        <v>2.5000000000000001E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="C30" s="14" t="s">
         <v>44</v>
@@ -1082,7 +1091,7 @@
         <v>14</v>
       </c>
       <c r="B32" s="17">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>54</v>
@@ -1093,7 +1102,7 @@
         <v>15</v>
       </c>
       <c r="B33" s="16">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="C33" s="10" t="s">
         <v>55</v>

--- a/settings.xlsx
+++ b/settings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://charitede-my.sharepoint.com/personal/lev_petrov_charite_de/Documents/DOCTORATE/Cytomata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="73" documentId="13_ncr:1_{9C262F40-B724-47DA-807B-CA0883A1DDFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AAF093B7-5D07-41EB-94A6-E26478FE079F}"/>
+  <xr:revisionPtr revIDLastSave="78" documentId="13_ncr:1_{9C262F40-B724-47DA-807B-CA0883A1DDFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{29FD777F-84A0-4251-87FE-47706A5253AC}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -757,8 +757,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1072,7 +1072,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="16">
-        <v>5.0000000000000001E-3</v>
+        <v>5.4999999999999997E-3</v>
       </c>
       <c r="C30" s="14" t="s">
         <v>44</v>

--- a/settings.xlsx
+++ b/settings.xlsx
@@ -8,26 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://charitede-my.sharepoint.com/personal/lev_petrov_charite_de/Documents/DOCTORATE/Cytomata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="78" documentId="13_ncr:1_{9C262F40-B724-47DA-807B-CA0883A1DDFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{29FD777F-84A0-4251-87FE-47706A5253AC}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="6_{876AA531-D3F9-49D7-A1D5-6BB11379BB13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{25807F88-EDEF-40CC-902B-B0A2B0B17303}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2616" yWindow="2616" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -216,22 +207,22 @@
     <t>percentile or harmony. Harmony is weird for now, will fix.</t>
   </si>
   <si>
+    <t>dc10</t>
+  </si>
+  <si>
+    <t>Anchor</t>
+  </si>
+  <si>
     <t>B2M, DNA, Bead, LD, Live, Dead, ID, Cell-ID, Cell_ID, NA</t>
   </si>
   <si>
-    <t>iacs_panel_1</t>
-  </si>
-  <si>
-    <t>HC-04</t>
+    <t>group, paired_0, paired_0_5, paired_4, paired_24, paired_0_LPS, paired_0_5_LPS, paired_4_LPS, paired_24_LPS</t>
   </si>
   <si>
     <t>Control order of groups. Input group names separated by comma and whitespace (", "). For multiple grouping columns - separate by semicolon and whitespace ("; "). If you do not want to input order for any specific grouping column - write NA.</t>
   </si>
   <si>
-    <t>hc_vs_pc_pre_treat, responder_pre_treat, pre_post, pre_post_w_hc</t>
-  </si>
-  <si>
-    <t>HC, S1.1; yes, no; S1.1, S1.2; HC, S1.1, S1.2</t>
+    <t>DC</t>
   </si>
   <si>
     <t>treat_NA_as_group</t>
@@ -240,7 +231,7 @@
     <t>0 (off, default) or 1 (on)</t>
   </si>
   <si>
-    <t>B</t>
+    <t>DC_0h, DC_0_5h, DC_4h, DC_24h, DC_LPS_0h, DC_LPS_0_5h, DC_LPS_4h, DC_LPS_24h, DC10_0h, DC10_0_5h, DC10_4h, DC10_24h, DC10_LPS_0h, DC10_LPS_0_5h, DC10_LPS_4h, DC10_LPS_24h; DC_0h, DC10_0h; DC_0_5h, DC10_0_5h; DC_4h, DC10_4h; DC_24h, DC10_24h; DC_LPS_0h, DC10_LPS_0h; DC_LPS_0_5h, DC10_LPS_0_5h; DC_LPS_4h, DC10_LPS_4h; DC_LPS_24h, DC10_LPS_24h</t>
   </si>
 </sst>
 </file>
@@ -757,8 +748,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -795,7 +786,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>21</v>
@@ -817,7 +808,7 @@
         <v>45</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>47</v>
@@ -857,7 +848,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>48</v>
@@ -915,21 +906,21 @@
         <v>8</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>46</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -948,7 +939,7 @@
         <v>9</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>50</v>
@@ -1050,7 +1041,7 @@
         <v>13</v>
       </c>
       <c r="B28" s="2">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C28" s="13" t="s">
         <v>53</v>
@@ -1072,7 +1063,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="16">
-        <v>5.4999999999999997E-3</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="C30" s="14" t="s">
         <v>44</v>
@@ -1091,7 +1082,7 @@
         <v>14</v>
       </c>
       <c r="B32" s="17">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>54</v>
@@ -1102,7 +1093,7 @@
         <v>15</v>
       </c>
       <c r="B33" s="16">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="C33" s="10" t="s">
         <v>55</v>

--- a/settings.xlsx
+++ b/settings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27932"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://charitede-my.sharepoint.com/personal/lev_petrov_charite_de/Documents/DOCTORATE/Cytomata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://charitede-my.sharepoint.com/personal/lev_petrov_charite_de/Documents/DOCTORATE/Cytomata_data/iahp_panel_3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="6_{876AA531-D3F9-49D7-A1D5-6BB11379BB13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{25807F88-EDEF-40CC-902B-B0A2B0B17303}"/>
+  <xr:revisionPtr revIDLastSave="33" documentId="13_ncr:1_{9C262F40-B724-47DA-807B-CA0883A1DDFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B2C91C02-028E-46F2-8FA0-FD0663B1047F}"/>
   <bookViews>
-    <workbookView xWindow="2616" yWindow="2616" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16416" yWindow="3720" windowWidth="29016" windowHeight="15288" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="67">
   <si>
     <t>setting</t>
   </si>
@@ -165,9 +165,15 @@
     <t>excluded_channels</t>
   </si>
   <si>
+    <t>B2M, DNA, Bead, LD, Live, Dead, ID, Cell-ID, Cell_ID</t>
+  </si>
+  <si>
     <t>grouping_orders</t>
   </si>
   <si>
+    <t>HC-050</t>
+  </si>
+  <si>
     <t>Patterns present in the names of pre-processing channels that will be used to remove them. Input separated by comma and whitespace (", "). This can be adjusted in the panel.csv file afterwards.</t>
   </si>
   <si>
@@ -198,40 +204,28 @@
     <t>0, 30</t>
   </si>
   <si>
+    <t>iahp_panel_3</t>
+  </si>
+  <si>
+    <t>percentile</t>
+  </si>
+  <si>
+    <t>percentile or harmony (harmony looks weird, will fix)</t>
+  </si>
+  <si>
     <t>norm_mode</t>
   </si>
   <si>
-    <t>percentile</t>
-  </si>
-  <si>
-    <t>percentile or harmony. Harmony is weird for now, will fix.</t>
-  </si>
-  <si>
-    <t>dc10</t>
-  </si>
-  <si>
-    <t>Anchor</t>
-  </si>
-  <si>
-    <t>B2M, DNA, Bead, LD, Live, Dead, ID, Cell-ID, Cell_ID, NA</t>
-  </si>
-  <si>
-    <t>group, paired_0, paired_0_5, paired_4, paired_24, paired_0_LPS, paired_0_5_LPS, paired_4_LPS, paired_24_LPS</t>
+    <t>Monos_and_DCs, CD4_T, CD8_T, B, TCRgd_T, NK</t>
+  </si>
+  <si>
+    <t>visit, hc_pre, hc_post, pre_post</t>
+  </si>
+  <si>
+    <t>HC, S1.1, S1.2; HC, S1.1; HC, S1.2; S1.1, S1.2</t>
   </si>
   <si>
     <t>Control order of groups. Input group names separated by comma and whitespace (", "). For multiple grouping columns - separate by semicolon and whitespace ("; "). If you do not want to input order for any specific grouping column - write NA.</t>
-  </si>
-  <si>
-    <t>DC</t>
-  </si>
-  <si>
-    <t>treat_NA_as_group</t>
-  </si>
-  <si>
-    <t>0 (off, default) or 1 (on)</t>
-  </si>
-  <si>
-    <t>DC_0h, DC_0_5h, DC_4h, DC_24h, DC_LPS_0h, DC_LPS_0_5h, DC_LPS_4h, DC_LPS_24h, DC10_0h, DC10_0_5h, DC10_4h, DC10_24h, DC10_LPS_0h, DC10_LPS_0_5h, DC10_LPS_4h, DC10_LPS_24h; DC_0h, DC10_0h; DC_0_5h, DC10_0_5h; DC_4h, DC10_4h; DC_24h, DC10_24h; DC_LPS_0h, DC10_LPS_0h; DC_LPS_0_5h, DC10_LPS_0_5h; DC_LPS_4h, DC10_LPS_4h; DC_LPS_24h, DC10_LPS_24h</t>
   </si>
 </sst>
 </file>
@@ -746,10 +740,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -786,7 +780,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>21</v>
@@ -808,10 +802,10 @@
         <v>45</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
@@ -826,7 +820,7 @@
         <v>25</v>
       </c>
       <c r="B7" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>24</v>
@@ -834,13 +828,13 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -848,10 +842,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
@@ -866,7 +860,7 @@
         <v>27</v>
       </c>
       <c r="B11" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>24</v>
@@ -884,7 +878,7 @@
         <v>31</v>
       </c>
       <c r="B13" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>24</v>
@@ -906,207 +900,196 @@
         <v>8</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A17" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C15" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A16" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="B17" s="2">
+      <c r="C17" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A18" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="2">
+        <v>1</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A19" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="2">
+        <v>100</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
+    </row>
+    <row r="22" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A22" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="17">
+        <v>1</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="2">
+        <v>1</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" s="16">
         <v>0</v>
       </c>
-      <c r="C17" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A18" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="187.2" x14ac:dyDescent="0.3">
-      <c r="A19" s="7" t="s">
+      <c r="C24" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
+    </row>
+    <row r="26" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A26" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B27" s="2">
+        <v>30</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A28" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28" s="2">
         <v>10</v>
       </c>
-      <c r="B19" s="2">
-        <v>1</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A20" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B20" s="2">
-        <v>100</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B21" s="16" t="s">
+      <c r="C28" s="13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B29" s="16">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="G29" s="15"/>
+    </row>
+    <row r="30" spans="1:7" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" s="21"/>
+      <c r="C30" s="21"/>
+    </row>
+    <row r="31" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="A31" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B31" s="17">
+        <v>15</v>
+      </c>
+      <c r="C31" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C21" s="10" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="B22" s="22"/>
-      <c r="C22" s="22"/>
-    </row>
-    <row r="23" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A23" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B23" s="17">
-        <v>1</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A24" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B24" s="2">
-        <v>1</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B25" s="16">
-        <v>0</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="B26" s="20"/>
-      <c r="C26" s="20"/>
-    </row>
-    <row r="27" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A27" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B27" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A28" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B28" s="2">
-        <v>20</v>
-      </c>
-      <c r="C28" s="13" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A29" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B29" s="2">
-        <v>10</v>
-      </c>
-      <c r="C29" s="13" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B30" s="16">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="C30" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="G30" s="15"/>
-    </row>
-    <row r="31" spans="1:7" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31" s="21"/>
-      <c r="C31" s="21"/>
-    </row>
-    <row r="32" spans="1:7" ht="72" x14ac:dyDescent="0.3">
-      <c r="A32" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B32" s="17">
-        <v>20</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="9" t="s">
+    </row>
+    <row r="32" spans="1:7" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B33" s="16">
-        <v>0.15</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>55</v>
+      <c r="B32" s="16">
+        <v>0.1</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A30:C30"/>
     <mergeCell ref="A12:C12"/>
     <mergeCell ref="A10:C10"/>
     <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A21:C21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/settings.xlsx
+++ b/settings.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://charitede-my.sharepoint.com/personal/lev_petrov_charite_de/Documents/DOCTORATE/Cytomata_data/iahp_panel_3/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://charitede-my.sharepoint.com/personal/lev_petrov_charite_de/Documents/DOCTORATE/Cytomata_data/iahp_panel_1_quantile/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="33" documentId="13_ncr:1_{9C262F40-B724-47DA-807B-CA0883A1DDFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B2C91C02-028E-46F2-8FA0-FD0663B1047F}"/>
+  <xr:revisionPtr revIDLastSave="49" documentId="13_ncr:1_{9C262F40-B724-47DA-807B-CA0883A1DDFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{62D7FD6E-D66B-4907-B36D-16D08D758425}"/>
   <bookViews>
-    <workbookView xWindow="16416" yWindow="3720" windowWidth="29016" windowHeight="15288" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8388" yWindow="3384" windowWidth="29016" windowHeight="15288" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -204,19 +204,10 @@
     <t>0, 30</t>
   </si>
   <si>
-    <t>iahp_panel_3</t>
-  </si>
-  <si>
-    <t>percentile</t>
-  </si>
-  <si>
-    <t>percentile or harmony (harmony looks weird, will fix)</t>
-  </si>
-  <si>
     <t>norm_mode</t>
   </si>
   <si>
-    <t>Monos_and_DCs, CD4_T, CD8_T, B, TCRgd_T, NK</t>
+    <t>Control order of groups. Input group names separated by comma and whitespace (", "). For multiple grouping columns - separate by semicolon and whitespace ("; "). If you do not want to input order for any specific grouping column - write NA.</t>
   </si>
   <si>
     <t>visit, hc_pre, hc_post, pre_post</t>
@@ -225,7 +216,16 @@
     <t>HC, S1.1, S1.2; HC, S1.1; HC, S1.2; S1.1, S1.2</t>
   </si>
   <si>
-    <t>Control order of groups. Input group names separated by comma and whitespace (", "). For multiple grouping columns - separate by semicolon and whitespace ("; "). If you do not want to input order for any specific grouping column - write NA.</t>
+    <t>B, CD4_T, CD8_T, Monos_and_DCs, NK, TCRgd_T</t>
+  </si>
+  <si>
+    <t>iahp_panel_1_quantile</t>
+  </si>
+  <si>
+    <t>percentile, quantile or harmony. Harmony is weird for now, will fix.</t>
+  </si>
+  <si>
+    <t>quantile</t>
   </si>
 </sst>
 </file>
@@ -742,8 +742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -780,7 +780,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>21</v>
@@ -828,13 +828,13 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -889,7 +889,7 @@
         <v>5</v>
       </c>
       <c r="B14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>19</v>
@@ -900,7 +900,7 @@
         <v>8</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>51</v>
@@ -911,10 +911,10 @@
         <v>47</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">

--- a/settings.xlsx
+++ b/settings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27932"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://charitede-my.sharepoint.com/personal/lev_petrov_charite_de/Documents/DOCTORATE/Cytomata_data/iahp_panel_1_quantile/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://charitede-my.sharepoint.com/personal/lev_petrov_charite_de/Documents/DOCTORATE/Cytomata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="49" documentId="13_ncr:1_{9C262F40-B724-47DA-807B-CA0883A1DDFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{62D7FD6E-D66B-4907-B36D-16D08D758425}"/>
+  <xr:revisionPtr revIDLastSave="86" documentId="13_ncr:1_{9C262F40-B724-47DA-807B-CA0883A1DDFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{497731B2-7695-4D9C-B51E-4C30D81B17B8}"/>
   <bookViews>
-    <workbookView xWindow="8388" yWindow="3384" windowWidth="29016" windowHeight="15288" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3036" yWindow="3036" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="76">
   <si>
     <t>setting</t>
   </si>
@@ -222,10 +222,37 @@
     <t>iahp_panel_1_quantile</t>
   </si>
   <si>
-    <t>percentile, quantile or harmony. Harmony is weird for now, will fix.</t>
-  </si>
-  <si>
     <t>quantile</t>
+  </si>
+  <si>
+    <t>norm_method</t>
+  </si>
+  <si>
+    <t>If quantile mode, can be either sample or channel. sample calculates n_quantiles for each channel and sample and then takes the average for each quantile over all samples to form a target distribution. channel calculates n_quantiles over all events in all reference samples for a given channel to form a target distribution. sample option is much slower, but more traditional.</t>
+  </si>
+  <si>
+    <t>norm_n_quantiles</t>
+  </si>
+  <si>
+    <t>norm_hide_zeroes</t>
+  </si>
+  <si>
+    <t>0 or 1. whether to produce additional density ridges with 0 values hidden for better visibility.</t>
+  </si>
+  <si>
+    <t>norm_ridges_downsampling</t>
+  </si>
+  <si>
+    <t>between 0 and 1. downsampling factor for density ridge plots. Use to speedup compute time.</t>
+  </si>
+  <si>
+    <t>percentile, quantile or harmony. Percentile does linear scaling using automatically estimated optimal anchor sample and optimal percentile for each channel. Quantile maps a spline interpolation function for each batch and adjusts all NON-ZERO values using the spline. NON-ZERO part is important. Harmony is weird for now, will fix at some point.</t>
+  </si>
+  <si>
+    <t>channel</t>
+  </si>
+  <si>
+    <t>how many quantiles to compute (+1). Tested: 100, 10000, 100000. No major difference spotted. Influences runtime by A LOT</t>
   </si>
 </sst>
 </file>
@@ -740,15 +767,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="24.44140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="71.33203125" style="2" customWidth="1"/>
     <col min="3" max="3" width="59" style="2" customWidth="1"/>
   </cols>
@@ -826,270 +853,314 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>59</v>
       </c>
       <c r="B8" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="21" t="s">
+      <c r="B10" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11" s="19">
+        <v>50000</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B12" s="19">
+        <v>1</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="B13" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
-    </row>
-    <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="11" t="s">
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+    </row>
+    <row r="15" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="18">
+      <c r="B15" s="18">
         <v>1</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C15" s="12" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="21" t="s">
+    <row r="16" spans="1:3" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="17">
+      <c r="B17" s="17">
         <v>0</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C17" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A14" s="7" t="s">
+    <row r="18" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A18" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B18" s="2">
         <v>0</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C18" s="8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="7" t="s">
+    <row r="19" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B19" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C19" s="8" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="7" t="s">
+    <row r="20" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B20" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C20" s="8" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A17" s="7" t="s">
+    <row r="21" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A21" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B21" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C21" s="8" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="187.2" x14ac:dyDescent="0.3">
-      <c r="A18" s="7" t="s">
+    <row r="22" spans="1:3" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A22" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B22" s="2">
         <v>1</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C22" s="8" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A19" s="7" t="s">
+    <row r="23" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A23" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B23" s="2">
         <v>100</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C23" s="8" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="9" t="s">
+    <row r="24" spans="1:3" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="B24" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C24" s="10" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="22" t="s">
+    <row r="25" spans="1:3" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="B21" s="22"/>
-      <c r="C21" s="22"/>
-    </row>
-    <row r="22" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A22" s="5" t="s">
+      <c r="B25" s="22"/>
+      <c r="C25" s="22"/>
+    </row>
+    <row r="26" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A26" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="17">
+      <c r="B26" s="17">
         <v>1</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C26" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A23" s="7" t="s">
+    <row r="27" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A27" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B27" s="2">
         <v>1</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C27" s="8" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="9" t="s">
+    <row r="28" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B24" s="16">
+      <c r="B28" s="16">
         <v>0</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C28" s="10" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="20" t="s">
+    <row r="29" spans="1:3" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="B25" s="20"/>
-      <c r="C25" s="20"/>
-    </row>
-    <row r="26" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A26" s="5" t="s">
+      <c r="B29" s="20"/>
+      <c r="C29" s="20"/>
+    </row>
+    <row r="30" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A30" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B26" s="17" t="s">
+      <c r="B30" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C30" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A27" s="7" t="s">
+    <row r="31" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A31" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B31" s="2">
         <v>30</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="C31" s="13" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A28" s="7" t="s">
+    <row r="32" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A32" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B32" s="2">
         <v>10</v>
       </c>
-      <c r="C28" s="13" t="s">
+      <c r="C32" s="13" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="9" t="s">
+    <row r="33" spans="1:7" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B29" s="16">
+      <c r="B33" s="16">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="C29" s="14" t="s">
+      <c r="C33" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="G29" s="15"/>
-    </row>
-    <row r="30" spans="1:7" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="21" t="s">
+      <c r="G33" s="15"/>
+    </row>
+    <row r="34" spans="1:7" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="B30" s="21"/>
-      <c r="C30" s="21"/>
-    </row>
-    <row r="31" spans="1:7" ht="72" x14ac:dyDescent="0.3">
-      <c r="A31" s="5" t="s">
+      <c r="B34" s="21"/>
+      <c r="C34" s="21"/>
+    </row>
+    <row r="35" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="A35" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B31" s="17">
+      <c r="B35" s="17">
         <v>15</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C35" s="6" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="9" t="s">
+    <row r="36" spans="1:7" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B32" s="16">
+      <c r="B36" s="16">
         <v>0.1</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="C36" s="10" t="s">
         <v>57</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A6:C6"/>
     <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A21:C21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/settings.xlsx
+++ b/settings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://charitede-my.sharepoint.com/personal/lev_petrov_charite_de/Documents/DOCTORATE/Cytomata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="86" documentId="13_ncr:1_{9C262F40-B724-47DA-807B-CA0883A1DDFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{497731B2-7695-4D9C-B51E-4C30D81B17B8}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="6_{876AA531-D3F9-49D7-A1D5-6BB11379BB13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{25807F88-EDEF-40CC-902B-B0A2B0B17303}"/>
   <bookViews>
-    <workbookView xWindow="3036" yWindow="3036" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2616" yWindow="2616" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="69">
   <si>
     <t>setting</t>
   </si>
@@ -165,15 +165,9 @@
     <t>excluded_channels</t>
   </si>
   <si>
-    <t>B2M, DNA, Bead, LD, Live, Dead, ID, Cell-ID, Cell_ID</t>
-  </si>
-  <si>
     <t>grouping_orders</t>
   </si>
   <si>
-    <t>HC-050</t>
-  </si>
-  <si>
     <t>Patterns present in the names of pre-processing channels that will be used to remove them. Input separated by comma and whitespace (", "). This can be adjusted in the panel.csv file afterwards.</t>
   </si>
   <si>
@@ -207,52 +201,37 @@
     <t>norm_mode</t>
   </si>
   <si>
+    <t>percentile</t>
+  </si>
+  <si>
+    <t>percentile or harmony. Harmony is weird for now, will fix.</t>
+  </si>
+  <si>
+    <t>dc10</t>
+  </si>
+  <si>
+    <t>Anchor</t>
+  </si>
+  <si>
+    <t>B2M, DNA, Bead, LD, Live, Dead, ID, Cell-ID, Cell_ID, NA</t>
+  </si>
+  <si>
+    <t>group, paired_0, paired_0_5, paired_4, paired_24, paired_0_LPS, paired_0_5_LPS, paired_4_LPS, paired_24_LPS</t>
+  </si>
+  <si>
     <t>Control order of groups. Input group names separated by comma and whitespace (", "). For multiple grouping columns - separate by semicolon and whitespace ("; "). If you do not want to input order for any specific grouping column - write NA.</t>
   </si>
   <si>
-    <t>visit, hc_pre, hc_post, pre_post</t>
-  </si>
-  <si>
-    <t>HC, S1.1, S1.2; HC, S1.1; HC, S1.2; S1.1, S1.2</t>
-  </si>
-  <si>
-    <t>B, CD4_T, CD8_T, Monos_and_DCs, NK, TCRgd_T</t>
-  </si>
-  <si>
-    <t>iahp_panel_1_quantile</t>
-  </si>
-  <si>
-    <t>quantile</t>
-  </si>
-  <si>
-    <t>norm_method</t>
-  </si>
-  <si>
-    <t>If quantile mode, can be either sample or channel. sample calculates n_quantiles for each channel and sample and then takes the average for each quantile over all samples to form a target distribution. channel calculates n_quantiles over all events in all reference samples for a given channel to form a target distribution. sample option is much slower, but more traditional.</t>
-  </si>
-  <si>
-    <t>norm_n_quantiles</t>
-  </si>
-  <si>
-    <t>norm_hide_zeroes</t>
-  </si>
-  <si>
-    <t>0 or 1. whether to produce additional density ridges with 0 values hidden for better visibility.</t>
-  </si>
-  <si>
-    <t>norm_ridges_downsampling</t>
-  </si>
-  <si>
-    <t>between 0 and 1. downsampling factor for density ridge plots. Use to speedup compute time.</t>
-  </si>
-  <si>
-    <t>percentile, quantile or harmony. Percentile does linear scaling using automatically estimated optimal anchor sample and optimal percentile for each channel. Quantile maps a spline interpolation function for each batch and adjusts all NON-ZERO values using the spline. NON-ZERO part is important. Harmony is weird for now, will fix at some point.</t>
-  </si>
-  <si>
-    <t>channel</t>
-  </si>
-  <si>
-    <t>how many quantiles to compute (+1). Tested: 100, 10000, 100000. No major difference spotted. Influences runtime by A LOT</t>
+    <t>DC</t>
+  </si>
+  <si>
+    <t>treat_NA_as_group</t>
+  </si>
+  <si>
+    <t>0 (off, default) or 1 (on)</t>
+  </si>
+  <si>
+    <t>DC_0h, DC_0_5h, DC_4h, DC_24h, DC_LPS_0h, DC_LPS_0_5h, DC_LPS_4h, DC_LPS_24h, DC10_0h, DC10_0_5h, DC10_4h, DC10_24h, DC10_LPS_0h, DC10_LPS_0_5h, DC10_LPS_4h, DC10_LPS_24h; DC_0h, DC10_0h; DC_0_5h, DC10_0_5h; DC_4h, DC10_4h; DC_24h, DC10_24h; DC_LPS_0h, DC10_LPS_0h; DC_LPS_0_5h, DC10_LPS_0_5h; DC_LPS_4h, DC10_LPS_4h; DC_LPS_24h, DC10_LPS_24h</t>
   </si>
 </sst>
 </file>
@@ -767,15 +746,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.44140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="23.109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="71.33203125" style="2" customWidth="1"/>
     <col min="3" max="3" width="59" style="2" customWidth="1"/>
   </cols>
@@ -807,7 +786,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>21</v>
@@ -829,10 +808,10 @@
         <v>45</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
@@ -847,320 +826,287 @@
         <v>25</v>
       </c>
       <c r="B7" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="B8" s="19" t="s">
+    </row>
+    <row r="9" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+    </row>
+    <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="18">
+        <v>0</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="17">
+        <v>1</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="2">
+        <v>1</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A16" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17" s="2">
+        <v>0</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A18" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="C9" s="8" t="s">
+      <c r="C18" s="8" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A10" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="B10" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="B11" s="19">
-        <v>50000</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="B12" s="19">
+    <row r="19" spans="1:7" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A19" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="2">
         <v>1</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="B13" s="16">
-        <v>0.2</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="21"/>
-      <c r="C14" s="21"/>
-    </row>
-    <row r="15" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" s="18">
-        <v>1</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" s="17">
-        <v>0</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A18" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" s="2">
-        <v>0</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A19" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>61</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>62</v>
+        <v>32</v>
+      </c>
+      <c r="B20" s="2">
+        <v>100</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A21" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C21" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" s="10" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="187.2" x14ac:dyDescent="0.3">
-      <c r="A22" s="7" t="s">
+    <row r="22" spans="1:7" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="22"/>
+      <c r="C22" s="22"/>
+    </row>
+    <row r="23" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A23" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" s="17">
+        <v>1</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A24" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" s="2">
+        <v>1</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="16">
+        <v>0</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
+    </row>
+    <row r="27" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A27" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A28" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B28" s="2">
+        <v>20</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A29" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B29" s="2">
         <v>10</v>
       </c>
-      <c r="B22" s="2">
-        <v>1</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A23" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B23" s="2">
-        <v>100</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B24" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="C24" s="10" t="s">
+      <c r="C29" s="13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B30" s="16">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="G30" s="15"/>
+    </row>
+    <row r="31" spans="1:7" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" s="21"/>
+      <c r="C31" s="21"/>
+    </row>
+    <row r="32" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="A32" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B32" s="17">
+        <v>20</v>
+      </c>
+      <c r="C32" s="6" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="B25" s="22"/>
-      <c r="C25" s="22"/>
-    </row>
-    <row r="26" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A26" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B26" s="17">
-        <v>1</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A27" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B27" s="2">
-        <v>1</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B28" s="16">
-        <v>0</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" s="20"/>
-      <c r="C29" s="20"/>
-    </row>
-    <row r="30" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A30" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B30" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A31" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B31" s="2">
-        <v>30</v>
-      </c>
-      <c r="C31" s="13" t="s">
+    <row r="33" spans="1:3" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B33" s="16">
+        <v>0.15</v>
+      </c>
+      <c r="C33" s="10" t="s">
         <v>55</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A32" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B32" s="2">
-        <v>10</v>
-      </c>
-      <c r="C32" s="13" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B33" s="16">
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="C33" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="G33" s="15"/>
-    </row>
-    <row r="34" spans="1:7" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="B34" s="21"/>
-      <c r="C34" s="21"/>
-    </row>
-    <row r="35" spans="1:7" ht="72" x14ac:dyDescent="0.3">
-      <c r="A35" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B35" s="17">
-        <v>15</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B36" s="16">
-        <v>0.1</v>
-      </c>
-      <c r="C36" s="10" t="s">
-        <v>57</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A10:C10"/>
     <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A22:C22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/settings.xlsx
+++ b/settings.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://charitede-my.sharepoint.com/personal/lev_petrov_charite_de/Documents/DOCTORATE/Cytomata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://charitede-my.sharepoint.com/personal/lev_petrov_charite_de/Documents/DOCTORATE/Cytomata_data/iahp_panel_1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="6_{876AA531-D3F9-49D7-A1D5-6BB11379BB13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{25807F88-EDEF-40CC-902B-B0A2B0B17303}"/>
+  <xr:revisionPtr revIDLastSave="97" documentId="13_ncr:1_{9C262F40-B724-47DA-807B-CA0883A1DDFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0978B61A-273A-4D76-AAF9-C850FC64C5D1}"/>
   <bookViews>
-    <workbookView xWindow="2616" yWindow="2616" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="78">
   <si>
     <t>setting</t>
   </si>
@@ -165,9 +165,15 @@
     <t>excluded_channels</t>
   </si>
   <si>
+    <t>B2M, DNA, Bead, LD, Live, Dead, ID, Cell-ID, Cell_ID</t>
+  </si>
+  <si>
     <t>grouping_orders</t>
   </si>
   <si>
+    <t>HC-050</t>
+  </si>
+  <si>
     <t>Patterns present in the names of pre-processing channels that will be used to remove them. Input separated by comma and whitespace (", "). This can be adjusted in the panel.csv file afterwards.</t>
   </si>
   <si>
@@ -201,37 +207,58 @@
     <t>norm_mode</t>
   </si>
   <si>
+    <t>Control order of groups. Input group names separated by comma and whitespace (", "). For multiple grouping columns - separate by semicolon and whitespace ("; "). If you do not want to input order for any specific grouping column - write NA.</t>
+  </si>
+  <si>
+    <t>visit, hc_pre, hc_post, pre_post</t>
+  </si>
+  <si>
+    <t>HC, S1.1, S1.2; HC, S1.1; HC, S1.2; S1.1, S1.2</t>
+  </si>
+  <si>
+    <t>B, CD4_T, CD8_T, Monos_and_DCs, NK, TCRgd_T</t>
+  </si>
+  <si>
+    <t>norm_method</t>
+  </si>
+  <si>
+    <t>sample</t>
+  </si>
+  <si>
+    <t>If quantile mode, can be either sample or channel. sample calculates n_quantiles for each channel and sample and then takes the average for each quantile over all samples to form a target distribution. channel calculates n_quantiles over all events in all reference samples for a given channel to form a target distribution. sample option is much slower, but more traditional.</t>
+  </si>
+  <si>
+    <t>norm_n_quantiles</t>
+  </si>
+  <si>
+    <t>norm_hide_zeroes</t>
+  </si>
+  <si>
+    <t>0 or 1. whether to produce additional density ridges with 0 values hidden for better visibility.</t>
+  </si>
+  <si>
+    <t>norm_ridges_downsampling</t>
+  </si>
+  <si>
+    <t>between 0 and 1. downsampling factor for density ridge plots. Use to speedup compute time.</t>
+  </si>
+  <si>
+    <t>how many quantiles to compute (+1). Tested: 100, 100000. No major difference spotted. Influences runtime by A LOT</t>
+  </si>
+  <si>
+    <t>percentile, quantile or harmony. Percentile does linear scaling using automatically estimated optimal anchor sample and optimal percentile for each channel. Quantile maps a spline interpolation function for each batch and adjusts all NON-ZERO values using the spline. NON-ZERO part is important. Harmony is weird for now, will fix at some point.</t>
+  </si>
+  <si>
+    <t>iahp_panel_1</t>
+  </si>
+  <si>
+    <t>treat_NA_as_group</t>
+  </si>
+  <si>
+    <t>0 (off, default) or 1 (on)</t>
+  </si>
+  <si>
     <t>percentile</t>
-  </si>
-  <si>
-    <t>percentile or harmony. Harmony is weird for now, will fix.</t>
-  </si>
-  <si>
-    <t>dc10</t>
-  </si>
-  <si>
-    <t>Anchor</t>
-  </si>
-  <si>
-    <t>B2M, DNA, Bead, LD, Live, Dead, ID, Cell-ID, Cell_ID, NA</t>
-  </si>
-  <si>
-    <t>group, paired_0, paired_0_5, paired_4, paired_24, paired_0_LPS, paired_0_5_LPS, paired_4_LPS, paired_24_LPS</t>
-  </si>
-  <si>
-    <t>Control order of groups. Input group names separated by comma and whitespace (", "). For multiple grouping columns - separate by semicolon and whitespace ("; "). If you do not want to input order for any specific grouping column - write NA.</t>
-  </si>
-  <si>
-    <t>DC</t>
-  </si>
-  <si>
-    <t>treat_NA_as_group</t>
-  </si>
-  <si>
-    <t>0 (off, default) or 1 (on)</t>
-  </si>
-  <si>
-    <t>DC_0h, DC_0_5h, DC_4h, DC_24h, DC_LPS_0h, DC_LPS_0_5h, DC_LPS_4h, DC_LPS_24h, DC10_0h, DC10_0_5h, DC10_4h, DC10_24h, DC10_LPS_0h, DC10_LPS_0_5h, DC10_LPS_4h, DC10_LPS_24h; DC_0h, DC10_0h; DC_0_5h, DC10_0_5h; DC_4h, DC10_4h; DC_24h, DC10_24h; DC_LPS_0h, DC10_LPS_0h; DC_LPS_0_5h, DC10_LPS_0_5h; DC_LPS_4h, DC10_LPS_4h; DC_LPS_24h, DC10_LPS_24h</t>
   </si>
 </sst>
 </file>
@@ -746,15 +773,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="24.44140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="71.33203125" style="2" customWidth="1"/>
     <col min="3" max="3" width="59" style="2" customWidth="1"/>
   </cols>
@@ -786,7 +813,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>21</v>
@@ -808,10 +835,10 @@
         <v>45</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
@@ -832,281 +859,325 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B11" s="19">
+        <v>100000</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12" s="19">
+        <v>1</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B13" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+    </row>
+    <row r="15" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="18">
+        <v>0</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="17">
+        <v>1</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A18" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="2">
+        <v>1</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
-    </row>
-    <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="18">
-        <v>0</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="17">
-        <v>1</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A14" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" s="2">
-        <v>1</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A16" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="B17" s="2">
-        <v>0</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A18" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="187.2" x14ac:dyDescent="0.3">
-      <c r="A19" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B19" s="2">
-        <v>1</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B21" s="2">
+        <v>0</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A22" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A23" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="2">
+        <v>1</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A24" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B24" s="2">
         <v>100</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C24" s="8" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="9" t="s">
+    <row r="25" spans="1:3" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B21" s="16" t="s">
+      <c r="B25" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
+    </row>
+    <row r="27" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A27" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" s="17">
+        <v>1</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A28" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="2">
+        <v>1</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29" s="16">
+        <v>0</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="20"/>
+      <c r="C30" s="20"/>
+    </row>
+    <row r="31" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A31" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B31" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A32" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B32" s="2">
+        <v>30</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A33" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33" s="2">
+        <v>10</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B34" s="16">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="G34" s="15"/>
+    </row>
+    <row r="35" spans="1:7" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B35" s="21"/>
+      <c r="C35" s="21"/>
+    </row>
+    <row r="36" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="A36" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B36" s="17">
+        <v>15</v>
+      </c>
+      <c r="C36" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C21" s="10" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="B22" s="22"/>
-      <c r="C22" s="22"/>
-    </row>
-    <row r="23" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A23" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B23" s="17">
-        <v>1</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A24" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B24" s="2">
-        <v>1</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B25" s="16">
-        <v>0</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="B26" s="20"/>
-      <c r="C26" s="20"/>
-    </row>
-    <row r="27" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A27" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B27" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A28" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B28" s="2">
-        <v>20</v>
-      </c>
-      <c r="C28" s="13" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A29" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B29" s="2">
-        <v>10</v>
-      </c>
-      <c r="C29" s="13" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B30" s="16">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="C30" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="G30" s="15"/>
-    </row>
-    <row r="31" spans="1:7" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31" s="21"/>
-      <c r="C31" s="21"/>
-    </row>
-    <row r="32" spans="1:7" ht="72" x14ac:dyDescent="0.3">
-      <c r="A32" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B32" s="17">
-        <v>20</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="9" t="s">
+    </row>
+    <row r="37" spans="1:7" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B33" s="16">
-        <v>0.15</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>55</v>
+      <c r="B37" s="16">
+        <v>0.1</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A6:C6"/>
     <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A22:C22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/settings.xlsx
+++ b/settings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://charitede-my.sharepoint.com/personal/lev_petrov_charite_de/Documents/DOCTORATE/Cytomata_data/iahp_panel_1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="97" documentId="13_ncr:1_{9C262F40-B724-47DA-807B-CA0883A1DDFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0978B61A-273A-4D76-AAF9-C850FC64C5D1}"/>
+  <xr:revisionPtr revIDLastSave="99" documentId="13_ncr:1_{9C262F40-B724-47DA-807B-CA0883A1DDFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{03721125-8F97-4ABF-A6EF-FD79164E632C}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -258,7 +258,7 @@
     <t>0 (off, default) or 1 (on)</t>
   </si>
   <si>
-    <t>percentile</t>
+    <t>quantile</t>
   </si>
 </sst>
 </file>
@@ -775,8 +775,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -937,7 +937,7 @@
         <v>27</v>
       </c>
       <c r="B15" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" s="12" t="s">
         <v>24</v>

--- a/settings.xlsx
+++ b/settings.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://charitede-my.sharepoint.com/personal/lev_petrov_charite_de/Documents/DOCTORATE/Cytomata_data/iahp_panel_1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://charitede-my.sharepoint.com/personal/lev_petrov_charite_de/Documents/DOCTORATE/Cytomata_data/iahp_panel_2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="99" documentId="13_ncr:1_{9C262F40-B724-47DA-807B-CA0883A1DDFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{03721125-8F97-4ABF-A6EF-FD79164E632C}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{4072FD5B-943D-4C26-9378-A5CA380F2CD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7B0AA230-583C-470D-8818-B113C3E41708}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -216,9 +216,6 @@
     <t>HC, S1.1, S1.2; HC, S1.1; HC, S1.2; S1.1, S1.2</t>
   </si>
   <si>
-    <t>B, CD4_T, CD8_T, Monos_and_DCs, NK, TCRgd_T</t>
-  </si>
-  <si>
     <t>norm_method</t>
   </si>
   <si>
@@ -249,9 +246,6 @@
     <t>percentile, quantile or harmony. Percentile does linear scaling using automatically estimated optimal anchor sample and optimal percentile for each channel. Quantile maps a spline interpolation function for each batch and adjusts all NON-ZERO values using the spline. NON-ZERO part is important. Harmony is weird for now, will fix at some point.</t>
   </si>
   <si>
-    <t>iahp_panel_1</t>
-  </si>
-  <si>
     <t>treat_NA_as_group</t>
   </si>
   <si>
@@ -259,6 +253,12 @@
   </si>
   <si>
     <t>quantile</t>
+  </si>
+  <si>
+    <t>iahp_panel_2</t>
+  </si>
+  <si>
+    <t>Granulos</t>
   </si>
 </sst>
 </file>
@@ -775,8 +775,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -813,7 +813,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>21</v>
@@ -864,10 +864,10 @@
         <v>59</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -883,46 +883,46 @@
     </row>
     <row r="10" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="C10" s="8" t="s">
         <v>65</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B11" s="19">
         <v>100000</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B12" s="19">
         <v>1</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B13" s="16">
         <v>0.2</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
@@ -937,7 +937,7 @@
         <v>27</v>
       </c>
       <c r="B15" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" s="12" t="s">
         <v>24</v>
@@ -996,13 +996,13 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B21" s="2">
         <v>0</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
@@ -1010,7 +1010,7 @@
         <v>9</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="C22" s="8" t="s">
         <v>52</v>

--- a/settings.xlsx
+++ b/settings.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://charitede-my.sharepoint.com/personal/lev_petrov_charite_de/Documents/DOCTORATE/Cytomata_data/iahp_panel_2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://charitede-my.sharepoint.com/personal/lev_petrov_charite_de/Documents/DOCTORATE/Cytomata_data/iahp_panel_3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{4072FD5B-943D-4C26-9378-A5CA380F2CD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7B0AA230-583C-470D-8818-B113C3E41708}"/>
+  <xr:revisionPtr revIDLastSave="105" documentId="13_ncr:1_{9C262F40-B724-47DA-807B-CA0883A1DDFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D1F6F8A5-DD13-4829-ABAD-55A00A56A60F}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1884" yWindow="1884" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -216,6 +216,9 @@
     <t>HC, S1.1, S1.2; HC, S1.1; HC, S1.2; S1.1, S1.2</t>
   </si>
   <si>
+    <t>B, CD4_T, CD8_T, Monos_and_DCs, NK, TCRgd_T</t>
+  </si>
+  <si>
     <t>norm_method</t>
   </si>
   <si>
@@ -255,10 +258,7 @@
     <t>quantile</t>
   </si>
   <si>
-    <t>iahp_panel_2</t>
-  </si>
-  <si>
-    <t>Granulos</t>
+    <t>iahp_panel_3</t>
   </si>
 </sst>
 </file>
@@ -775,8 +775,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -813,7 +813,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>21</v>
@@ -864,10 +864,10 @@
         <v>59</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -883,46 +883,46 @@
     </row>
     <row r="10" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B11" s="19">
         <v>100000</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B12" s="19">
         <v>1</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B13" s="16">
         <v>0.2</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
@@ -996,13 +996,13 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B21" s="2">
         <v>0</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
@@ -1010,7 +1010,7 @@
         <v>9</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="C22" s="8" t="s">
         <v>52</v>

--- a/settings.xlsx
+++ b/settings.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://charitede-my.sharepoint.com/personal/lev_petrov_charite_de/Documents/DOCTORATE/Cytomata_data/iahp_panel_3/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://charitede-my.sharepoint.com/personal/lev_petrov_charite_de/Documents/DOCTORATE/Cytomata_data/iahp_panel_2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="105" documentId="13_ncr:1_{9C262F40-B724-47DA-807B-CA0883A1DDFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D1F6F8A5-DD13-4829-ABAD-55A00A56A60F}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{4072FD5B-943D-4C26-9378-A5CA380F2CD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7B0AA230-583C-470D-8818-B113C3E41708}"/>
   <bookViews>
-    <workbookView xWindow="1884" yWindow="1884" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -216,9 +216,6 @@
     <t>HC, S1.1, S1.2; HC, S1.1; HC, S1.2; S1.1, S1.2</t>
   </si>
   <si>
-    <t>B, CD4_T, CD8_T, Monos_and_DCs, NK, TCRgd_T</t>
-  </si>
-  <si>
     <t>norm_method</t>
   </si>
   <si>
@@ -258,7 +255,10 @@
     <t>quantile</t>
   </si>
   <si>
-    <t>iahp_panel_3</t>
+    <t>iahp_panel_2</t>
+  </si>
+  <si>
+    <t>Granulos</t>
   </si>
 </sst>
 </file>
@@ -775,8 +775,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -813,7 +813,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>21</v>
@@ -864,10 +864,10 @@
         <v>59</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -883,46 +883,46 @@
     </row>
     <row r="10" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="C10" s="8" t="s">
         <v>65</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B11" s="19">
         <v>100000</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B12" s="19">
         <v>1</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B13" s="16">
         <v>0.2</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
@@ -996,13 +996,13 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B21" s="2">
         <v>0</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
@@ -1010,7 +1010,7 @@
         <v>9</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="C22" s="8" t="s">
         <v>52</v>

--- a/settings.xlsx
+++ b/settings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27932"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://charitede-my.sharepoint.com/personal/lev_petrov_charite_de/Documents/DOCTORATE/Cytomata_data/iahp_panel_2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://charitede-my.sharepoint.com/personal/lev_petrov_charite_de/Documents/DOCTORATE/Cytomata_data/iahp_panel_1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{4072FD5B-943D-4C26-9378-A5CA380F2CD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7B0AA230-583C-470D-8818-B113C3E41708}"/>
+  <xr:revisionPtr revIDLastSave="106" documentId="13_ncr:1_{9C262F40-B724-47DA-807B-CA0883A1DDFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0C142C15-61FE-4B80-ACAE-6448CE126CDF}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="3780" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -216,6 +216,9 @@
     <t>HC, S1.1, S1.2; HC, S1.1; HC, S1.2; S1.1, S1.2</t>
   </si>
   <si>
+    <t>B, CD4_T, CD8_T, Monos_and_DCs, NK, TCRgd_T</t>
+  </si>
+  <si>
     <t>norm_method</t>
   </si>
   <si>
@@ -246,6 +249,9 @@
     <t>percentile, quantile or harmony. Percentile does linear scaling using automatically estimated optimal anchor sample and optimal percentile for each channel. Quantile maps a spline interpolation function for each batch and adjusts all NON-ZERO values using the spline. NON-ZERO part is important. Harmony is weird for now, will fix at some point.</t>
   </si>
   <si>
+    <t>iahp_panel_1</t>
+  </si>
+  <si>
     <t>treat_NA_as_group</t>
   </si>
   <si>
@@ -253,12 +259,6 @@
   </si>
   <si>
     <t>quantile</t>
-  </si>
-  <si>
-    <t>iahp_panel_2</t>
-  </si>
-  <si>
-    <t>Granulos</t>
   </si>
 </sst>
 </file>
@@ -775,8 +775,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -813,7 +813,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>21</v>
@@ -864,10 +864,10 @@
         <v>59</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -883,46 +883,46 @@
     </row>
     <row r="10" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B11" s="19">
         <v>100000</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B12" s="19">
         <v>1</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B13" s="16">
         <v>0.2</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
@@ -996,13 +996,13 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B21" s="2">
         <v>0</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
@@ -1010,7 +1010,7 @@
         <v>9</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="C22" s="8" t="s">
         <v>52</v>
@@ -1153,7 +1153,7 @@
         <v>14</v>
       </c>
       <c r="B36" s="17">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C36" s="6" t="s">
         <v>56</v>
@@ -1164,7 +1164,7 @@
         <v>15</v>
       </c>
       <c r="B37" s="16">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="C37" s="10" t="s">
         <v>57</v>

--- a/settings.xlsx
+++ b/settings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27932"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://charitede-my.sharepoint.com/personal/lev_petrov_charite_de/Documents/DOCTORATE/Cytomata_data/iahp_panel_1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://charitede-my.sharepoint.com/personal/lev_petrov_charite_de/Documents/DOCTORATE/Cytomata_data/anca_panel_1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="106" documentId="13_ncr:1_{9C262F40-B724-47DA-807B-CA0883A1DDFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0C142C15-61FE-4B80-ACAE-6448CE126CDF}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{9C262F40-B724-47DA-807B-CA0883A1DDFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{692FB08E-D1B3-497B-8394-4AD66FE0A642}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="3780" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="80">
   <si>
     <t>setting</t>
   </si>
@@ -174,6 +174,9 @@
     <t>HC-050</t>
   </si>
   <si>
+    <t>anca_panel_1</t>
+  </si>
+  <si>
     <t>Patterns present in the names of pre-processing channels that will be used to remove them. Input separated by comma and whitespace (", "). This can be adjusted in the panel.csv file afterwards.</t>
   </si>
   <si>
@@ -201,64 +204,67 @@
     <t>UMAPs min_dist. Lower values lead to clumpier embeddings, higher make them more spread-out. Accepts multiple values, separated by comma and whitespace (", ") of different values are needed for each data_subset. Order is given by data_subset vector.</t>
   </si>
   <si>
+    <t>Control order of groups. Input group names separated by comma and whitespace (", "). For multiple grouping columns - separate by semicolon and whitespace (", "). If you do not want to input order for any specific grouping column - write NA.</t>
+  </si>
+  <si>
+    <t>HC, MPO, PR3; HC, ANCA</t>
+  </si>
+  <si>
+    <t>antigen, anca_status</t>
+  </si>
+  <si>
     <t>0, 30</t>
   </si>
   <si>
     <t>norm_mode</t>
   </si>
   <si>
-    <t>Control order of groups. Input group names separated by comma and whitespace (", "). For multiple grouping columns - separate by semicolon and whitespace ("; "). If you do not want to input order for any specific grouping column - write NA.</t>
-  </si>
-  <si>
-    <t>visit, hc_pre, hc_post, pre_post</t>
-  </si>
-  <si>
-    <t>HC, S1.1, S1.2; HC, S1.1; HC, S1.2; S1.1, S1.2</t>
+    <t>quantile</t>
+  </si>
+  <si>
+    <t>percentile, quantile or harmony. Percentile does linear scaling using automatically estimated optimal anchor sample and optimal percentile for each channel. Quantile maps a spline interpolation function for each batch and adjusts all NON-ZERO values using the spline. NON-ZERO part is important. Harmony is weird for now, will fix at some point.</t>
+  </si>
+  <si>
+    <t>norm_method</t>
+  </si>
+  <si>
+    <t>sample</t>
+  </si>
+  <si>
+    <t>If quantile mode, can be either sample or channel. sample calculates n_quantiles for each channel and sample and then takes the average for each quantile over all samples to form a target distribution. channel calculates n_quantiles over all events in all reference samples for a given channel to form a target distribution. sample option is much slower, but more traditional.</t>
+  </si>
+  <si>
+    <t>norm_n_quantiles</t>
+  </si>
+  <si>
+    <t>how many quantiles to compute (+1). Tested: 100, 100000. No major difference spotted. Influences runtime by A LOT</t>
+  </si>
+  <si>
+    <t>norm_hide_zeroes</t>
+  </si>
+  <si>
+    <t>0 or 1. whether to produce additional density ridges with 0 values hidden for better visibility.</t>
+  </si>
+  <si>
+    <t>norm_ridges_downsampling</t>
+  </si>
+  <si>
+    <t>between 0 and 1. downsampling factor for density ridge plots. Use to speedup compute time.</t>
+  </si>
+  <si>
+    <t>full dataset subsetting settings</t>
+  </si>
+  <si>
+    <t>do_subsetting</t>
+  </si>
+  <si>
+    <t>treat_NA_as_group</t>
+  </si>
+  <si>
+    <t>0 (off, default) or 1 (on)</t>
   </si>
   <si>
     <t>B, CD4_T, CD8_T, Monos_and_DCs, NK, TCRgd_T</t>
-  </si>
-  <si>
-    <t>norm_method</t>
-  </si>
-  <si>
-    <t>sample</t>
-  </si>
-  <si>
-    <t>If quantile mode, can be either sample or channel. sample calculates n_quantiles for each channel and sample and then takes the average for each quantile over all samples to form a target distribution. channel calculates n_quantiles over all events in all reference samples for a given channel to form a target distribution. sample option is much slower, but more traditional.</t>
-  </si>
-  <si>
-    <t>norm_n_quantiles</t>
-  </si>
-  <si>
-    <t>norm_hide_zeroes</t>
-  </si>
-  <si>
-    <t>0 or 1. whether to produce additional density ridges with 0 values hidden for better visibility.</t>
-  </si>
-  <si>
-    <t>norm_ridges_downsampling</t>
-  </si>
-  <si>
-    <t>between 0 and 1. downsampling factor for density ridge plots. Use to speedup compute time.</t>
-  </si>
-  <si>
-    <t>how many quantiles to compute (+1). Tested: 100, 100000. No major difference spotted. Influences runtime by A LOT</t>
-  </si>
-  <si>
-    <t>percentile, quantile or harmony. Percentile does linear scaling using automatically estimated optimal anchor sample and optimal percentile for each channel. Quantile maps a spline interpolation function for each batch and adjusts all NON-ZERO values using the spline. NON-ZERO part is important. Harmony is weird for now, will fix at some point.</t>
-  </si>
-  <si>
-    <t>iahp_panel_1</t>
-  </si>
-  <si>
-    <t>treat_NA_as_group</t>
-  </si>
-  <si>
-    <t>0 (off, default) or 1 (on)</t>
-  </si>
-  <si>
-    <t>quantile</t>
   </si>
 </sst>
 </file>
@@ -425,7 +431,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -481,13 +487,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -773,15 +776,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.44140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="23.109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="71.33203125" style="2" customWidth="1"/>
     <col min="3" max="3" width="59" style="2" customWidth="1"/>
   </cols>
@@ -813,7 +816,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>21</v>
@@ -838,22 +841,22 @@
         <v>46</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>25</v>
       </c>
       <c r="B7" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>24</v>
@@ -861,323 +864,342 @@
     </row>
     <row r="8" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="B8" s="19" t="s">
-        <v>77</v>
+        <v>63</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="2" t="s">
         <v>48</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="B10" s="19" t="s">
-        <v>65</v>
+        <v>66</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="B11" s="19">
+        <v>69</v>
+      </c>
+      <c r="B11" s="2">
         <v>100000</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="B12" s="19">
+        <v>71</v>
+      </c>
+      <c r="B12" s="2">
         <v>1</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="9" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B13" s="16">
         <v>0.2</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="21" t="s">
+      <c r="A14" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="21"/>
-      <c r="C14" s="21"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
     </row>
     <row r="15" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="11" t="s">
         <v>27</v>
       </c>
       <c r="B15" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" s="12" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="21" t="s">
+      <c r="A16" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+    </row>
+    <row r="17" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="B17" s="18">
+        <v>1</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="5" t="s">
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="17">
+      <c r="B19" s="17">
         <v>1</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C19" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A18" s="7" t="s">
+    <row r="20" spans="1:3" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B20" s="2">
         <v>1</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C20" s="8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A19" s="7" t="s">
+    <row r="21" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B21" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C19" s="8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="7" t="s">
+      <c r="C21" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C20" s="8" t="s">
+      <c r="B22" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="B21" s="2">
+      <c r="C22" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B23" s="2">
         <v>0</v>
       </c>
-      <c r="C21" s="8" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A22" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="187.2" x14ac:dyDescent="0.3">
-      <c r="A23" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B23" s="2">
-        <v>1</v>
-      </c>
       <c r="C23" s="8" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A25" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="2">
+        <v>1</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A26" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B26" s="2">
         <v>100</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C26" s="8" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="9" t="s">
+    <row r="27" spans="1:3" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B25" s="16" t="s">
+      <c r="B27" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" s="21"/>
+      <c r="C28" s="21"/>
+    </row>
+    <row r="29" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A29" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" s="17">
+        <v>1</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A30" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" s="2">
+        <v>1</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" s="16">
+        <v>0</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B32" s="20"/>
+      <c r="C32" s="20"/>
+    </row>
+    <row r="33" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A33" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B33" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A34" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B34" s="2">
+        <v>30</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A35" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B35" s="2">
+        <v>10</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36" s="16">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="C36" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="G36" s="15"/>
+    </row>
+    <row r="37" spans="1:7" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B37" s="19"/>
+      <c r="C37" s="19"/>
+    </row>
+    <row r="38" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="A38" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B38" s="17">
+        <v>10</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B39" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="C39" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="C25" s="10" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="B26" s="22"/>
-      <c r="C26" s="22"/>
-    </row>
-    <row r="27" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A27" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B27" s="17">
-        <v>1</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A28" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B28" s="2">
-        <v>1</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B29" s="16">
-        <v>0</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30" s="20"/>
-      <c r="C30" s="20"/>
-    </row>
-    <row r="31" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A31" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B31" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A32" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B32" s="2">
-        <v>30</v>
-      </c>
-      <c r="C32" s="13" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A33" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B33" s="2">
-        <v>10</v>
-      </c>
-      <c r="C33" s="13" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B34" s="16">
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="C34" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="G34" s="15"/>
-    </row>
-    <row r="35" spans="1:7" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="B35" s="21"/>
-      <c r="C35" s="21"/>
-    </row>
-    <row r="36" spans="1:7" ht="72" x14ac:dyDescent="0.3">
-      <c r="A36" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B36" s="17">
-        <v>10</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B37" s="16">
-        <v>0.2</v>
-      </c>
-      <c r="C37" s="10" t="s">
-        <v>57</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A35:C35"/>
+  <mergeCells count="7">
+    <mergeCell ref="A6:C6"/>
     <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A18:C18"/>
     <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A28:C28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/settings.xlsx
+++ b/settings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://charitede-my.sharepoint.com/personal/lev_petrov_charite_de/Documents/DOCTORATE/Cytomata_data/anca_panel_1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{9C262F40-B724-47DA-807B-CA0883A1DDFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{692FB08E-D1B3-497B-8394-4AD66FE0A642}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="13_ncr:1_{9C262F40-B724-47DA-807B-CA0883A1DDFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A1005B3A-DE90-4612-B4DF-06226767E48E}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-27360" yWindow="-10155" windowWidth="21600" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -264,7 +264,7 @@
     <t>0 (off, default) or 1 (on)</t>
   </si>
   <si>
-    <t>B, CD4_T, CD8_T, Monos_and_DCs, NK, TCRgd_T</t>
+    <t>CD4_T, CD8_T, TCRgd_T, B, Monos_and_DCs, NK</t>
   </si>
 </sst>
 </file>
@@ -778,8 +778,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -856,7 +856,7 @@
         <v>25</v>
       </c>
       <c r="B7" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>24</v>
@@ -940,7 +940,7 @@
         <v>27</v>
       </c>
       <c r="B15" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" s="12" t="s">
         <v>24</v>
@@ -958,7 +958,7 @@
         <v>76</v>
       </c>
       <c r="B17" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" s="12" t="s">
         <v>24</v>
